--- a/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.01440945196191538</v>
+        <v>0.01382537859534967</v>
       </c>
       <c r="F2">
         <v>0.5121107686696046</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.01065828571334403</v>
+        <v>0.01064837003262589</v>
       </c>
       <c r="F4">
         <v>0.5027957127230108</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.007517649088195771</v>
+        <v>0.007516935054175395</v>
       </c>
       <c r="F5">
         <v>0.5000840990687369</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>132</v>
       </c>
       <c r="E6">
-        <v>0.0113398893935851</v>
+        <v>0.01086944862073624</v>
       </c>
       <c r="F6">
         <v>0.5004303491452918</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.01440945196191538</v>
+        <v>0.01382537859534967</v>
       </c>
       <c r="F2">
         <v>0.7520368510144769</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.01065828571334403</v>
+        <v>0.01064837003262589</v>
       </c>
       <c r="F4">
         <v>0.722207313675164</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.007517649088195771</v>
+        <v>0.007516935054175395</v>
       </c>
       <c r="F5">
         <v>0.7141774096738451</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.0113398893935851</v>
+        <v>0.01086944862073624</v>
       </c>
       <c r="F6">
         <v>0.7249178873691597</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.01440945196191538</v>
+        <v>0.01382537859534967</v>
       </c>
       <c r="F2">
         <v>0.8018761774280384</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.01065828571334403</v>
+        <v>0.01064837003262589</v>
       </c>
       <c r="F4">
         <v>0.8032867842130539</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
       <c r="E5">
-        <v>0.007517649088195771</v>
+        <v>0.007516935054175395</v>
       </c>
       <c r="F5">
         <v>0.8003261370321616</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.0113398893935851</v>
+        <v>0.01086944862073624</v>
       </c>
       <c r="F6">
         <v>0.8185513869651718</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>169</v>
       </c>
       <c r="E2">
-        <v>0.01440945196191538</v>
+        <v>0.01382537859534967</v>
       </c>
       <c r="F2">
         <v>0.9097775480883772</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.01065828571334403</v>
+        <v>0.01064837003262589</v>
       </c>
       <c r="F4">
         <v>0.908193594274736</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>173</v>
       </c>
       <c r="E5">
-        <v>0.007517649088195771</v>
+        <v>0.007516935054175395</v>
       </c>
       <c r="F5">
         <v>0.9016794685643524</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>171</v>
       </c>
       <c r="E6">
-        <v>0.0113398893935851</v>
+        <v>0.01086944862073624</v>
       </c>
       <c r="F6">
         <v>0.9034777037737126</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>31</v>

--- a/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001204911034174134</v>
+        <v>0.0001171437734980022</v>
       </c>
       <c r="C2">
-        <v>0.0001634430746356331</v>
+        <v>0.0001601239452352522</v>
       </c>
       <c r="D2">
-        <v>0.000150951344281338</v>
+        <v>0.0001476240133183842</v>
       </c>
       <c r="E2">
-        <v>0.0001475539041849785</v>
+        <v>0.000144224342600906</v>
       </c>
       <c r="F2">
-        <v>0.0001908754654136807</v>
+        <v>0.0001875743470064218</v>
       </c>
       <c r="G2">
-        <v>0.0002629057974566317</v>
+        <v>0.0002596519712385767</v>
       </c>
       <c r="H2">
-        <v>0.0002315829365682411</v>
+        <v>0.0002283085450324716</v>
       </c>
       <c r="I2">
-        <v>0.0001703285448309213</v>
+        <v>0.0001670139361504927</v>
       </c>
       <c r="J2">
-        <v>0.0001973327355968242</v>
+        <v>0.0001940358567707886</v>
       </c>
       <c r="K2">
-        <v>0.0001117520331695526</v>
+        <v>0.0001083989655317122</v>
       </c>
       <c r="L2">
-        <v>5.713164662038894E-05</v>
+        <v>5.37427174561358E-05</v>
       </c>
       <c r="M2">
-        <v>6.755433491600109E-06</v>
+        <v>3.333429352748137E-06</v>
       </c>
       <c r="N2">
-        <v>6.485516183944614E-11</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.424191297118183E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.499975642542865E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.205964034203999E-05</v>
+        <v>8.64111872987967E-06</v>
       </c>
       <c r="R2">
-        <v>2.242714463608699E-05</v>
+        <v>1.901542990598233E-05</v>
       </c>
       <c r="S2">
-        <v>5.597965158771563E-05</v>
+        <v>5.258996607033316E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001309848437150407</v>
+        <v>0.0001276444035591158</v>
       </c>
       <c r="U2">
-        <v>0.0002254139863932751</v>
+        <v>0.0002221355445754842</v>
       </c>
       <c r="V2">
-        <v>0.0001964839355727502</v>
+        <v>0.0001931864994591082</v>
       </c>
       <c r="W2">
-        <v>0.0002634283274714519</v>
+        <v>0.0002601748443253725</v>
       </c>
       <c r="X2">
-        <v>0.0002431468068962199</v>
+        <v>0.0002398800077278319</v>
       </c>
       <c r="Y2">
-        <v>0.0002798505679372256</v>
+        <v>0.0002766078669669496</v>
       </c>
       <c r="Z2">
-        <v>0.0003044032586335981</v>
+        <v>0.0003011766779623814</v>
       </c>
       <c r="AA2">
-        <v>0.0001744024549464671</v>
+        <v>0.0001710905210298848</v>
       </c>
       <c r="AB2">
-        <v>8.802747749666795E-05</v>
+        <v>8.465883327957489E-05</v>
       </c>
       <c r="AC2">
-        <v>5.736345162696349E-06</v>
+        <v>2.313671931856333E-06</v>
       </c>
       <c r="AD2">
-        <v>5.726222562409247E-07</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.86111415278561E-05</v>
+        <v>1.51969213651666E-05</v>
       </c>
       <c r="AF2">
-        <v>4.552776729127542E-05</v>
+        <v>4.213121949135633E-05</v>
       </c>
       <c r="AG2">
-        <v>6.342702679894085E-05</v>
+        <v>6.004223092551215E-05</v>
       </c>
       <c r="AH2">
-        <v>0.000116705513310045</v>
+        <v>0.0001133556979259896</v>
       </c>
       <c r="AI2">
-        <v>0.0001256325535632371</v>
+        <v>0.0001222885993110786</v>
       </c>
       <c r="AJ2">
-        <v>0.0002012586857081735</v>
+        <v>0.0001979643845014575</v>
       </c>
       <c r="AK2">
-        <v>0.0002773787778671198</v>
+        <v>0.0002741344540199202</v>
       </c>
       <c r="AL2">
-        <v>0.0002974125084353238</v>
+        <v>0.0002941813379215829</v>
       </c>
       <c r="AM2">
-        <v>0.0002599082473716141</v>
+        <v>0.000256652453083973</v>
       </c>
       <c r="AN2">
-        <v>0.0002129301960392052</v>
+        <v>0.0002096435578719229</v>
       </c>
       <c r="AO2">
-        <v>0.0002180329561839315</v>
+        <v>0.0002147496682816194</v>
       </c>
       <c r="AP2">
-        <v>0.0001400510139721788</v>
+        <v>0.0001367165262952582</v>
       </c>
       <c r="AQ2">
-        <v>9.707888275338727E-05</v>
+        <v>9.371618132119914E-05</v>
       </c>
       <c r="AR2">
-        <v>6.85082219430556E-05</v>
+        <v>6.512676217589382E-05</v>
       </c>
       <c r="AS2">
-        <v>3.905208510760972E-05</v>
+        <v>3.565128563789585E-05</v>
       </c>
       <c r="AT2">
-        <v>1.420877940299467E-05</v>
+        <v>1.079166882821559E-05</v>
       </c>
       <c r="AU2">
-        <v>1.143999332446533E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>7.292451606831217E-08</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.433623497385703E-05</v>
+        <v>3.093233926856494E-05</v>
       </c>
       <c r="AX2">
-        <v>2.924432782943847E-05</v>
+        <v>2.58370889848153E-05</v>
       </c>
       <c r="AY2">
-        <v>0.0001055659529941007</v>
+        <v>0.0001022088238273767</v>
       </c>
       <c r="AZ2">
-        <v>0.000192926855471863</v>
+        <v>0.0001896270839239619</v>
       </c>
       <c r="BA2">
-        <v>0.0003601151102137183</v>
+        <v>0.0003569251076805042</v>
       </c>
       <c r="BB2">
-        <v>0.0004205059519265457</v>
+        <v>0.0004173555995661333</v>
       </c>
       <c r="BC2">
-        <v>0.0005304870550458706</v>
+        <v>0.0005274089118088936</v>
       </c>
       <c r="BD2">
-        <v>0.0004281440121431792</v>
+        <v>0.000424998674622747</v>
       </c>
       <c r="BE2">
-        <v>0.0003121341388528642</v>
+        <v>0.00030891263396347</v>
       </c>
       <c r="BF2">
-        <v>0.000192926855471863</v>
+        <v>0.0001896270839239619</v>
       </c>
       <c r="BG2">
-        <v>6.954602797249024E-05</v>
+        <v>6.616524958659812E-05</v>
       </c>
       <c r="BH2">
-        <v>1.875037253180502E-05</v>
+        <v>1.533624378253532E-05</v>
       </c>
       <c r="BI2">
-        <v>4.625701031195848E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.348828838255984E-07</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>5.441071154321677E-06</v>
+        <v>2.01820405856566E-06</v>
       </c>
       <c r="BL2">
-        <v>2.315845665682874E-05</v>
+        <v>1.974722207648143E-05</v>
       </c>
       <c r="BM2">
-        <v>7.299105207019927E-05</v>
+        <v>6.961253554714771E-05</v>
       </c>
       <c r="BN2">
-        <v>8.343800236649956E-05</v>
+        <v>8.00663448865206E-05</v>
       </c>
       <c r="BO2">
-        <v>0.0001555414344115238</v>
+        <v>0.0001522171171152399</v>
       </c>
       <c r="BP2">
-        <v>0.0001016993728844353</v>
+        <v>9.833970507832242E-05</v>
       </c>
       <c r="BQ2">
-        <v>0.0002022462057361819</v>
+        <v>0.0001989525528949903</v>
       </c>
       <c r="BR2">
-        <v>0.0003460114298137045</v>
+        <v>0.0003428121673770159</v>
       </c>
       <c r="BS2">
-        <v>0.000519131214723792</v>
+        <v>0.0005160456157034825</v>
       </c>
       <c r="BT2">
-        <v>0.0004444126126045953</v>
+        <v>0.0004412779563861824</v>
       </c>
       <c r="BU2">
-        <v>0.0003643538903339401</v>
+        <v>0.0003611666708115182</v>
       </c>
       <c r="BV2">
-        <v>0.0002820297779990331</v>
+        <v>0.0002787885078095357</v>
       </c>
       <c r="BW2">
-        <v>0.0001886407853502999</v>
+        <v>0.0001853381997429133</v>
       </c>
       <c r="BX2">
-        <v>6.269090177806261E-05</v>
+        <v>5.930562259485624E-05</v>
       </c>
       <c r="BY2">
-        <v>4.306020622128953E-05</v>
+        <v>3.966203832103654E-05</v>
       </c>
       <c r="BZ2">
-        <v>1.039961629495777E-05</v>
+        <v>6.980004778460054E-06</v>
       </c>
       <c r="CA2">
-        <v>6.264412677673595E-07</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.173987033297056E-05</v>
+        <v>8.321138772815522E-06</v>
       </c>
       <c r="CC2">
-        <v>3.710590805241152E-05</v>
+        <v>3.370383080192241E-05</v>
       </c>
       <c r="CD2">
-        <v>0.0001437474040770172</v>
+        <v>0.0001404153432996436</v>
       </c>
       <c r="CE2">
-        <v>0.0002783019778933039</v>
+        <v>0.0002750582601817291</v>
       </c>
       <c r="CF2">
-        <v>0.0002783019778933039</v>
+        <v>0.0002750582601817291</v>
       </c>
       <c r="CG2">
-        <v>0.000270623427675522</v>
+        <v>0.0002673746685398774</v>
       </c>
       <c r="CH2">
-        <v>0.0003518076899781001</v>
+        <v>0.0003486122331303155</v>
       </c>
       <c r="CI2">
-        <v>0.0003842549108983802</v>
+        <v>0.0003810807575774208</v>
       </c>
       <c r="CJ2">
-        <v>0.0004524560128327252</v>
+        <v>0.0004493266375840739</v>
       </c>
       <c r="CK2">
-        <v>0.0003266289092639702</v>
+        <v>0.0003234169210518605</v>
       </c>
       <c r="CL2">
-        <v>0.0002574444573017352</v>
+        <v>0.0002541870453896456</v>
       </c>
       <c r="CM2">
-        <v>0.000100766682857982</v>
+        <v>9.740640268549584E-05</v>
       </c>
       <c r="CN2">
-        <v>0.1102624271273038</v>
+        <v>0.1103313945171698</v>
       </c>
       <c r="CO2">
-        <v>1.705236548364551E-06</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.05650526860262338</v>
+        <v>0.05653894122652183</v>
       </c>
       <c r="CQ2">
-        <v>0.04137543717350549</v>
+        <v>0.04139917616485948</v>
       </c>
       <c r="CR2">
-        <v>0.001247648135386259</v>
+        <v>0.001245040850974158</v>
       </c>
       <c r="CS2">
-        <v>0.0006904697195833582</v>
+        <v>0.0006874966144633254</v>
       </c>
       <c r="CT2">
-        <v>0.02418243768587126</v>
+        <v>0.02419488845236649</v>
       </c>
       <c r="CU2">
-        <v>0.0066873358896687</v>
+        <v>0.006688300083204702</v>
       </c>
       <c r="CV2">
-        <v>0.008854452751133272</v>
+        <v>0.008856839785543844</v>
       </c>
       <c r="CW2">
-        <v>0.0120736593424376</v>
+        <v>0.01207815997708969</v>
       </c>
       <c r="CX2">
-        <v>3.254196892296739E-05</v>
+        <v>2.913689517549287E-05</v>
       </c>
       <c r="CY2">
-        <v>0.0007609968515836749</v>
+        <v>0.0007580700517127777</v>
       </c>
       <c r="CZ2">
-        <v>0.05155281546216007</v>
+        <v>0.05158323650656</v>
       </c>
       <c r="DA2">
-        <v>0.0535341885183565</v>
+        <v>0.05356591045179581</v>
       </c>
       <c r="DB2">
-        <v>9.79943927793533E-05</v>
+        <v>9.463229243384821E-05</v>
       </c>
       <c r="DC2">
-        <v>0.01493399342356346</v>
+        <v>0.01494037203734898</v>
       </c>
       <c r="DD2">
-        <v>0.003494121099101558</v>
+        <v>0.00349298875755628</v>
       </c>
       <c r="DE2">
-        <v>0.0009275275763068811</v>
+        <v>0.0009247101137431782</v>
       </c>
       <c r="DF2">
-        <v>0.02373762267325526</v>
+        <v>0.02374978139228741</v>
       </c>
       <c r="DG2">
-        <v>0.02101411559601014</v>
+        <v>0.0210244861709599</v>
       </c>
       <c r="DH2">
-        <v>7.817742221729703E-07</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>5.80797076472782E-05</v>
+        <v>5.469140094137266E-05</v>
       </c>
       <c r="DJ2">
-        <v>0.0004179484118540078</v>
+        <v>0.0004147963803167046</v>
       </c>
       <c r="DK2">
-        <v>1.717912748724079E-05</v>
+        <v>1.376396712231938E-05</v>
       </c>
       <c r="DL2">
-        <v>0.001870378753048376</v>
+        <v>0.001868180328256358</v>
       </c>
       <c r="DM2">
-        <v>0.00407538851558768</v>
+        <v>0.004074637810609371</v>
       </c>
       <c r="DN2">
-        <v>0.0005849882165916528</v>
+        <v>0.0005819458566027958</v>
       </c>
       <c r="DO2">
-        <v>0.0001016993728844353</v>
+        <v>9.833970507832242E-05</v>
       </c>
       <c r="DP2">
-        <v>0.004288770121639689</v>
+        <v>0.004288159514353559</v>
       </c>
       <c r="DQ2">
-        <v>0.001264395035861241</v>
+        <v>0.001261798746783513</v>
       </c>
       <c r="DR2">
-        <v>0.002634650074724923</v>
+        <v>0.002632953439428007</v>
       </c>
       <c r="DS2">
-        <v>0.00715655020297673</v>
+        <v>0.00715782246356522</v>
       </c>
       <c r="DT2">
-        <v>0.0017080765484451</v>
+        <v>0.001705771562620382</v>
       </c>
       <c r="DU2">
-        <v>0.001396216039599997</v>
+        <v>0.001393706298837029</v>
       </c>
       <c r="DV2">
-        <v>0.003812563108133329</v>
+        <v>0.003811639842671896</v>
       </c>
       <c r="DW2">
-        <v>0.0144686564103654</v>
+        <v>0.01447472950277614</v>
       </c>
       <c r="DX2">
-        <v>0.003143632689160876</v>
+        <v>0.00314227023116706</v>
       </c>
       <c r="DY2">
-        <v>0.0003203766090866402</v>
+        <v>0.0003171605158682844</v>
       </c>
       <c r="DZ2">
-        <v>0.002939170583361846</v>
+        <v>0.002937673883857291</v>
       </c>
       <c r="EA2">
-        <v>0.0007218760204741153</v>
+        <v>0.0007189235354551122</v>
       </c>
       <c r="EB2">
-        <v>0.0009466820868501484</v>
+        <v>0.0009438772003597611</v>
       </c>
       <c r="EC2">
-        <v>0.01370573138872704</v>
+        <v>0.01371130357556858</v>
       </c>
       <c r="ED2">
-        <v>0.01037960429439019</v>
+        <v>0.01038299268133243</v>
       </c>
       <c r="EE2">
-        <v>0.001800878151077174</v>
+        <v>0.001798634095013927</v>
       </c>
       <c r="EF2">
-        <v>0.01029713129205105</v>
+        <v>0.0103004655305711</v>
       </c>
       <c r="EG2">
-        <v>0.0143979644083604</v>
+        <v>0.01440399108727507</v>
       </c>
       <c r="EH2">
-        <v>0.005440186354296582</v>
+        <v>0.005440331720123207</v>
       </c>
       <c r="EI2">
-        <v>0.002009170156984829</v>
+        <v>0.002007062856989112</v>
       </c>
       <c r="EJ2">
-        <v>0.0007379102209288833</v>
+        <v>0.0007349682633143795</v>
       </c>
       <c r="EK2">
-        <v>0.001212697434394974</v>
+        <v>0.001210067202772757</v>
       </c>
       <c r="EL2">
-        <v>0.0001225348034753775</v>
+        <v>0.0001191888153663826</v>
       </c>
       <c r="EM2">
-        <v>0.001316003037324966</v>
+        <v>0.001313440631964007</v>
       </c>
       <c r="EN2">
-        <v>0.0007438335210968822</v>
+        <v>0.0007408954524805867</v>
       </c>
       <c r="EO2">
-        <v>0.001791439550809473</v>
+        <v>0.00178918929774481</v>
       </c>
       <c r="EP2">
-        <v>0.00196720685579465</v>
+        <v>0.00196507200440047</v>
       </c>
       <c r="EQ2">
-        <v>0.001883823353429696</v>
+        <v>0.001881633755815994</v>
       </c>
       <c r="ER2">
-        <v>0.002607361673950959</v>
+        <v>0.002605647122198908</v>
       </c>
       <c r="ES2">
-        <v>0.003077714087291268</v>
+        <v>0.003076308349821941</v>
       </c>
       <c r="ET2">
-        <v>0.005849983165919392</v>
+        <v>0.005850397587681215</v>
       </c>
       <c r="EU2">
-        <v>0.011398377323285</v>
+        <v>0.01140243459520212</v>
       </c>
       <c r="EV2">
-        <v>0.01579975344811847</v>
+        <v>0.0158067004847576</v>
       </c>
       <c r="EW2">
-        <v>0.02238768263496775</v>
+        <v>0.02239895503822301</v>
       </c>
       <c r="EX2">
-        <v>0.01152491132687381</v>
+        <v>0.01152905167587621</v>
       </c>
       <c r="EY2">
-        <v>0.0003548570500645872</v>
+        <v>0.0003516635953027304</v>
       </c>
       <c r="EZ2">
-        <v>0.008810044249873741</v>
+        <v>0.00881240212746684</v>
       </c>
       <c r="FA2">
-        <v>0.04453537726312889</v>
+        <v>0.04456119094274758</v>
       </c>
       <c r="FB2">
-        <v>0.05947963668698351</v>
+        <v>0.05951526216010837</v>
       </c>
       <c r="FC2">
-        <v>0.04983932641356145</v>
+        <v>0.04986862245067644</v>
       </c>
       <c r="FD2">
-        <v>0.03053888186615509</v>
+        <v>0.03055550601561708</v>
       </c>
       <c r="FE2">
-        <v>0.003446339297746353</v>
+        <v>0.003445175584611828</v>
       </c>
       <c r="FF2">
-        <v>0.0004134077117252228</v>
+        <v>0.0004102526989487176</v>
       </c>
       <c r="FG2">
-        <v>0.002733095077517056</v>
+        <v>0.002731463077208849</v>
       </c>
       <c r="FH2">
-        <v>0.004767356535213534</v>
+        <v>0.004767060148320108</v>
       </c>
       <c r="FI2">
-        <v>0.005509444656260912</v>
+        <v>0.005509635494274428</v>
       </c>
       <c r="FJ2">
-        <v>0.0005390618152890711</v>
+        <v>0.0005359893018912508</v>
       </c>
       <c r="FK2">
-        <v>0.002964352384076062</v>
+        <v>0.002962872217918641</v>
       </c>
       <c r="FL2">
-        <v>0.007172242903421813</v>
+        <v>0.007173525467199772</v>
       </c>
       <c r="FM2">
-        <v>0.02633811374701135</v>
+        <v>0.02635197984281653</v>
       </c>
       <c r="FN2">
-        <v>0.02347907466592222</v>
+        <v>0.02349106363283836</v>
       </c>
       <c r="FO2">
-        <v>0.00834516523668867</v>
+        <v>0.008347217893611186</v>
       </c>
       <c r="FP2">
-        <v>0.0004392441624580058</v>
+        <v>0.0004361061128452368</v>
       </c>
       <c r="FQ2">
-        <v>0.001266546735922268</v>
+        <v>0.00126395185956337</v>
       </c>
       <c r="FR2">
-        <v>0.005722373862300089</v>
+        <v>0.005722704500978317</v>
       </c>
       <c r="FS2">
-        <v>0.006769075191987021</v>
+        <v>0.006770093052227606</v>
       </c>
       <c r="FT2">
-        <v>0.003705446905095259</v>
+        <v>0.003704453311487374</v>
       </c>
       <c r="FU2">
-        <v>0.004458285126447536</v>
+        <v>0.004457785815825643</v>
       </c>
       <c r="FV2">
-        <v>0.003110728588227637</v>
+        <v>0.003109344526738144</v>
       </c>
       <c r="FW2">
-        <v>0.003031106285969361</v>
+        <v>0.003029669947711505</v>
       </c>
       <c r="FX2">
-        <v>0.004274531121235836</v>
+        <v>0.004273911165200615</v>
       </c>
       <c r="FY2">
-        <v>0.003398886496400479</v>
+        <v>0.003397691627684744</v>
       </c>
       <c r="FZ2">
-        <v>0.003607354902313137</v>
+        <v>0.003606296905482007</v>
       </c>
       <c r="GA2">
-        <v>0.001511608442872799</v>
+        <v>0.001509174464073069</v>
       </c>
       <c r="GB2">
-        <v>0.0002212580062754016</v>
+        <v>0.0002179768358099357</v>
       </c>
       <c r="GC2">
-        <v>0.0007706167218565173</v>
+        <v>0.0007676962380015562</v>
       </c>
       <c r="GD2">
-        <v>0.003113818088315263</v>
+        <v>0.003112436055265991</v>
       </c>
       <c r="GE2">
-        <v>0.005814586464915457</v>
+        <v>0.005814977646641678</v>
       </c>
       <c r="GF2">
-        <v>0.005194138147318072</v>
+        <v>0.005194121967889695</v>
       </c>
       <c r="GG2">
-        <v>0.003907590710828537</v>
+        <v>0.003906729836629767</v>
       </c>
       <c r="GH2">
-        <v>0.0003011771885420991</v>
+        <v>0.0002979484897643456</v>
       </c>
       <c r="GI2">
-        <v>0.0001520924143137014</v>
+        <v>0.0001487658325309657</v>
       </c>
       <c r="GJ2">
-        <v>0.0006272020177889362</v>
+        <v>0.0006241873736666679</v>
       </c>
       <c r="GK2">
-        <v>0.001600271245387486</v>
+        <v>0.001597895478981243</v>
       </c>
       <c r="GL2">
-        <v>4.490443127359613E-05</v>
+        <v>4.150747421657591E-05</v>
       </c>
       <c r="GM2">
-        <v>0.001727286048989927</v>
+        <v>0.001724993675342725</v>
       </c>
       <c r="GN2">
-        <v>0.006618133487705955</v>
+        <v>0.006619052245756737</v>
       </c>
       <c r="GO2">
-        <v>0.005994439770016523</v>
+        <v>0.005994949036114878</v>
       </c>
       <c r="GP2">
-        <v>0.00135240173835732</v>
+        <v>0.001349863230904466</v>
       </c>
       <c r="GQ2">
-        <v>1.95593275547489E-06</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0008596487743816772</v>
+        <v>0.0008567867453547562</v>
       </c>
       <c r="GS2">
-        <v>0.002280577664682589</v>
+        <v>0.002278648559828299</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.963074556692464E-05</v>
+        <v>3.599912552283884E-05</v>
       </c>
       <c r="C3">
-        <v>6.320359611970176E-05</v>
+        <v>5.958874079113783E-05</v>
       </c>
       <c r="D3">
-        <v>0.0001407399313594646</v>
+        <v>0.0001371802188996001</v>
       </c>
       <c r="E3">
-        <v>0.0003176524604981622</v>
+        <v>0.0003142185660091293</v>
       </c>
       <c r="F3">
-        <v>0.0003428430989516174</v>
+        <v>0.0003394271197285614</v>
       </c>
       <c r="G3">
-        <v>0.0005167084982773893</v>
+        <v>0.0005134161699446772</v>
       </c>
       <c r="H3">
-        <v>0.0003160602405959143</v>
+        <v>0.000312625213740066</v>
       </c>
       <c r="I3">
-        <v>0.0003022991414407582</v>
+        <v>0.0002988543278638645</v>
       </c>
       <c r="J3">
-        <v>0.0001152211989261523</v>
+        <v>0.0001116433378639893</v>
       </c>
       <c r="K3">
-        <v>6.33101311131612E-06</v>
+        <v>2.675710715351705E-06</v>
       </c>
       <c r="L3">
-        <v>3.65720397547097E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.827805226390771E-08</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.699926734241695E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.753630769550979E-05</v>
+        <v>3.390319811349077E-05</v>
       </c>
       <c r="P3">
-        <v>3.919834959347101E-05</v>
+        <v>3.556642203479457E-05</v>
       </c>
       <c r="Q3">
-        <v>1.427855712338754E-05</v>
+        <v>1.062890692099902E-05</v>
       </c>
       <c r="R3">
-        <v>4.511053723050034E-06</v>
+        <v>8.544569948054672E-07</v>
       </c>
       <c r="S3">
-        <v>5.510955061662461E-06</v>
+        <v>1.85506945070319E-06</v>
       </c>
       <c r="T3">
-        <v>4.132654146281357E-05</v>
+        <v>3.769612744749014E-05</v>
       </c>
       <c r="U3">
-        <v>7.702804127096888E-05</v>
+        <v>7.342301771432791E-05</v>
       </c>
       <c r="V3">
-        <v>7.334423149713134E-05</v>
+        <v>6.973658806120353E-05</v>
       </c>
       <c r="W3">
-        <v>0.0002329129357006293</v>
+        <v>0.0002294187755248687</v>
       </c>
       <c r="X3">
-        <v>0.000319216680402129</v>
+        <v>0.000315783898366664</v>
       </c>
       <c r="Y3">
-        <v>0.0001770184191321966</v>
+        <v>0.0001734845074776149</v>
       </c>
       <c r="Z3">
-        <v>0.0001587708402524817</v>
+        <v>0.0001552239511487707</v>
       </c>
       <c r="AA3">
-        <v>0.0002464127848718245</v>
+        <v>0.0002429282256193989</v>
       </c>
       <c r="AB3">
-        <v>0.0002531273844595909</v>
+        <v>0.0002496476005461375</v>
       </c>
       <c r="AC3">
-        <v>8.487231478938046E-05</v>
+        <v>8.127286998163612E-05</v>
       </c>
       <c r="AD3">
-        <v>1.798981389554001E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.569278303656308E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01275243321708183</v>
+        <v>0.0127578427826357</v>
       </c>
       <c r="AG3">
-        <v>0.04057143750917215</v>
+        <v>0.04059663160150672</v>
       </c>
       <c r="AH3">
-        <v>0.01199650876349077</v>
+        <v>0.01200138072505857</v>
       </c>
       <c r="AI3">
-        <v>0.05375851669956948</v>
+        <v>0.05379308927715327</v>
       </c>
       <c r="AJ3">
-        <v>0.01526169806302895</v>
+        <v>0.0152688921862551</v>
       </c>
       <c r="AK3">
-        <v>0.00235473075543453</v>
+        <v>0.002352745605467672</v>
       </c>
       <c r="AL3">
-        <v>8.571490473765079E-05</v>
+        <v>8.211605916930488E-05</v>
       </c>
       <c r="AM3">
-        <v>0.009093980441687523</v>
+        <v>0.009096788161533672</v>
       </c>
       <c r="AN3">
-        <v>0.0008059217505215377</v>
+        <v>0.0008028351070247843</v>
       </c>
       <c r="AO3">
-        <v>0.00063121222124759</v>
+        <v>0.0006280013265258658</v>
       </c>
       <c r="AP3">
-        <v>0.004589336718243957</v>
+        <v>0.004588940791998096</v>
       </c>
       <c r="AQ3">
-        <v>0.02451983149463852</v>
+        <v>0.02453360988619052</v>
       </c>
       <c r="AR3">
-        <v>0.01793874289867544</v>
+        <v>0.01794784090259725</v>
       </c>
       <c r="AS3">
-        <v>0.0205171527403775</v>
+        <v>0.02052808447702493</v>
       </c>
       <c r="AT3">
-        <v>0.01610999601094886</v>
+        <v>0.01611779343303116</v>
       </c>
       <c r="AU3">
-        <v>0.004589336718243957</v>
+        <v>0.004588940791998096</v>
       </c>
       <c r="AV3">
-        <v>0.002246408862084804</v>
+        <v>0.002244346674946615</v>
       </c>
       <c r="AW3">
-        <v>0.02232360362947293</v>
+        <v>0.0223358200913254</v>
       </c>
       <c r="AX3">
-        <v>0.01393807014429127</v>
+        <v>0.01394432291995045</v>
       </c>
       <c r="AY3">
-        <v>0.000889227375407103</v>
+        <v>0.0008861999778254523</v>
       </c>
       <c r="AZ3">
-        <v>0.0008282936791480438</v>
+        <v>0.0008252229462862074</v>
       </c>
       <c r="BA3">
-        <v>0.02516154845524119</v>
+        <v>0.02517578322784332</v>
       </c>
       <c r="BB3">
-        <v>0.003264392499587093</v>
+        <v>0.003263054289638274</v>
       </c>
       <c r="BC3">
-        <v>0.01397748714187132</v>
+        <v>0.01398376795040457</v>
       </c>
       <c r="BD3">
-        <v>0.0004209271741577525</v>
+        <v>0.000417566727349187</v>
       </c>
       <c r="BE3">
-        <v>0.02571794042108226</v>
+        <v>0.02573257089266892</v>
       </c>
       <c r="BF3">
-        <v>0.00686057357880448</v>
+        <v>0.006861792927714453</v>
       </c>
       <c r="BG3">
-        <v>0.002500055246512531</v>
+        <v>0.002498173449500202</v>
       </c>
       <c r="BH3">
-        <v>0.0001407186713607699</v>
+        <v>0.0001371589437810611</v>
       </c>
       <c r="BI3">
-        <v>0.0006012386630877756</v>
+        <v>0.0005980064515475951</v>
       </c>
       <c r="BJ3">
-        <v>0.002911529521250632</v>
+        <v>0.002909940359579332</v>
       </c>
       <c r="BK3">
-        <v>0.006478780602244137</v>
+        <v>0.006479728424779905</v>
       </c>
       <c r="BL3">
-        <v>0.001129588130650484</v>
+        <v>0.001126731674621924</v>
       </c>
       <c r="BM3">
-        <v>0.001823240588064641</v>
+        <v>0.001820877448959869</v>
       </c>
       <c r="BN3">
-        <v>0.009462116419086321</v>
+        <v>0.009465185952620239</v>
       </c>
       <c r="BO3">
-        <v>0.014288518122776</v>
+        <v>0.01429502013264007</v>
       </c>
       <c r="BP3">
-        <v>0.01211170325641856</v>
+        <v>0.01211665714286427</v>
       </c>
       <c r="BQ3">
-        <v>0.001902377783206121</v>
+        <v>0.001900070925481523</v>
       </c>
       <c r="BR3">
-        <v>0.002213588964099737</v>
+        <v>0.002211503435861924</v>
       </c>
       <c r="BS3">
-        <v>0.003204518303262987</v>
+        <v>0.003203137511537042</v>
       </c>
       <c r="BT3">
-        <v>0.0008660416468305591</v>
+        <v>0.0008629977598496784</v>
       </c>
       <c r="BU3">
-        <v>0.0008457613980756371</v>
+        <v>0.0008427030880363178</v>
       </c>
       <c r="BV3">
-        <v>0.008465489480272866</v>
+        <v>0.008467850225233537</v>
       </c>
       <c r="BW3">
-        <v>0.008275227491953741</v>
+        <v>0.00827745292497572</v>
       </c>
       <c r="BX3">
-        <v>0.004057442050898902</v>
+        <v>0.00405666784783982</v>
       </c>
       <c r="BY3">
-        <v>0.005128583685137628</v>
+        <v>0.00512857126456817</v>
       </c>
       <c r="BZ3">
-        <v>0.004942929096535637</v>
+        <v>0.004942784640752353</v>
       </c>
       <c r="CA3">
-        <v>0.009846783395470219</v>
+        <v>0.009850126499330954</v>
       </c>
       <c r="CB3">
-        <v>0.004496013723973393</v>
+        <v>0.004495551427585021</v>
       </c>
       <c r="CC3">
-        <v>0.0001097665532610328</v>
+        <v>0.0001061848129233175</v>
       </c>
       <c r="CD3">
-        <v>0.0002672220435942686</v>
+        <v>0.0002637522836255326</v>
       </c>
       <c r="CE3">
-        <v>2.209424664355398E-07</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>7.106412063711562E-05</v>
+        <v>6.74548556149549E-05</v>
       </c>
       <c r="CG3">
-        <v>0.0008509196977589504</v>
+        <v>0.0008478650562376397</v>
       </c>
       <c r="CH3">
-        <v>0.001083471633481743</v>
+        <v>0.001080582379979065</v>
       </c>
       <c r="CI3">
-        <v>0.0001644561999034368</v>
+        <v>0.0001609133541561699</v>
       </c>
       <c r="CJ3">
-        <v>0.0006401880106965337</v>
+        <v>0.0006369834994436376</v>
       </c>
       <c r="CK3">
-        <v>0.001932733381342481</v>
+        <v>0.001930448112138376</v>
       </c>
       <c r="CL3">
-        <v>0.002879042023245158</v>
+        <v>0.002877429756872928</v>
       </c>
       <c r="CM3">
-        <v>0.007899040515049225</v>
+        <v>0.007900998408613611</v>
       </c>
       <c r="CN3">
-        <v>0.01509068207352824</v>
+        <v>0.01509775457232856</v>
       </c>
       <c r="CO3">
-        <v>0.01898999383413533</v>
+        <v>0.01899983947453137</v>
       </c>
       <c r="CP3">
-        <v>0.01487717508663621</v>
+        <v>0.01488409574194653</v>
       </c>
       <c r="CQ3">
-        <v>0.007435040043535898</v>
+        <v>0.007436667945787205</v>
       </c>
       <c r="CR3">
-        <v>0.0002261374361166018</v>
+        <v>0.0002226384572905558</v>
       </c>
       <c r="CS3">
-        <v>0.01608752701232831</v>
+        <v>0.01609530845474073</v>
       </c>
       <c r="CT3">
-        <v>0.04869874701020711</v>
+        <v>0.04872972114307764</v>
       </c>
       <c r="CU3">
-        <v>0.04146852445409673</v>
+        <v>0.04149435654340991</v>
       </c>
       <c r="CV3">
-        <v>0.03607781778505178</v>
+        <v>0.03609981607142432</v>
       </c>
       <c r="CW3">
-        <v>0.01839408687072023</v>
+        <v>0.01840350870956131</v>
       </c>
       <c r="CX3">
-        <v>0.001517469806837019</v>
+        <v>0.001514889207389438</v>
       </c>
       <c r="CY3">
-        <v>0.0007503635839324552</v>
+        <v>0.0007472374281647655</v>
       </c>
       <c r="CZ3">
-        <v>0.00327451899896539</v>
+        <v>0.003273187990855863</v>
       </c>
       <c r="DA3">
-        <v>0.005678954651348356</v>
+        <v>0.005679333647704034</v>
       </c>
       <c r="DB3">
-        <v>0.004974295994609909</v>
+        <v>0.004974173846570945</v>
       </c>
       <c r="DC3">
-        <v>0.004068731050205828</v>
+        <v>0.004067964875741399</v>
       </c>
       <c r="DD3">
-        <v>0.004571175719358926</v>
+        <v>0.004570766877238542</v>
       </c>
       <c r="DE3">
-        <v>0.0125086607320479</v>
+        <v>0.01251389692966927</v>
       </c>
       <c r="DF3">
-        <v>0.02852284924887873</v>
+        <v>0.02853947453642782</v>
       </c>
       <c r="DG3">
-        <v>0.01767020191516215</v>
+        <v>0.01767910893610612</v>
       </c>
       <c r="DH3">
-        <v>0.003349157494383062</v>
+        <v>0.003347879568234915</v>
       </c>
       <c r="DI3">
-        <v>0.0005800444643889644</v>
+        <v>0.0005767971798006134</v>
       </c>
       <c r="DJ3">
-        <v>0.004565251219722653</v>
+        <v>0.004564838164172467</v>
       </c>
       <c r="DK3">
-        <v>0.008077074504119071</v>
+        <v>0.008079159013222519</v>
       </c>
       <c r="DL3">
-        <v>0.005029776291203772</v>
+        <v>0.00502969360005558</v>
       </c>
       <c r="DM3">
-        <v>0.004618286716466612</v>
+        <v>0.004617911379096224</v>
       </c>
       <c r="DN3">
-        <v>0.006661993990996002</v>
+        <v>0.006663072112594895</v>
       </c>
       <c r="DO3">
-        <v>0.005896840337971563</v>
+        <v>0.005897374291893544</v>
       </c>
       <c r="DP3">
-        <v>0.00421999574091914</v>
+        <v>0.004219337144004682</v>
       </c>
       <c r="DQ3">
-        <v>0.003937270758276654</v>
+        <v>0.003936411090902164</v>
       </c>
       <c r="DR3">
-        <v>0.00509820198700287</v>
+        <v>0.005098167959350928</v>
       </c>
       <c r="DS3">
-        <v>0.003800962566645108</v>
+        <v>0.00380000595859512</v>
       </c>
       <c r="DT3">
-        <v>0.0003224530502034365</v>
+        <v>0.0003190225698335643</v>
       </c>
       <c r="DU3">
-        <v>0.0007620472032151555</v>
+        <v>0.000758929356690894</v>
       </c>
       <c r="DV3">
-        <v>0.002930867320063414</v>
+        <v>0.00292929191119198</v>
       </c>
       <c r="DW3">
-        <v>0.005247644277828066</v>
+        <v>0.005247716531658162</v>
       </c>
       <c r="DX3">
-        <v>0.009142922438682798</v>
+        <v>0.009145764965463087</v>
       </c>
       <c r="DY3">
-        <v>0.006639963992348503</v>
+        <v>0.00664102644648879</v>
       </c>
       <c r="DZ3">
-        <v>0.003948391757593895</v>
+        <v>0.003947539999334574</v>
       </c>
       <c r="EA3">
-        <v>0.0001946951280469592</v>
+        <v>0.0001911737878459511</v>
       </c>
       <c r="EB3">
-        <v>2.409694252060121E-05</v>
+        <v>2.045427503070645E-05</v>
       </c>
       <c r="EC3">
-        <v>0.001365548816164</v>
+        <v>0.001362860172414152</v>
       </c>
       <c r="ED3">
-        <v>0.0003022991414407582</v>
+        <v>0.0002988543278638645</v>
       </c>
       <c r="EE3">
-        <v>0.0006469955602785936</v>
+        <v>0.0006437958904695394</v>
       </c>
       <c r="EF3">
-        <v>0.002805131327782803</v>
+        <v>0.00280346649705139</v>
       </c>
       <c r="EG3">
-        <v>0.008609959471403328</v>
+        <v>0.008612422961608888</v>
       </c>
       <c r="EH3">
-        <v>0.005652024053001723</v>
+        <v>0.00565238389665378</v>
       </c>
       <c r="EI3">
-        <v>0.0003144403006953683</v>
+        <v>0.0003110041217585897</v>
       </c>
       <c r="EJ3">
-        <v>0.0002771829429827328</v>
+        <v>0.0002737202670806529</v>
       </c>
       <c r="EK3">
-        <v>0.001009750738007736</v>
+        <v>0.001006809055129244</v>
       </c>
       <c r="EL3">
-        <v>0.00182331698805995</v>
+        <v>0.001820953903289896</v>
       </c>
       <c r="EM3">
-        <v>0.002776872829517695</v>
+        <v>0.002775187901696902</v>
       </c>
       <c r="EN3">
-        <v>0.000820588789621075</v>
+        <v>0.0008175125771384878</v>
       </c>
       <c r="EO3">
-        <v>2.90482462166227E-05</v>
+        <v>2.540910003178777E-05</v>
       </c>
       <c r="EP3">
-        <v>1.960396579644137E-09</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0004896242699401885</v>
+        <v>0.0004863126796441348</v>
       </c>
       <c r="ER3">
-        <v>0.001299435220222954</v>
+        <v>0.001296699557313263</v>
       </c>
       <c r="ES3">
-        <v>0.001692087396116611</v>
+        <v>0.001689630982507431</v>
       </c>
       <c r="ET3">
-        <v>0.001510508907264374</v>
+        <v>0.001507923357312362</v>
       </c>
       <c r="EU3">
-        <v>0.002409299252084371</v>
+        <v>0.002407352910547608</v>
       </c>
       <c r="EV3">
-        <v>0.001882998784395868</v>
+        <v>0.001880678144570483</v>
       </c>
       <c r="EW3">
-        <v>0.0004390474730452816</v>
+        <v>0.000435699913165912</v>
       </c>
       <c r="EX3">
-        <v>1.175273527845691E-06</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>3.158853206066533E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>2.848901825095574E-06</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0001123587931018858</v>
+        <v>0.0001087788963326179</v>
       </c>
       <c r="FB3">
-        <v>0.0002614052839513805</v>
+        <v>0.000257931387176175</v>
       </c>
       <c r="FC3">
-        <v>2.310872658127138E-06</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.002921190120657533</v>
+        <v>0.00291960782948331</v>
       </c>
       <c r="FE3">
-        <v>0.006897518576536293</v>
+        <v>0.006898764200265068</v>
       </c>
       <c r="FF3">
-        <v>0.007086368564942106</v>
+        <v>0.007087748496412953</v>
       </c>
       <c r="FG3">
-        <v>0.01198896626395383</v>
+        <v>0.0119938328613906</v>
       </c>
       <c r="FH3">
-        <v>0.006527469599254942</v>
+        <v>0.006528452048794436</v>
       </c>
       <c r="FI3">
-        <v>0.0035647557811467</v>
+        <v>0.00356363118579478</v>
       </c>
       <c r="FJ3">
-        <v>0.000747915354082761</v>
+        <v>0.0007447874571647224</v>
       </c>
       <c r="FK3">
-        <v>0.0003541136482596775</v>
+        <v>0.0003507056845098668</v>
       </c>
       <c r="FL3">
-        <v>0.002253834061628944</v>
+        <v>0.0022517771551995</v>
       </c>
       <c r="FM3">
-        <v>0.002172830566602043</v>
+        <v>0.002170716051503365</v>
       </c>
       <c r="FN3">
-        <v>0.0005131564684954614</v>
+        <v>0.000509861614003739</v>
       </c>
       <c r="FO3">
-        <v>0.0006898181576495588</v>
+        <v>0.0006866489427344184</v>
       </c>
       <c r="FP3">
-        <v>0.002808780427558772</v>
+        <v>0.002807118192021331</v>
       </c>
       <c r="FQ3">
-        <v>0.002312601158021019</v>
+        <v>0.002310586046013122</v>
       </c>
       <c r="FR3">
-        <v>0.002052585273984338</v>
+        <v>0.002050385241942383</v>
       </c>
       <c r="FS3">
-        <v>0.001994245377566036</v>
+        <v>0.001992003854921796</v>
       </c>
       <c r="FT3">
-        <v>0.001507902807424372</v>
+        <v>0.001505315404046855</v>
       </c>
       <c r="FU3">
-        <v>0.0004032605752423692</v>
+        <v>0.0003998875641703349</v>
       </c>
       <c r="FV3">
-        <v>0.0001277881021546245</v>
+        <v>0.0001242191785163486</v>
       </c>
       <c r="FW3">
-        <v>0.0002342800256166986</v>
+        <v>0.0002307868376981322</v>
       </c>
       <c r="FX3">
-        <v>0.0005491863362834569</v>
+        <v>0.0005459171057816039</v>
       </c>
       <c r="FY3">
-        <v>0.001317976419084642</v>
+        <v>0.001315253942442928</v>
       </c>
       <c r="FZ3">
-        <v>0.00117053722813647</v>
+        <v>0.001167709894592214</v>
       </c>
       <c r="GA3">
-        <v>0.001182810427382973</v>
+        <v>0.001179991822384019</v>
       </c>
       <c r="GB3">
-        <v>0.003156595706205129</v>
+        <v>0.003155180832529488</v>
       </c>
       <c r="GC3">
-        <v>0.004695992211695989</v>
+        <v>0.004695672137498762</v>
       </c>
       <c r="GD3">
-        <v>0.002727507832548391</v>
+        <v>0.002725787796961184</v>
       </c>
       <c r="GE3">
-        <v>0.001451068210913654</v>
+        <v>0.001448440387484257</v>
       </c>
       <c r="GF3">
-        <v>0.0001042157436018171</v>
+        <v>0.0001006300555979236</v>
       </c>
       <c r="GG3">
-        <v>0.00138212561514629</v>
+        <v>0.001379448760607873</v>
       </c>
       <c r="GH3">
-        <v>0.002100477871044037</v>
+        <v>0.002098311899616157</v>
       </c>
       <c r="GI3">
-        <v>0.004068845150198824</v>
+        <v>0.004068079056880878</v>
       </c>
       <c r="GJ3">
-        <v>0.005970911233424081</v>
+        <v>0.00597149786563747</v>
       </c>
       <c r="GK3">
-        <v>0.004460100326178248</v>
+        <v>0.004459612488632004</v>
       </c>
       <c r="GL3">
-        <v>0.001796679089695348</v>
+        <v>0.001794297060386228</v>
       </c>
       <c r="GM3">
-        <v>0.0008412151983547448</v>
+        <v>0.0008381536551152295</v>
       </c>
       <c r="GN3">
-        <v>0.0006827882580811499</v>
+        <v>0.0006796140435896475</v>
       </c>
       <c r="GO3">
-        <v>0.0003301276797322632</v>
+        <v>0.0003267026574626109</v>
       </c>
       <c r="GP3">
-        <v>0.0002949263218934023</v>
+        <v>0.0002914762648597604</v>
       </c>
       <c r="GQ3">
-        <v>0.001558616804310856</v>
+        <v>0.001556065468091567</v>
       </c>
       <c r="GR3">
-        <v>0.001517399906841311</v>
+        <v>0.00151481925768173</v>
       </c>
       <c r="GS3">
-        <v>0.002279299360065537</v>
+        <v>0.002277260564236804</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001448652234568836</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001783786219431865</v>
+        <v>3.42387569771985E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001318708340438002</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002174832801769494</v>
+        <v>7.418979000923863E-05</v>
       </c>
       <c r="F4">
-        <v>1.412862486185349E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.407022936449103E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.603250346918423E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001079770351230096</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002612005882023731</v>
+        <v>0.0001188533082672144</v>
       </c>
       <c r="K4">
-        <v>0.0003757622430279757</v>
+        <v>0.0002358945167284401</v>
       </c>
       <c r="L4">
-        <v>0.0003056045861967812</v>
+        <v>0.0001642183790990465</v>
       </c>
       <c r="M4">
-        <v>0.0002338462894378826</v>
+        <v>9.090695755432411E-05</v>
       </c>
       <c r="N4">
-        <v>0.0005705600242295593</v>
+        <v>0.0004349084691028736</v>
       </c>
       <c r="O4">
-        <v>0.000418565881094667</v>
+        <v>0.0002796245897052043</v>
       </c>
       <c r="P4">
-        <v>0.0002769753174898771</v>
+        <v>0.0001349694632037748</v>
       </c>
       <c r="Q4">
-        <v>0.0002077096006183964</v>
+        <v>6.420457053604562E-05</v>
       </c>
       <c r="R4">
-        <v>0.0003773505529562366</v>
+        <v>0.0002375172037758436</v>
       </c>
       <c r="S4">
-        <v>0.0001114059549681358</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.328377094834371E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3.025656963340385E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>6.733422395872029E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>5.998527029064991E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001689414423694349</v>
+        <v>2.459732063919405E-05</v>
       </c>
       <c r="Y4">
-        <v>0.000276213037524307</v>
+        <v>0.0001341906845758654</v>
       </c>
       <c r="Z4">
-        <v>0.0005082151770454842</v>
+        <v>0.0003712142402890292</v>
       </c>
       <c r="AA4">
-        <v>0.0005861891735236387</v>
+        <v>0.0004508758931365491</v>
       </c>
       <c r="AB4">
-        <v>0.000452622929556415</v>
+        <v>0.0003144187633285997</v>
       </c>
       <c r="AC4">
-        <v>0.0005616793746306708</v>
+        <v>0.0004258356081830755</v>
       </c>
       <c r="AD4">
-        <v>0.0004126255813629721</v>
+        <v>0.0002735557191020529</v>
       </c>
       <c r="AE4">
-        <v>0.0002162778702313941</v>
+        <v>7.295829036885938E-05</v>
       </c>
       <c r="AF4">
-        <v>7.079685680232381E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1.033872153303176E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.56779662918745E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.684911933563866E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.920801577742534E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6.794059693133229E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0001746378621121451</v>
+        <v>3.041703275494633E-05</v>
       </c>
       <c r="AM4">
-        <v>0.0002181597701463944</v>
+        <v>7.488092181644124E-05</v>
       </c>
       <c r="AN4">
-        <v>0.0001940799712340049</v>
+        <v>5.027994369248058E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0001887014014769383</v>
+        <v>4.478496105524145E-05</v>
       </c>
       <c r="AP4">
-        <v>0.0001270376642620996</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001582744228512313</v>
+        <v>1.369942590303134E-05</v>
       </c>
       <c r="AR4">
-        <v>5.82880373673087E-07</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.328179540010217E-07</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>5.187967765675459E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>3.2936558512357E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>9.762253559069045E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>2.726266676862923E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.270501942615336E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>8.82678060132148E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>3.843709526391467E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>2.368040293042906E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.99177481003766E-07</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1.02804345356644E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>4.29767420588728E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>5.567532748531676E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.412862486185349E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.212821645220578E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>2.004543909460919E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1.524513031142437E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3.874527324999522E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>4.333153104284807E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>2.039361507888316E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0001100622950288248</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001337573939585901</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.55135209442943E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.443796334788162E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>6.200670719934782E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>6.615007701220456E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>6.107003124165459E-07</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>8.720104606139707E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>4.019016118473408E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.929663187008437E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.863551480328344E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1.758785620561065E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.207411745464926E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>8.680470607929852E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1.99177481003766E-07</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>2.780507274413042E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.228619154173207E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.000125199274345134</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.000256263438425369</v>
+        <v>0.000113809299631565</v>
       </c>
       <c r="CF4">
-        <v>0.0001706051622942897</v>
+        <v>2.629704984476866E-05</v>
       </c>
       <c r="CG4">
-        <v>0.0001323977140200026</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001738275521487443</v>
+        <v>2.958918457582416E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0002523476286022341</v>
+        <v>0.0001098087366639495</v>
       </c>
       <c r="CJ4">
-        <v>0.0001768079020141311</v>
+        <v>3.263404064405339E-05</v>
       </c>
       <c r="CK4">
-        <v>9.905993052576774E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>9.687665562437955E-09</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0001478357833227125</v>
+        <v>3.03485417552941E-06</v>
       </c>
       <c r="CN4">
-        <v>0.103622025319712</v>
+        <v>0.1057168027490363</v>
       </c>
       <c r="CO4">
-        <v>0.0003013270163899858</v>
+        <v>0.0001598482262741181</v>
       </c>
       <c r="CP4">
-        <v>0.05096379469812221</v>
+        <v>0.051918846035134</v>
       </c>
       <c r="CQ4">
-        <v>0.04438208599539774</v>
+        <v>0.04519468391056175</v>
       </c>
       <c r="CR4">
-        <v>0.004369354802649688</v>
+        <v>0.004315923737600215</v>
       </c>
       <c r="CS4">
-        <v>0.002592363782910904</v>
+        <v>0.002500471816173425</v>
       </c>
       <c r="CT4">
-        <v>0.003016007663776214</v>
+        <v>0.002933284975595404</v>
       </c>
       <c r="CU4">
-        <v>0.001661210724968223</v>
+        <v>0.001549165034424483</v>
       </c>
       <c r="CV4">
-        <v>0.004498467796818052</v>
+        <v>0.004447831232202285</v>
       </c>
       <c r="CW4">
-        <v>0.02084823905834919</v>
+        <v>0.02115147425680152</v>
       </c>
       <c r="CX4">
-        <v>0.002324606695004668</v>
+        <v>0.002226919437846564</v>
       </c>
       <c r="CY4">
-        <v>0.001563250229392797</v>
+        <v>0.001449084297976828</v>
       </c>
       <c r="CZ4">
-        <v>0.05933741231991166</v>
+        <v>0.0604737008610214</v>
       </c>
       <c r="DA4">
-        <v>0.06879903089255945</v>
+        <v>0.07014010515159899</v>
       </c>
       <c r="DB4">
-        <v>4.637902190520229E-05</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01149415548084436</v>
+        <v>0.01159493243113476</v>
       </c>
       <c r="DD4">
-        <v>0.0005420862755156309</v>
+        <v>0.000405818439249755</v>
       </c>
       <c r="DE4">
-        <v>0.002033654708146074</v>
+        <v>0.001929670133985128</v>
       </c>
       <c r="DF4">
-        <v>0.03382867047206304</v>
+        <v>0.03441285199546874</v>
       </c>
       <c r="DG4">
-        <v>0.01318196040461141</v>
+        <v>0.01331926792738105</v>
       </c>
       <c r="DH4">
-        <v>2.867498070483935E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0006530127705054224</v>
+        <v>0.0005191458090729065</v>
       </c>
       <c r="DJ4">
-        <v>0.002607221582239823</v>
+        <v>0.00251565119527002</v>
       </c>
       <c r="DK4">
-        <v>0.0001536136030617462</v>
+        <v>8.937728095752285E-06</v>
       </c>
       <c r="DL4">
-        <v>0.003698034832971145</v>
+        <v>0.003630073828789623</v>
       </c>
       <c r="DM4">
-        <v>0.01278327742261869</v>
+        <v>0.01291195591642602</v>
       </c>
       <c r="DN4">
-        <v>0.005096635069800676</v>
+        <v>0.005058945139367985</v>
       </c>
       <c r="DO4">
-        <v>0.000200982010922261</v>
+        <v>5.73313699938079E-05</v>
       </c>
       <c r="DP4">
-        <v>0.002405207691364169</v>
+        <v>0.00230926494892927</v>
       </c>
       <c r="DQ4">
-        <v>2.113958104519017E-05</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001099838150323695</v>
+        <v>0.0009756422040026806</v>
       </c>
       <c r="DS4">
-        <v>0.003285594651599799</v>
+        <v>0.00320870685989279</v>
       </c>
       <c r="DT4">
-        <v>0.001771195620000544</v>
+        <v>0.001661530424455381</v>
       </c>
       <c r="DU4">
-        <v>0.0008220966628684233</v>
+        <v>0.0006918893254232894</v>
       </c>
       <c r="DV4">
-        <v>0.00420424831010704</v>
+        <v>0.004147243707258446</v>
       </c>
       <c r="DW4">
-        <v>0.01399227136801216</v>
+        <v>0.01414711712814703</v>
       </c>
       <c r="DX4">
-        <v>0.004081760315639445</v>
+        <v>0.004022104602762241</v>
       </c>
       <c r="DY4">
-        <v>0.001757443420621688</v>
+        <v>0.001647480574732528</v>
       </c>
       <c r="DZ4">
-        <v>0.00392125982288876</v>
+        <v>0.003858130263715209</v>
       </c>
       <c r="EA4">
-        <v>0.002719962377147668</v>
+        <v>0.002630832133420578</v>
       </c>
       <c r="EB4">
-        <v>1.212821645220578E-05</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.009383190576190154</v>
+        <v>0.009438278148896258</v>
       </c>
       <c r="ED4">
-        <v>0.007131121677909176</v>
+        <v>0.007137465841375016</v>
       </c>
       <c r="EE4">
-        <v>0.001136264948678409</v>
+        <v>0.001012857417996397</v>
       </c>
       <c r="EF4">
-        <v>0.006152856322094412</v>
+        <v>0.006138027070918965</v>
       </c>
       <c r="EG4">
-        <v>0.008723266605996888</v>
+        <v>0.008764070892711546</v>
       </c>
       <c r="EH4">
-        <v>0.004422265400259879</v>
+        <v>0.004369979523492358</v>
       </c>
       <c r="EI4">
-        <v>0.001355629138770403</v>
+        <v>0.001236969490579231</v>
       </c>
       <c r="EJ4">
-        <v>0.0005274175761781709</v>
+        <v>0.0003908322529937669</v>
       </c>
       <c r="EK4">
-        <v>0.001091196050714032</v>
+        <v>0.0009668130562088834</v>
       </c>
       <c r="EL4">
-        <v>9.010106593041207E-06</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0009499229570949029</v>
+        <v>0.000822482270961327</v>
       </c>
       <c r="EN4">
-        <v>0.001055504852326093</v>
+        <v>0.0009303493633867708</v>
       </c>
       <c r="EO4">
-        <v>0.002633155881068451</v>
+        <v>0.002542146811801728</v>
       </c>
       <c r="EP4">
-        <v>0.002524056385996139</v>
+        <v>0.002430685985182111</v>
       </c>
       <c r="EQ4">
-        <v>0.0007056760081267859</v>
+        <v>0.0005729488811572629</v>
       </c>
       <c r="ER4">
-        <v>0.0002082289805949377</v>
+        <v>6.473519188746978E-05</v>
       </c>
       <c r="ES4">
-        <v>0.0003780504829246229</v>
+        <v>0.0002382322829134737</v>
       </c>
       <c r="ET4">
-        <v>0.00186896171558475</v>
+        <v>0.001761412553350345</v>
       </c>
       <c r="EU4">
-        <v>0.007006836683522747</v>
+        <v>0.007010490842988965</v>
       </c>
       <c r="EV4">
-        <v>0.01279429142212122</v>
+        <v>0.01292320830112428</v>
       </c>
       <c r="EW4">
-        <v>0.01792427219041578</v>
+        <v>0.01816422153035932</v>
       </c>
       <c r="EX4">
-        <v>0.007737508650520542</v>
+        <v>0.007756977353997802</v>
       </c>
       <c r="EY4">
-        <v>4.901208078627511E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01262873642959883</v>
+        <v>0.01275407006354289</v>
       </c>
       <c r="FA4">
-        <v>0.04955547076173187</v>
+        <v>0.05048004056683906</v>
       </c>
       <c r="FB4">
-        <v>0.05877171734546236</v>
+        <v>0.05989576207748358</v>
       </c>
       <c r="FC4">
-        <v>0.04937797776974868</v>
+        <v>0.05029870594569785</v>
       </c>
       <c r="FD4">
-        <v>0.0246833218851303</v>
+        <v>0.02506956298621678</v>
       </c>
       <c r="FE4">
-        <v>0.001578042428724679</v>
+        <v>0.001464196657240827</v>
       </c>
       <c r="FF4">
-        <v>0.001147854648154938</v>
+        <v>0.001024697963024315</v>
       </c>
       <c r="FG4">
-        <v>0.004292273806131198</v>
+        <v>0.004237174412656775</v>
       </c>
       <c r="FH4">
-        <v>0.007269612671653964</v>
+        <v>0.007278954311435625</v>
       </c>
       <c r="FI4">
-        <v>0.007134162677771822</v>
+        <v>0.007140572660139083</v>
       </c>
       <c r="FJ4">
-        <v>0.002034355908114403</v>
+        <v>0.001930386510610371</v>
       </c>
       <c r="FK4">
-        <v>0.005629596045728468</v>
+        <v>0.00560344143509819</v>
       </c>
       <c r="FL4">
-        <v>0.01114098399679603</v>
+        <v>0.0112341169615085</v>
       </c>
       <c r="FM4">
-        <v>0.03130607858600076</v>
+        <v>0.03183566154506309</v>
       </c>
       <c r="FN4">
-        <v>0.02892031869375819</v>
+        <v>0.02939826465767115</v>
       </c>
       <c r="FO4">
-        <v>0.01147170148185854</v>
+        <v>0.01157199244148387</v>
       </c>
       <c r="FP4">
-        <v>0.0009180305585353844</v>
+        <v>0.000789899598567013</v>
       </c>
       <c r="FQ4">
-        <v>0.001070342051655943</v>
+        <v>0.0009455076966213006</v>
       </c>
       <c r="FR4">
-        <v>0.005622290746058426</v>
+        <v>0.005595978020722283</v>
       </c>
       <c r="FS4">
-        <v>0.006552390004048704</v>
+        <v>0.00654620819424578</v>
       </c>
       <c r="FT4">
-        <v>0.004794472783448417</v>
+        <v>0.004750242902132391</v>
       </c>
       <c r="FU4">
-        <v>0.004588452392753723</v>
+        <v>0.004539763439948751</v>
       </c>
       <c r="FV4">
-        <v>0.002619774681672838</v>
+        <v>0.002528475991924805</v>
       </c>
       <c r="FW4">
-        <v>0.003707996632521202</v>
+        <v>0.003640251239892509</v>
       </c>
       <c r="FX4">
-        <v>0.005472931252804535</v>
+        <v>0.005443385815134791</v>
       </c>
       <c r="FY4">
-        <v>0.006053742726571068</v>
+        <v>0.006036768277017563</v>
       </c>
       <c r="FZ4">
-        <v>0.00648135870725697</v>
+        <v>0.006473639507736072</v>
       </c>
       <c r="GA4">
-        <v>0.004029946817979702</v>
+        <v>0.00396916966227163</v>
       </c>
       <c r="GB4">
-        <v>3.162047557180041E-08</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.000590159373344317</v>
+        <v>0.000454932023309879</v>
       </c>
       <c r="GD4">
-        <v>0.002694409878301796</v>
+        <v>0.002604726580487726</v>
       </c>
       <c r="GE4">
-        <v>0.004492979797065927</v>
+        <v>0.004442224451085153</v>
       </c>
       <c r="GF4">
-        <v>0.003713929432253235</v>
+        <v>0.003646312448167239</v>
       </c>
       <c r="GG4">
-        <v>0.002815772172820235</v>
+        <v>0.002728715620570016</v>
       </c>
       <c r="GH4">
-        <v>7.164910276383049E-06</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0006799533692885985</v>
+        <v>0.000546669505750054</v>
       </c>
       <c r="GJ4">
-        <v>0.002127924403888202</v>
+        <v>0.002025980187534257</v>
       </c>
       <c r="GK4">
-        <v>0.002095014705374632</v>
+        <v>0.001992358196912819</v>
       </c>
       <c r="GL4">
-        <v>5.484107752299728E-07</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001497611532357495</v>
+        <v>0.001382024927766726</v>
       </c>
       <c r="GN4">
-        <v>0.007194784175033737</v>
+        <v>0.007202506239128182</v>
       </c>
       <c r="GO4">
-        <v>0.007535448459646979</v>
+        <v>0.007550543805549596</v>
       </c>
       <c r="GP4">
-        <v>0.00277358387472575</v>
+        <v>0.002685614205882723</v>
       </c>
       <c r="GQ4">
-        <v>0.0001344683239264796</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0003635662835788296</v>
+        <v>0.0002234345899366603</v>
       </c>
       <c r="GS4">
-        <v>0.001177325646823823</v>
+        <v>0.001054806827146577</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.207409091525745E-05</v>
+        <v>2.919331536163359E-05</v>
       </c>
       <c r="C5">
-        <v>1.013477328920311E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.426724297784064E-09</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.89705408266954E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.237687535318312E-05</v>
+        <v>9.485110277302901E-06</v>
       </c>
       <c r="G5">
-        <v>6.355049181345938E-05</v>
+        <v>6.068727765612175E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001213399184625226</v>
+        <v>0.0001185089463339296</v>
       </c>
       <c r="I5">
-        <v>5.75524916423021E-05</v>
+        <v>5.468593106495059E-05</v>
       </c>
       <c r="J5">
-        <v>2.438796869592838E-05</v>
+        <v>2.150290488080237E-05</v>
       </c>
       <c r="K5">
-        <v>7.001543199794115E-05</v>
+        <v>6.715582477701641E-05</v>
       </c>
       <c r="L5">
-        <v>2.320035166203887E-05</v>
+        <v>2.031462524849712E-05</v>
       </c>
       <c r="M5">
-        <v>1.078949780788615E-05</v>
+        <v>7.896847098155386E-06</v>
       </c>
       <c r="N5">
-        <v>1.026289129285905E-05</v>
+        <v>7.369946777437882E-06</v>
       </c>
       <c r="O5">
-        <v>1.052454730032559E-05</v>
+        <v>7.631748768711554E-06</v>
       </c>
       <c r="P5">
-        <v>9.363007267180204E-05</v>
+        <v>9.078364059324417E-05</v>
       </c>
       <c r="Q5">
-        <v>0.0001717506749010301</v>
+        <v>0.0001689478280741121</v>
       </c>
       <c r="R5">
-        <v>2.888702382431218E-05</v>
+        <v>2.600447013384365E-05</v>
       </c>
       <c r="S5">
-        <v>1.857101652993743E-05</v>
+        <v>1.568270730557625E-05</v>
       </c>
       <c r="T5">
-        <v>8.198500233950151E-06</v>
+        <v>5.30440394804568E-06</v>
       </c>
       <c r="U5">
-        <v>1.365461538964436E-05</v>
+        <v>1.076356319384226E-05</v>
       </c>
       <c r="V5">
-        <v>3.573532101973331E-05</v>
+        <v>3.285658814922839E-05</v>
       </c>
       <c r="W5">
-        <v>6.0892301737606E-06</v>
+        <v>3.19395707836252E-06</v>
       </c>
       <c r="X5">
-        <v>2.138058061011038E-05</v>
+        <v>1.84938389051223E-05</v>
       </c>
       <c r="Y5">
-        <v>8.897728253903131E-05</v>
+        <v>8.612825456357841E-05</v>
       </c>
       <c r="Z5">
-        <v>6.551830186961226E-08</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.301684651287418E-07</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.281106465093028E-05</v>
+        <v>1.992512104535653E-05</v>
       </c>
       <c r="AC5">
-        <v>1.237687535318312E-05</v>
+        <v>9.485110277302901E-06</v>
       </c>
       <c r="AD5">
-        <v>4.812380837324778E-06</v>
+        <v>1.916395358790282E-06</v>
       </c>
       <c r="AE5">
-        <v>0.0001359383238790987</v>
+        <v>0.0001331154965312097</v>
       </c>
       <c r="AF5">
-        <v>0.0001048354829915566</v>
+        <v>0.000101995302664964</v>
       </c>
       <c r="AG5">
-        <v>0.0001056681430153171</v>
+        <v>0.0001028284272485926</v>
       </c>
       <c r="AH5">
-        <v>0.0001660706047389452</v>
+        <v>0.0001632645888723593</v>
       </c>
       <c r="AI5">
-        <v>0.0002765717578921758</v>
+        <v>0.0002738273931192738</v>
       </c>
       <c r="AJ5">
-        <v>0.0001837766952442013</v>
+        <v>0.0001809805580061488</v>
       </c>
       <c r="AK5">
-        <v>0.000146301274174813</v>
+        <v>0.0001434842285513793</v>
       </c>
       <c r="AL5">
-        <v>1.142921132614084E-05</v>
+        <v>8.536917527056881E-06</v>
       </c>
       <c r="AM5">
-        <v>7.571794216066641E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>9.497685271023339E-06</v>
+        <v>6.604313829848066E-06</v>
       </c>
       <c r="AO5">
-        <v>7.206763205650216E-05</v>
+        <v>6.920916980442578E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0001337095738154997</v>
+        <v>0.0001308855029975197</v>
       </c>
       <c r="AQ5">
-        <v>0.0001136431782428905</v>
+        <v>0.0001108079119287728</v>
       </c>
       <c r="AR5">
-        <v>5.863505567319385E-05</v>
+        <v>5.576909908281065E-05</v>
       </c>
       <c r="AS5">
-        <v>3.839577909565141E-05</v>
+        <v>3.551853055490596E-05</v>
       </c>
       <c r="AT5">
-        <v>1.814378351774603E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>9.497685271023339E-06</v>
+        <v>6.604313829848066E-06</v>
       </c>
       <c r="AV5">
-        <v>5.391743453857311E-05</v>
+        <v>5.1048845880612E-05</v>
       </c>
       <c r="AW5">
-        <v>2.632898675131674E-05</v>
+        <v>2.344500587408378E-05</v>
       </c>
       <c r="AX5">
-        <v>2.320035166203887E-05</v>
+        <v>2.031462524849712E-05</v>
       </c>
       <c r="AY5">
-        <v>2.802117279960449E-05</v>
+        <v>2.513813603125743E-05</v>
       </c>
       <c r="AZ5">
-        <v>4.996972442592233E-05</v>
+        <v>4.709893325116346E-05</v>
       </c>
       <c r="BA5">
-        <v>5.511594757277355E-05</v>
+        <v>5.22480275923533E-05</v>
       </c>
       <c r="BB5">
-        <v>4.185630119439992E-07</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.888702382431218E-05</v>
+        <v>2.600447013384365E-05</v>
       </c>
       <c r="BD5">
-        <v>0.0001875200053510194</v>
+        <v>0.0001847259565903764</v>
       </c>
       <c r="BE5">
-        <v>9.500947271116424E-05</v>
+        <v>9.216381023110038E-05</v>
       </c>
       <c r="BF5">
-        <v>1.354536638652686E-05</v>
+        <v>1.065425323823391E-05</v>
       </c>
       <c r="BG5">
-        <v>3.283003493682886E-05</v>
+        <v>2.994968114147959E-05</v>
       </c>
       <c r="BH5">
-        <v>3.054600587165244E-05</v>
+        <v>2.766437776480636E-05</v>
       </c>
       <c r="BI5">
-        <v>7.43514721216732E-06</v>
+        <v>4.5406250343394E-06</v>
       </c>
       <c r="BJ5">
-        <v>9.589203273634871E-06</v>
+        <v>6.695882892424058E-06</v>
       </c>
       <c r="BK5">
-        <v>4.960606541554506E-05</v>
+        <v>4.673507134719569E-05</v>
       </c>
       <c r="BL5">
-        <v>8.138722232244343E-05</v>
+        <v>7.853395968065332E-05</v>
       </c>
       <c r="BM5">
-        <v>6.137921575150044E-05</v>
+        <v>5.851479019011779E-05</v>
       </c>
       <c r="BN5">
-        <v>3.573532101973331E-05</v>
+        <v>3.285658814922839E-05</v>
       </c>
       <c r="BO5">
-        <v>3.959438112985439E-05</v>
+        <v>3.671780131630492E-05</v>
       </c>
       <c r="BP5">
-        <v>8.212107234338437E-05</v>
+        <v>7.926821913312598E-05</v>
       </c>
       <c r="BQ5">
-        <v>0.0001387920339605314</v>
+        <v>0.0001359707987620685</v>
       </c>
       <c r="BR5">
-        <v>0.0002473547670584477</v>
+        <v>0.0002445941014652588</v>
       </c>
       <c r="BS5">
-        <v>0.0002422752069134988</v>
+        <v>0.0002395117073187684</v>
       </c>
       <c r="BT5">
-        <v>0.0001859838253071834</v>
+        <v>0.0001831889194769344</v>
       </c>
       <c r="BU5">
-        <v>6.840507795198853E-05</v>
+        <v>6.554457227810362E-05</v>
       </c>
       <c r="BV5">
-        <v>4.903607439927996E-05</v>
+        <v>4.616476232004527E-05</v>
       </c>
       <c r="BW5">
-        <v>2.948552584139087E-05</v>
+        <v>2.660330606874014E-05</v>
       </c>
       <c r="BX5">
-        <v>2.266207064667863E-05</v>
+        <v>1.977604391397858E-05</v>
       </c>
       <c r="BY5">
-        <v>7.001543199794115E-05</v>
+        <v>6.715582477701641E-05</v>
       </c>
       <c r="BZ5">
-        <v>0.0003472462799089245</v>
+        <v>0.0003445413460510274</v>
       </c>
       <c r="CA5">
-        <v>0.0005256014149984177</v>
+        <v>0.0005229959895060774</v>
       </c>
       <c r="CB5">
-        <v>0.0002516945571822868</v>
+        <v>0.0002489363128562056</v>
       </c>
       <c r="CC5">
-        <v>0.0003941010612459597</v>
+        <v>0.0003914222687307665</v>
       </c>
       <c r="CD5">
-        <v>0.0006006745571406843</v>
+        <v>0.0005981110166530457</v>
       </c>
       <c r="CE5">
-        <v>0.0003154904790027497</v>
+        <v>0.0003127678278649799</v>
       </c>
       <c r="CF5">
-        <v>0.0001800929551390831</v>
+        <v>0.000177294762659073</v>
       </c>
       <c r="CG5">
-        <v>0.0002157382661562479</v>
+        <v>0.0002129599610018105</v>
       </c>
       <c r="CH5">
-        <v>4.617207831755375E-05</v>
+        <v>4.329916835010065E-05</v>
       </c>
       <c r="CI5">
-        <v>3.507612700092273E-05</v>
+        <v>3.219702635115895E-05</v>
       </c>
       <c r="CJ5">
-        <v>2.281106465093028E-05</v>
+        <v>1.992512104535653E-05</v>
       </c>
       <c r="CK5">
-        <v>4.791581136731244E-07</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2.348759067023544E-07</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.000750207771407723</v>
+        <v>0.0007477276588838529</v>
       </c>
       <c r="CN5">
-        <v>0.08930029254824863</v>
+        <v>0.08934721653166872</v>
       </c>
       <c r="CO5">
-        <v>0.0001717506749010301</v>
+        <v>0.0001689478280741121</v>
       </c>
       <c r="CP5">
-        <v>0.04489820628120288</v>
+        <v>0.04492035733599645</v>
       </c>
       <c r="CQ5">
-        <v>0.02430486369355692</v>
+        <v>0.02431552525654964</v>
       </c>
       <c r="CR5">
-        <v>0.0003169337090439333</v>
+        <v>0.0003142118631168598</v>
       </c>
       <c r="CS5">
-        <v>0.002980513785051123</v>
+        <v>0.002979278010718008</v>
       </c>
       <c r="CT5">
-        <v>0.006247248678269773</v>
+        <v>0.006247835489250887</v>
       </c>
       <c r="CU5">
-        <v>0.003862330610214406</v>
+        <v>0.003861586821441159</v>
       </c>
       <c r="CV5">
-        <v>5.191896448154532E-05</v>
+        <v>4.904926083191946E-05</v>
       </c>
       <c r="CW5">
-        <v>0.03332687095100644</v>
+        <v>0.03334256609599152</v>
       </c>
       <c r="CX5">
-        <v>0.01430779240828324</v>
+        <v>0.01431287637899945</v>
       </c>
       <c r="CY5">
-        <v>0.004391885125325628</v>
+        <v>0.004391436786998736</v>
       </c>
       <c r="CZ5">
-        <v>0.01514239243209915</v>
+        <v>0.01514794204505338</v>
       </c>
       <c r="DA5">
-        <v>0.05320185551815354</v>
+        <v>0.05322863936674534</v>
       </c>
       <c r="DB5">
-        <v>0.01669328047635487</v>
+        <v>0.01669969536484135</v>
       </c>
       <c r="DC5">
-        <v>0.01843677352610671</v>
+        <v>0.01844416114881614</v>
       </c>
       <c r="DD5">
-        <v>0.03427640097810197</v>
+        <v>0.03429262588737444</v>
       </c>
       <c r="DE5">
-        <v>9.128885260499364E-05</v>
+        <v>8.844111430678507E-05</v>
       </c>
       <c r="DF5">
-        <v>0.001373323039188769</v>
+        <v>0.001371190576772194</v>
       </c>
       <c r="DG5">
-        <v>0.03032168786525136</v>
+        <v>0.0303357063505938</v>
       </c>
       <c r="DH5">
-        <v>0.01779771650787075</v>
+        <v>0.01780474758620959</v>
       </c>
       <c r="DI5">
-        <v>0.0007316834708791187</v>
+        <v>0.0007291930232288292</v>
       </c>
       <c r="DJ5">
-        <v>0.003557696601521454</v>
+        <v>0.00355678285054172</v>
       </c>
       <c r="DK5">
-        <v>0.003853508409962658</v>
+        <v>0.003852759699084269</v>
       </c>
       <c r="DL5">
-        <v>0.02368256467579916</v>
+        <v>0.02369287904408895</v>
       </c>
       <c r="DM5">
-        <v>0.001280939336552533</v>
+        <v>0.001278755331177865</v>
       </c>
       <c r="DN5">
-        <v>1.854501852919556E-06</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.009369034267352189</v>
+        <v>0.009371362793150949</v>
       </c>
       <c r="DP5">
-        <v>0.0004618216331784154</v>
+        <v>0.0004591806235026352</v>
       </c>
       <c r="DQ5">
-        <v>0.003468701298981908</v>
+        <v>0.003467737895509167</v>
       </c>
       <c r="DR5">
-        <v>0.0006490841785220879</v>
+        <v>0.0006465476468575957</v>
       </c>
       <c r="DS5">
-        <v>0.0001368862639061489</v>
+        <v>0.0001340639654354503</v>
       </c>
       <c r="DT5">
-        <v>0.001121028031989348</v>
+        <v>0.001118754808479508</v>
       </c>
       <c r="DU5">
-        <v>0.004058268515805636</v>
+        <v>0.00405763404522346</v>
       </c>
       <c r="DV5">
-        <v>0.003904638711421698</v>
+        <v>0.003903918527295432</v>
       </c>
       <c r="DW5">
-        <v>0.01325280437817839</v>
+        <v>0.0132572997472011</v>
       </c>
       <c r="DX5">
-        <v>0.005155308147110457</v>
+        <v>0.005155285739761601</v>
       </c>
       <c r="DY5">
-        <v>0.005635093160801471</v>
+        <v>0.005635338436367979</v>
       </c>
       <c r="DZ5">
-        <v>0.003262723893104193</v>
+        <v>0.003261645570176006</v>
       </c>
       <c r="EA5">
-        <v>0.0009879963281931919</v>
+        <v>0.000985648883285659</v>
       </c>
       <c r="EB5">
-        <v>0.0002806358780081483</v>
+        <v>0.0002778937806998191</v>
       </c>
       <c r="EC5">
-        <v>0.005005682142840771</v>
+        <v>0.005005576255758504</v>
       </c>
       <c r="ED5">
-        <v>0.006769320693167477</v>
+        <v>0.006770198779938769</v>
       </c>
       <c r="EE5">
-        <v>0.001379345039360611</v>
+        <v>0.001377215936754193</v>
       </c>
       <c r="EF5">
-        <v>0.002348533167017098</v>
+        <v>0.002346944796397183</v>
       </c>
       <c r="EG5">
-        <v>0.006814470694455865</v>
+        <v>0.006815373971434497</v>
       </c>
       <c r="EH5">
-        <v>0.008791001250857598</v>
+        <v>0.008793007278957144</v>
       </c>
       <c r="EI5">
-        <v>0.001168075033331868</v>
+        <v>0.001165828058408622</v>
       </c>
       <c r="EJ5">
-        <v>5.533608557905535E-05</v>
+        <v>5.246828841860993E-05</v>
       </c>
       <c r="EK5">
-        <v>0.0004460602727286535</v>
+        <v>0.0004434104694332418</v>
       </c>
       <c r="EL5">
-        <v>0.0005131165546421532</v>
+        <v>0.0005105041635637218</v>
       </c>
       <c r="EM5">
-        <v>6.574634187611957E-05</v>
+        <v>6.288435283321799E-05</v>
       </c>
       <c r="EN5">
-        <v>0.0006794132193875491</v>
+        <v>0.0006768936089812192</v>
       </c>
       <c r="EO5">
-        <v>0.0001165732833265032</v>
+        <v>0.0001137396517843119</v>
       </c>
       <c r="EP5">
-        <v>8.582862244918201E-06</v>
+        <v>5.688980403276713E-06</v>
       </c>
       <c r="EQ5">
-        <v>0.0001368862639061489</v>
+        <v>0.0001340639654354503</v>
       </c>
       <c r="ER5">
-        <v>0.001171864533440005</v>
+        <v>0.001169619672764615</v>
       </c>
       <c r="ES5">
-        <v>0.00192373275489511</v>
+        <v>0.001921907378513198</v>
       </c>
       <c r="ET5">
-        <v>0.00455609863001158</v>
+        <v>0.004555741910114657</v>
       </c>
       <c r="EU5">
-        <v>0.0118728573388006</v>
+        <v>0.01187658280414561</v>
       </c>
       <c r="EV5">
-        <v>0.01390534439679909</v>
+        <v>0.0139102038326634</v>
       </c>
       <c r="EW5">
-        <v>0.0147356794204933</v>
+        <v>0.01474100211905554</v>
       </c>
       <c r="EX5">
-        <v>0.009197896262468643</v>
+        <v>0.009200129306502091</v>
       </c>
       <c r="EY5">
-        <v>4.231899920760335E-06</v>
+        <v>1.335590578787787E-06</v>
       </c>
       <c r="EZ5">
-        <v>0.01398570739909231</v>
+        <v>0.01399061167129399</v>
       </c>
       <c r="FA5">
-        <v>0.05205463748541685</v>
+        <v>0.05208078127510977</v>
       </c>
       <c r="FB5">
-        <v>0.05185576147974177</v>
+        <v>0.05188179431201111</v>
       </c>
       <c r="FC5">
-        <v>0.04768312136067246</v>
+        <v>0.04770682618260389</v>
       </c>
       <c r="FD5">
-        <v>0.02512463071694956</v>
+        <v>0.02513574964651374</v>
       </c>
       <c r="FE5">
-        <v>0.001267178636159862</v>
+        <v>0.001264986953379078</v>
       </c>
       <c r="FF5">
-        <v>0.0008747293249610358</v>
+        <v>0.0008723186858294763</v>
       </c>
       <c r="FG5">
-        <v>0.004078977116396571</v>
+        <v>0.004078354199611244</v>
       </c>
       <c r="FH5">
-        <v>0.007120090203176939</v>
+        <v>0.007121163992194822</v>
       </c>
       <c r="FI5">
-        <v>0.008602652245482923</v>
+        <v>0.008604553189410545</v>
       </c>
       <c r="FJ5">
-        <v>0.002878383782136769</v>
+        <v>0.002877091027164104</v>
       </c>
       <c r="FK5">
-        <v>0.003600181902733802</v>
+        <v>0.003599291855264942</v>
       </c>
       <c r="FL5">
-        <v>0.01076574530720835</v>
+        <v>0.01076885308970001</v>
       </c>
       <c r="FM5">
-        <v>0.03018920086147075</v>
+        <v>0.03020314542931596</v>
       </c>
       <c r="FN5">
-        <v>0.02828813980722259</v>
+        <v>0.02830102373008981</v>
       </c>
       <c r="FO5">
-        <v>0.009205682262690822</v>
+        <v>0.00920791965070997</v>
       </c>
       <c r="FP5">
-        <v>0.0004946525541152694</v>
+        <v>0.0004920298615531542</v>
       </c>
       <c r="FQ5">
-        <v>0.001671431447695509</v>
+        <v>0.001669465306705419</v>
       </c>
       <c r="FR5">
-        <v>0.005657261361434057</v>
+        <v>0.005657519005141305</v>
       </c>
       <c r="FS5">
-        <v>0.007110743502910224</v>
+        <v>0.007111812077192538</v>
       </c>
       <c r="FT5">
-        <v>0.006204022177036274</v>
+        <v>0.006204584870974252</v>
       </c>
       <c r="FU5">
-        <v>0.007571388216055056</v>
+        <v>0.007572713794445967</v>
       </c>
       <c r="FV5">
-        <v>0.004046050115456975</v>
+        <v>0.004045408827952775</v>
       </c>
       <c r="FW5">
-        <v>0.005208680148633467</v>
+        <v>0.005208687518731923</v>
       </c>
       <c r="FX5">
-        <v>0.007448303712542749</v>
+        <v>0.007449560619304085</v>
       </c>
       <c r="FY5">
-        <v>0.005498150556893715</v>
+        <v>0.005498319429082866</v>
       </c>
       <c r="FZ5">
-        <v>0.004856081138571798</v>
+        <v>0.004855891785704187</v>
       </c>
       <c r="GA5">
-        <v>0.003004422485733375</v>
+        <v>0.003003200050605359</v>
       </c>
       <c r="GB5">
-        <v>2.25212636426606E-05</v>
+        <v>1.963515835054693E-05</v>
       </c>
       <c r="GC5">
-        <v>0.000860981264568725</v>
+        <v>0.0008585629550831915</v>
       </c>
       <c r="GD5">
-        <v>0.002752426578542489</v>
+        <v>0.002751063549195871</v>
       </c>
       <c r="GE5">
-        <v>0.005036537143721241</v>
+        <v>0.00503644847134213</v>
       </c>
       <c r="GF5">
-        <v>0.004246537721178035</v>
+        <v>0.004246008290245554</v>
       </c>
       <c r="GG5">
-        <v>0.004576665430598468</v>
+        <v>0.004576320185384963</v>
       </c>
       <c r="GH5">
-        <v>0.0001992167756847952</v>
+        <v>0.0001964292528169875</v>
       </c>
       <c r="GI5">
-        <v>0.0002202318662844761</v>
+        <v>0.000217456068211228</v>
       </c>
       <c r="GJ5">
-        <v>0.0007765557221595809</v>
+        <v>0.0007740903097536175</v>
       </c>
       <c r="GK5">
-        <v>0.0006086575573684849</v>
+        <v>0.0006060984707773069</v>
       </c>
       <c r="GL5">
-        <v>4.692793833912277E-05</v>
+        <v>4.405545008307875E-05</v>
       </c>
       <c r="GM5">
-        <v>0.002686822076670417</v>
+        <v>0.002685422445087754</v>
       </c>
       <c r="GN5">
-        <v>0.01122099532019924</v>
+        <v>0.01122435709697421</v>
       </c>
       <c r="GO5">
-        <v>0.009712809277162058</v>
+        <v>0.009715329602817482</v>
       </c>
       <c r="GP5">
-        <v>0.002126374560677641</v>
+        <v>0.002124662242744406</v>
       </c>
       <c r="GQ5">
-        <v>0.0002313473566016647</v>
+        <v>0.0002285777601119779</v>
       </c>
       <c r="GR5">
-        <v>0.0001556595744418589</v>
+        <v>0.000152847750025897</v>
       </c>
       <c r="GS5">
-        <v>0.001891421953973098</v>
+        <v>0.001889578550664246</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.372736063059297E-05</v>
+        <v>2.187944470858442E-05</v>
       </c>
       <c r="C6">
-        <v>5.316007693190557E-05</v>
+        <v>5.13229138962824E-05</v>
       </c>
       <c r="D6">
-        <v>7.232803582564105E-06</v>
+        <v>5.378861573934839E-06</v>
       </c>
       <c r="E6">
-        <v>8.842037489688363E-06</v>
+        <v>6.988683395174589E-06</v>
       </c>
       <c r="F6">
-        <v>0.0001036043480205519</v>
+        <v>0.0001017856141883449</v>
       </c>
       <c r="G6">
-        <v>8.043599035769647E-05</v>
+        <v>7.860879224665321E-05</v>
       </c>
       <c r="H6">
-        <v>8.109503531966017E-05</v>
+        <v>7.926807798271082E-05</v>
       </c>
       <c r="I6">
-        <v>0.0001313766924176916</v>
+        <v>0.0001295681048751067</v>
       </c>
       <c r="J6">
-        <v>2.037231882422672E-05</v>
+        <v>1.852317717833347E-05</v>
       </c>
       <c r="K6">
-        <v>1.067258588403962E-05</v>
+        <v>8.819900558208487E-06</v>
       </c>
       <c r="L6">
-        <v>5.295509294373608E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.238631570799039E-07</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.855906392887739E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.934460172925548E-06</v>
+        <v>2.079313154484049E-06</v>
       </c>
       <c r="P6">
-        <v>1.812120895414786E-05</v>
+        <v>1.627124489253103E-05</v>
       </c>
       <c r="Q6">
-        <v>2.163246875149811E-05</v>
+        <v>1.978378748611672E-05</v>
       </c>
       <c r="R6">
-        <v>6.872860603337947E-05</v>
+        <v>6.689713077128359E-05</v>
       </c>
       <c r="S6">
-        <v>5.532032680722836E-05</v>
+        <v>5.348395299273024E-05</v>
       </c>
       <c r="T6">
-        <v>1.333634323030284E-05</v>
+        <v>1.148463107595236E-05</v>
       </c>
       <c r="U6">
-        <v>1.578260108911888E-05</v>
+        <v>1.393178264544586E-05</v>
       </c>
       <c r="V6">
-        <v>5.20960829933132E-05</v>
+        <v>5.02585312403926E-05</v>
       </c>
       <c r="W6">
-        <v>3.653498589141038E-05</v>
+        <v>3.469174908015349E-05</v>
       </c>
       <c r="X6">
-        <v>3.425728202286637E-09</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.7274289848742E-06</v>
+        <v>1.872206330095893E-06</v>
       </c>
       <c r="Z6">
-        <v>3.215400314425555E-06</v>
+        <v>1.359990596174647E-06</v>
       </c>
       <c r="AA6">
-        <v>0.000132900382329753</v>
+        <v>0.0001310923514488212</v>
       </c>
       <c r="AB6">
-        <v>0.0001667306403772647</v>
+        <v>0.0001649349689713283</v>
       </c>
       <c r="AC6">
-        <v>0.000305461742370502</v>
+        <v>0.000303716754692244</v>
       </c>
       <c r="AD6">
-        <v>0.0002634383847958489</v>
+        <v>0.0002616780443929254</v>
       </c>
       <c r="AE6">
-        <v>0.0003346449806862131</v>
+        <v>0.0003329106547505803</v>
       </c>
       <c r="AF6">
-        <v>0.0003641091789857087</v>
+        <v>0.000362385617438028</v>
       </c>
       <c r="AG6">
-        <v>0.0002797520538543177</v>
+        <v>0.0002779976734527789</v>
       </c>
       <c r="AH6">
-        <v>9.204595868763575E-05</v>
+        <v>9.022300213789154E-05</v>
       </c>
       <c r="AI6">
-        <v>4.171906559221506E-05</v>
+        <v>3.987772272168266E-05</v>
       </c>
       <c r="AJ6">
-        <v>4.696635128937186E-05</v>
+        <v>4.512692545110911E-05</v>
       </c>
       <c r="AK6">
-        <v>6.700606313279475E-06</v>
+        <v>4.846469872824325E-06</v>
       </c>
       <c r="AL6">
-        <v>4.372854747623931E-05</v>
+        <v>4.18879387455726E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0001624429906247232</v>
+        <v>0.0001606457527778856</v>
       </c>
       <c r="AN6">
-        <v>0.000169767390202001</v>
+        <v>0.0001679728282358292</v>
       </c>
       <c r="AO6">
-        <v>0.0002130722877026909</v>
+        <v>0.0002112935466562735</v>
       </c>
       <c r="AP6">
-        <v>0.0002466838457628248</v>
+        <v>0.0002449173842920114</v>
       </c>
       <c r="AQ6">
-        <v>0.0003379296804966391</v>
+        <v>0.0003361965545862948</v>
       </c>
       <c r="AR6">
-        <v>0.0003298895409606698</v>
+        <v>0.0003281534776827354</v>
       </c>
       <c r="AS6">
-        <v>0.0003685902387270877</v>
+        <v>0.0003668683142803049</v>
       </c>
       <c r="AT6">
-        <v>0.0004645990331860113</v>
+        <v>0.0004629121843893398</v>
       </c>
       <c r="AU6">
-        <v>0.0003536104995916322</v>
+        <v>0.0003518831024786043</v>
       </c>
       <c r="AV6">
-        <v>8.62938350196153E-05</v>
+        <v>8.446877700116383E-05</v>
       </c>
       <c r="AW6">
-        <v>4.192892758010303E-05</v>
+        <v>4.008766138010586E-05</v>
       </c>
       <c r="AX6">
-        <v>2.591516550432544E-06</v>
+        <v>7.35878903805498E-07</v>
       </c>
       <c r="AY6">
-        <v>1.837416793954852E-05</v>
+        <v>1.652429629343294E-05</v>
       </c>
       <c r="AZ6">
-        <v>5.507923282114292E-05</v>
+        <v>5.324277092587734E-05</v>
       </c>
       <c r="BA6">
-        <v>4.124674261947484E-05</v>
+        <v>3.940522719146553E-05</v>
       </c>
       <c r="BB6">
-        <v>4.219407756480011E-05</v>
+        <v>4.035290823413812E-05</v>
       </c>
       <c r="BC6">
-        <v>7.194886184752479E-06</v>
+        <v>5.340930323461213E-06</v>
       </c>
       <c r="BD6">
-        <v>4.219407756480011E-05</v>
+        <v>4.035290823413812E-05</v>
       </c>
       <c r="BE6">
-        <v>9.275086464695262E-05</v>
+        <v>9.092816562606219E-05</v>
       </c>
       <c r="BF6">
-        <v>6.967875597854228E-05</v>
+        <v>6.784762784221981E-05</v>
       </c>
       <c r="BG6">
-        <v>8.873433487876367E-05</v>
+        <v>8.691016846737423E-05</v>
       </c>
       <c r="BH6">
-        <v>0.0001027161280718148</v>
+        <v>0.0001008970697392085</v>
       </c>
       <c r="BI6">
-        <v>0.0003599232792272948</v>
+        <v>0.0003581981884118407</v>
       </c>
       <c r="BJ6">
-        <v>0.0002464621657756188</v>
+        <v>0.0002446956233167073</v>
       </c>
       <c r="BK6">
-        <v>7.450364570007734E-05</v>
+        <v>7.267428027877126E-05</v>
       </c>
       <c r="BL6">
-        <v>0.0001303762424754318</v>
+        <v>0.0001285672894305789</v>
       </c>
       <c r="BM6">
-        <v>0.0003613158791469219</v>
+        <v>0.00035959129710098</v>
       </c>
       <c r="BN6">
-        <v>0.0002201496072942287</v>
+        <v>0.0002183734518607972</v>
       </c>
       <c r="BO6">
-        <v>2.981000427953771E-05</v>
+        <v>2.796431057770789E-05</v>
       </c>
       <c r="BP6">
-        <v>2.410908660856194E-06</v>
+        <v>5.552050313243753E-07</v>
       </c>
       <c r="BQ6">
-        <v>3.609306791691535E-05</v>
+        <v>3.424966965627937E-05</v>
       </c>
       <c r="BR6">
-        <v>2.037231882422672E-05</v>
+        <v>1.852317717833347E-05</v>
       </c>
       <c r="BS6">
-        <v>0.0001414388018369644</v>
+        <v>0.0001396338903641747</v>
       </c>
       <c r="BT6">
-        <v>0.0003325588308066137</v>
+        <v>0.0003308237427213917</v>
       </c>
       <c r="BU6">
-        <v>0.0003950968771972767</v>
+        <v>0.0003933846366297869</v>
       </c>
       <c r="BV6">
-        <v>0.0003742434584008163</v>
+        <v>0.0003725235992893644</v>
       </c>
       <c r="BW6">
-        <v>0.0004358165748471695</v>
+        <v>0.0004341192107279828</v>
       </c>
       <c r="BX6">
-        <v>0.0002741898841753342</v>
+        <v>0.0002724334717024771</v>
       </c>
       <c r="BY6">
-        <v>0.0002624781448512685</v>
+        <v>0.0002607174536363125</v>
       </c>
       <c r="BZ6">
-        <v>0.0002556910152429827</v>
+        <v>0.000253927844432436</v>
       </c>
       <c r="CA6">
-        <v>0.0001233091228833054</v>
+        <v>0.0001214975879519127</v>
       </c>
       <c r="CB6">
-        <v>4.145541360743154E-05</v>
+        <v>3.961397441484008E-05</v>
       </c>
       <c r="CC6">
-        <v>6.57224262068789E-05</v>
+        <v>6.388985267339695E-05</v>
       </c>
       <c r="CD6">
-        <v>0.0001208782130236036</v>
+        <v>0.000119065789988739</v>
       </c>
       <c r="CE6">
-        <v>6.234841240160761E-05</v>
+        <v>6.051460621305097E-05</v>
       </c>
       <c r="CF6">
-        <v>5.142538703202192E-06</v>
+        <v>3.287833041618405E-06</v>
       </c>
       <c r="CG6">
-        <v>1.306988024568155E-05</v>
+        <v>1.121807074230728E-05</v>
       </c>
       <c r="CH6">
-        <v>2.163246875149811E-05</v>
+        <v>1.978378748611672E-05</v>
       </c>
       <c r="CI6">
-        <v>6.899712601788204E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001077942077787372</v>
+        <v>0.0001059770046610416</v>
       </c>
       <c r="CK6">
-        <v>0.0001231524028923504</v>
+        <v>0.0001213408107052074</v>
       </c>
       <c r="CL6">
-        <v>0.0001760909098370437</v>
+        <v>0.0001742986580921745</v>
       </c>
       <c r="CM6">
-        <v>0.0002943498630118159</v>
+        <v>0.0002926008157430312</v>
       </c>
       <c r="CN6">
-        <v>0.006860349904059993</v>
+        <v>0.006860999665372955</v>
       </c>
       <c r="CO6">
-        <v>0.08980013481725181</v>
+        <v>0.08983108562434215</v>
       </c>
       <c r="CP6">
-        <v>0.01082559987520853</v>
+        <v>0.01082769829256781</v>
       </c>
       <c r="CQ6">
-        <v>0.06746663610621312</v>
+        <v>0.06748942764007264</v>
       </c>
       <c r="CR6">
-        <v>0.02381361362561495</v>
+        <v>0.02382045705647553</v>
       </c>
       <c r="CS6">
-        <v>0.0003416470802820921</v>
+        <v>0.000339915312478731</v>
       </c>
       <c r="CT6">
-        <v>0.001279144626175117</v>
+        <v>0.001277755361744341</v>
       </c>
       <c r="CU6">
-        <v>0.003980234770283702</v>
+        <v>0.003979832316419063</v>
       </c>
       <c r="CV6">
-        <v>0.00124965912787685</v>
+        <v>0.001248259091276426</v>
       </c>
       <c r="CW6">
-        <v>0.01227146629176142</v>
+        <v>0.01227409293890236</v>
       </c>
       <c r="CX6">
-        <v>0.01188063031431823</v>
+        <v>0.01188311417426897</v>
       </c>
       <c r="CY6">
-        <v>0.0004501822140180674</v>
+        <v>0.0004484900982111423</v>
       </c>
       <c r="CZ6">
-        <v>0.003978188370401808</v>
+        <v>0.00397778516890976</v>
       </c>
       <c r="DA6">
-        <v>0.06797822607668709</v>
+        <v>0.06800120451374549</v>
       </c>
       <c r="DB6">
-        <v>0.04043617266625628</v>
+        <v>0.04044908894771509</v>
       </c>
       <c r="DC6">
-        <v>0.009208526468536723</v>
+        <v>0.009210034107714309</v>
       </c>
       <c r="DD6">
-        <v>0.01471542115071038</v>
+        <v>0.01471894066715568</v>
       </c>
       <c r="DE6">
-        <v>0.001607186107242446</v>
+        <v>0.001605916688793247</v>
       </c>
       <c r="DF6">
-        <v>0.00719657588465496</v>
+        <v>0.007197348482057264</v>
       </c>
       <c r="DG6">
-        <v>0.03730574784692643</v>
+        <v>0.037317520465596</v>
       </c>
       <c r="DH6">
-        <v>0.006279122637605094</v>
+        <v>0.0062795600545766</v>
       </c>
       <c r="DI6">
-        <v>0.0001352354321949873</v>
+        <v>0.0001334282543962396</v>
       </c>
       <c r="DJ6">
-        <v>0.001357531821651058</v>
+        <v>0.001356171195032654</v>
       </c>
       <c r="DK6">
-        <v>0.0006913622600985399</v>
+        <v>0.0006897582565000625</v>
       </c>
       <c r="DL6">
-        <v>3.7274289848742E-06</v>
+        <v>1.872206330095893E-06</v>
       </c>
       <c r="DM6">
-        <v>0.004634316732533846</v>
+        <v>0.004634153239591291</v>
       </c>
       <c r="DN6">
-        <v>0.007360806275176524</v>
+        <v>0.0073616388721627</v>
       </c>
       <c r="DO6">
-        <v>0.001295437825234767</v>
+        <v>0.00129405451332691</v>
       </c>
       <c r="DP6">
-        <v>0.0003655098589048695</v>
+        <v>0.000363786809078631</v>
       </c>
       <c r="DQ6">
-        <v>0.003752526183425734</v>
+        <v>0.003752040538987097</v>
       </c>
       <c r="DR6">
-        <v>0.0006963025298134158</v>
+        <v>0.0006947003310826378</v>
       </c>
       <c r="DS6">
-        <v>0.003186074116118095</v>
+        <v>0.00318538152527804</v>
       </c>
       <c r="DT6">
-        <v>0.00646531862685893</v>
+        <v>0.006465824068279738</v>
       </c>
       <c r="DU6">
-        <v>0.002324549365840357</v>
+        <v>0.002323542027368344</v>
       </c>
       <c r="DV6">
-        <v>0.002256114369790032</v>
+        <v>0.002255082029421158</v>
       </c>
       <c r="DW6">
-        <v>0.01037679740111083</v>
+        <v>0.01037873185392249</v>
       </c>
       <c r="DX6">
-        <v>0.01391968519663569</v>
+        <v>0.01392291400058883</v>
       </c>
       <c r="DY6">
-        <v>0.003345311406927833</v>
+        <v>0.00334467699150315</v>
       </c>
       <c r="DZ6">
-        <v>0.0003373334005310529</v>
+        <v>0.0003356000567770459</v>
       </c>
       <c r="EA6">
-        <v>0.00569793407114796</v>
+        <v>0.005698159157916586</v>
       </c>
       <c r="EB6">
-        <v>0.0005691813671501194</v>
+        <v>0.0005675327262423673</v>
       </c>
       <c r="EC6">
-        <v>0.001394938119492181</v>
+        <v>0.001393591158811595</v>
       </c>
       <c r="ED6">
-        <v>0.0200382388435079</v>
+        <v>0.02004370298692255</v>
       </c>
       <c r="EE6">
-        <v>0.01006867241889404</v>
+        <v>0.01007049430197573</v>
       </c>
       <c r="EF6">
-        <v>0.00277472663985871</v>
+        <v>0.00277388376820081</v>
       </c>
       <c r="EG6">
-        <v>0.01443212716706048</v>
+        <v>0.01443554318548036</v>
       </c>
       <c r="EH6">
-        <v>0.01191416431238284</v>
+        <v>0.01191666042357358</v>
       </c>
       <c r="EI6">
-        <v>0.005406665287958322</v>
+        <v>0.005406783963205116</v>
       </c>
       <c r="EJ6">
-        <v>0.003199302415354633</v>
+        <v>0.00319861465731347</v>
       </c>
       <c r="EK6">
-        <v>0.001187584331459451</v>
+        <v>0.001186161616584061</v>
       </c>
       <c r="EL6">
-        <v>0.001553257510354895</v>
+        <v>0.001551968389746054</v>
       </c>
       <c r="EM6">
-        <v>4.747026726028873E-05</v>
+        <v>4.563102552162206E-05</v>
       </c>
       <c r="EN6">
-        <v>0.001150121833621571</v>
+        <v>0.001148685432276375</v>
       </c>
       <c r="EO6">
-        <v>0.0004638998132263663</v>
+        <v>0.0004622127089781522</v>
       </c>
       <c r="EP6">
-        <v>0.003114047320275068</v>
+        <v>0.003113328415317604</v>
       </c>
       <c r="EQ6">
-        <v>0.002155379475603872</v>
+        <v>0.002154310332961597</v>
       </c>
       <c r="ER6">
-        <v>0.0006123989646558478</v>
+        <v>0.0006107661127738543</v>
       </c>
       <c r="ES6">
-        <v>0.001016234241348794</v>
+        <v>0.001014748925793528</v>
       </c>
       <c r="ET6">
-        <v>0.00285274843535574</v>
+        <v>0.002851934068015755</v>
       </c>
       <c r="EU6">
-        <v>0.007218725583376605</v>
+        <v>0.00721950627290304</v>
       </c>
       <c r="EV6">
-        <v>0.01479164714631105</v>
+        <v>0.01479519451100052</v>
       </c>
       <c r="EW6">
-        <v>0.02256364869775575</v>
+        <v>0.02257003546907062</v>
       </c>
       <c r="EX6">
-        <v>0.02400988061428755</v>
+        <v>0.02401679574891508</v>
       </c>
       <c r="EY6">
-        <v>0.008746893495179528</v>
+        <v>0.008748232482342006</v>
       </c>
       <c r="EZ6">
-        <v>3.061616823301055E-05</v>
+        <v>2.877076905341616E-05</v>
       </c>
       <c r="FA6">
-        <v>0.01674471503359119</v>
+        <v>0.01674897592797598</v>
       </c>
       <c r="FB6">
-        <v>0.04839437220695469</v>
+        <v>0.0484101959202189</v>
       </c>
       <c r="FC6">
-        <v>0.04999236711472761</v>
+        <v>0.05000877463607502</v>
       </c>
       <c r="FD6">
-        <v>0.0436411324812844</v>
+        <v>0.04365521965599031</v>
       </c>
       <c r="FE6">
-        <v>0.01579768508824832</v>
+        <v>0.01580159999671385</v>
       </c>
       <c r="FF6">
-        <v>0.0002258357769660556</v>
+        <v>0.0002240616989058378</v>
       </c>
       <c r="FG6">
-        <v>0.001062332038688294</v>
+        <v>0.001060863564404908</v>
       </c>
       <c r="FH6">
-        <v>0.002960481029138033</v>
+        <v>0.002959706020596233</v>
       </c>
       <c r="FI6">
-        <v>0.003639953189922801</v>
+        <v>0.003639426418304571</v>
       </c>
       <c r="FJ6">
-        <v>0.002005715484241618</v>
+        <v>0.002004591663672963</v>
       </c>
       <c r="FK6">
-        <v>0.0004162275959777329</v>
+        <v>0.0004145230752623954</v>
       </c>
       <c r="FL6">
-        <v>0.002086149879599407</v>
+        <v>0.002085055444762802</v>
       </c>
       <c r="FM6">
-        <v>0.009212451468310194</v>
+        <v>0.009213960541438904</v>
       </c>
       <c r="FN6">
-        <v>0.02594798250243143</v>
+        <v>0.02595560569910778</v>
       </c>
       <c r="FO6">
-        <v>0.01721588900639773</v>
+        <v>0.01722032203848621</v>
       </c>
       <c r="FP6">
-        <v>0.004355613748618982</v>
+        <v>0.004355348434917153</v>
       </c>
       <c r="FQ6">
-        <v>0.0002624781448512685</v>
+        <v>0.0002607174536363125</v>
       </c>
       <c r="FR6">
-        <v>0.00250356625550853</v>
+        <v>0.002502624318688745</v>
       </c>
       <c r="FS6">
-        <v>0.01124543535097804</v>
+        <v>0.01124768715014296</v>
       </c>
       <c r="FT6">
-        <v>0.007263607880786257</v>
+        <v>0.007264404967516396</v>
       </c>
       <c r="FU6">
-        <v>0.0049258174157101</v>
+        <v>0.004925760419011227</v>
       </c>
       <c r="FV6">
-        <v>0.004442884743582201</v>
+        <v>0.004442651313281277</v>
       </c>
       <c r="FW6">
-        <v>0.00199732428472591</v>
+        <v>0.001996197398534153</v>
       </c>
       <c r="FX6">
-        <v>0.003211758414635745</v>
+        <v>0.003211075207243041</v>
       </c>
       <c r="FY6">
-        <v>0.003255544512108663</v>
+        <v>0.003254877301436295</v>
       </c>
       <c r="FZ6">
-        <v>0.002812517837677618</v>
+        <v>0.002811688772576081</v>
       </c>
       <c r="GA6">
-        <v>0.002692295544616159</v>
+        <v>0.002691422557756092</v>
       </c>
       <c r="GB6">
-        <v>0.0007823926948447858</v>
+        <v>0.0007808219481130011</v>
       </c>
       <c r="GC6">
-        <v>0.0013074949245389</v>
+        <v>0.001306116017546228</v>
       </c>
       <c r="GD6">
-        <v>0.003336833807417111</v>
+        <v>0.003336196294804136</v>
       </c>
       <c r="GE6">
-        <v>0.006181055643264956</v>
+        <v>0.006181457232647955</v>
       </c>
       <c r="GF6">
-        <v>0.009056506477310444</v>
+        <v>0.009057958577825636</v>
       </c>
       <c r="GG6">
-        <v>0.00655110192190801</v>
+        <v>0.006551638703216581</v>
       </c>
       <c r="GH6">
-        <v>0.005197395300036184</v>
+        <v>0.005197437521027756</v>
       </c>
       <c r="GI6">
-        <v>5.359270690693666E-05</v>
+        <v>5.175570192743445E-05</v>
       </c>
       <c r="GJ6">
-        <v>0.0001058557688906128</v>
+        <v>0.0001040378575877495</v>
       </c>
       <c r="GK6">
-        <v>0.001174981832186795</v>
+        <v>0.001173554513140948</v>
       </c>
       <c r="GL6">
-        <v>0.001158075333162541</v>
+        <v>0.001156641837532063</v>
       </c>
       <c r="GM6">
-        <v>5.094203905991799E-05</v>
+        <v>4.910406569102513E-05</v>
       </c>
       <c r="GN6">
-        <v>0.001970564886270309</v>
+        <v>0.00196942822385646</v>
       </c>
       <c r="GO6">
-        <v>0.007045319793384592</v>
+        <v>0.007046037131206099</v>
       </c>
       <c r="GP6">
-        <v>0.004160623259872714</v>
+        <v>0.00416028670875772</v>
       </c>
       <c r="GQ6">
-        <v>0.0001312149324270275</v>
+        <v>0.0001294062857873894</v>
       </c>
       <c r="GR6">
-        <v>0.0005261856996315825</v>
+        <v>0.0005245213507775043</v>
       </c>
       <c r="GS6">
-        <v>0.003118928819993336</v>
+        <v>0.003118211698432665</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001204911034174134</v>
+        <v>0.0001171437734980022</v>
       </c>
       <c r="C2">
-        <v>0.0002839341780530464</v>
+        <v>0.0002772677187332544</v>
       </c>
       <c r="D2">
-        <v>0.0004348855223343844</v>
+        <v>0.0004248917320516386</v>
       </c>
       <c r="E2">
-        <v>0.0005824394265193629</v>
+        <v>0.0005691160746525446</v>
       </c>
       <c r="F2">
-        <v>0.0007733148919330437</v>
+        <v>0.0007566904216589664</v>
       </c>
       <c r="G2">
-        <v>0.001036220689389675</v>
+        <v>0.001016342392897543</v>
       </c>
       <c r="H2">
-        <v>0.001267803625957916</v>
+        <v>0.001244650937930015</v>
       </c>
       <c r="I2">
-        <v>0.001438132170788838</v>
+        <v>0.001411664874080507</v>
       </c>
       <c r="J2">
-        <v>0.001635464906385662</v>
+        <v>0.001605700730851296</v>
       </c>
       <c r="K2">
-        <v>0.001747216939555215</v>
+        <v>0.001714099696383008</v>
       </c>
       <c r="L2">
-        <v>0.001804348586175604</v>
+        <v>0.001767842413839144</v>
       </c>
       <c r="M2">
-        <v>0.001811104019667204</v>
+        <v>0.001771175843191892</v>
       </c>
       <c r="N2">
-        <v>0.001811104084522365</v>
+        <v>0.001771175843191892</v>
       </c>
       <c r="O2">
-        <v>0.001814528275819484</v>
+        <v>0.001771175843191892</v>
       </c>
       <c r="P2">
-        <v>0.001816028251462027</v>
+        <v>0.001771175843191892</v>
       </c>
       <c r="Q2">
-        <v>0.001828087891804067</v>
+        <v>0.001779816961921772</v>
       </c>
       <c r="R2">
-        <v>0.001850515036440154</v>
+        <v>0.001798832391827754</v>
       </c>
       <c r="S2">
-        <v>0.001906494688027869</v>
+        <v>0.001851422357898087</v>
       </c>
       <c r="T2">
-        <v>0.00203747953174291</v>
+        <v>0.001979066761457203</v>
       </c>
       <c r="U2">
-        <v>0.002262893518136185</v>
+        <v>0.002201202306032687</v>
       </c>
       <c r="V2">
-        <v>0.002459377453708935</v>
+        <v>0.002394388805491796</v>
       </c>
       <c r="W2">
-        <v>0.002722805781180387</v>
+        <v>0.002654563649817168</v>
       </c>
       <c r="X2">
-        <v>0.002965952588076607</v>
+        <v>0.002894443657545</v>
       </c>
       <c r="Y2">
-        <v>0.003245803156013833</v>
+        <v>0.003171051524511949</v>
       </c>
       <c r="Z2">
-        <v>0.003550206414647431</v>
+        <v>0.003472228202474331</v>
       </c>
       <c r="AA2">
-        <v>0.003724608869593898</v>
+        <v>0.003643318723504215</v>
       </c>
       <c r="AB2">
-        <v>0.003812636347090566</v>
+        <v>0.00372797755678379</v>
       </c>
       <c r="AC2">
-        <v>0.003818372692253263</v>
+        <v>0.003730291228715646</v>
       </c>
       <c r="AD2">
-        <v>0.003818945314509503</v>
+        <v>0.003730291228715646</v>
       </c>
       <c r="AE2">
-        <v>0.00383755645603736</v>
+        <v>0.003745488150080813</v>
       </c>
       <c r="AF2">
-        <v>0.003883084223328635</v>
+        <v>0.00378761936957217</v>
       </c>
       <c r="AG2">
-        <v>0.003946511250127576</v>
+        <v>0.003847661600497682</v>
       </c>
       <c r="AH2">
-        <v>0.004063216763437621</v>
+        <v>0.003961017298423671</v>
       </c>
       <c r="AI2">
-        <v>0.004188849317000858</v>
+        <v>0.00408330589773475</v>
       </c>
       <c r="AJ2">
-        <v>0.004390108002709032</v>
+        <v>0.004281270282236208</v>
       </c>
       <c r="AK2">
-        <v>0.004667486780576152</v>
+        <v>0.004555404736256128</v>
       </c>
       <c r="AL2">
-        <v>0.004964899289011475</v>
+        <v>0.004849586074177711</v>
       </c>
       <c r="AM2">
-        <v>0.00522480753638309</v>
+        <v>0.005106238527261684</v>
       </c>
       <c r="AN2">
-        <v>0.005437737732422294</v>
+        <v>0.005315882085133607</v>
       </c>
       <c r="AO2">
-        <v>0.005655770688606226</v>
+        <v>0.005530631753415226</v>
       </c>
       <c r="AP2">
-        <v>0.005795821702578405</v>
+        <v>0.005667348279710485</v>
       </c>
       <c r="AQ2">
-        <v>0.005892900585331792</v>
+        <v>0.005761064461031684</v>
       </c>
       <c r="AR2">
-        <v>0.005961408807274847</v>
+        <v>0.005826191223207578</v>
       </c>
       <c r="AS2">
-        <v>0.006000460892382457</v>
+        <v>0.005861842508845473</v>
       </c>
       <c r="AT2">
-        <v>0.006014669671785451</v>
+        <v>0.005872634177673689</v>
       </c>
       <c r="AU2">
-        <v>0.006015813671117897</v>
+        <v>0.005872634177673689</v>
       </c>
       <c r="AV2">
-        <v>0.006015886595633966</v>
+        <v>0.005872634177673689</v>
       </c>
       <c r="AW2">
-        <v>0.006050222830607822</v>
+        <v>0.005903566516942254</v>
       </c>
       <c r="AX2">
-        <v>0.006079467158437261</v>
+        <v>0.005929403605927069</v>
       </c>
       <c r="AY2">
-        <v>0.006185033111431361</v>
+        <v>0.006031612429754445</v>
       </c>
       <c r="AZ2">
-        <v>0.006377959966903224</v>
+        <v>0.006221239513678407</v>
       </c>
       <c r="BA2">
-        <v>0.006738075077116943</v>
+        <v>0.006578164621358911</v>
       </c>
       <c r="BB2">
-        <v>0.007158581029043489</v>
+        <v>0.006995520220925045</v>
       </c>
       <c r="BC2">
-        <v>0.007689068084089359</v>
+        <v>0.007522929132733938</v>
       </c>
       <c r="BD2">
-        <v>0.008117212096232538</v>
+        <v>0.007947927807356685</v>
       </c>
       <c r="BE2">
-        <v>0.008429346235085402</v>
+        <v>0.008256840441320155</v>
       </c>
       <c r="BF2">
-        <v>0.008622273090557265</v>
+        <v>0.008446467525244118</v>
       </c>
       <c r="BG2">
-        <v>0.008691819118529755</v>
+        <v>0.008512632774830716</v>
       </c>
       <c r="BH2">
-        <v>0.008710569491061561</v>
+        <v>0.008527969018613251</v>
       </c>
       <c r="BI2">
-        <v>0.00871103206116468</v>
+        <v>0.008527969018613251</v>
       </c>
       <c r="BJ2">
-        <v>0.008711166944048505</v>
+        <v>0.008527969018613251</v>
       </c>
       <c r="BK2">
-        <v>0.008716608015202828</v>
+        <v>0.008529987222671818</v>
       </c>
       <c r="BL2">
-        <v>0.008739766471859657</v>
+        <v>0.008549734444748299</v>
       </c>
       <c r="BM2">
-        <v>0.008812757523929855</v>
+        <v>0.008619346980295447</v>
       </c>
       <c r="BN2">
-        <v>0.008896195526296355</v>
+        <v>0.008699413325181968</v>
       </c>
       <c r="BO2">
-        <v>0.009051736960707879</v>
+        <v>0.008851630442297208</v>
       </c>
       <c r="BP2">
-        <v>0.009153436333592314</v>
+        <v>0.008949970147375532</v>
       </c>
       <c r="BQ2">
-        <v>0.009355682539328496</v>
+        <v>0.009148922700270522</v>
       </c>
       <c r="BR2">
-        <v>0.0097016939691422</v>
+        <v>0.009491734867647539</v>
       </c>
       <c r="BS2">
-        <v>0.01022082518386599</v>
+        <v>0.01000778048335102</v>
       </c>
       <c r="BT2">
-        <v>0.01066523779647059</v>
+        <v>0.0104490584397372</v>
       </c>
       <c r="BU2">
-        <v>0.01102959168680453</v>
+        <v>0.01081022511054872</v>
       </c>
       <c r="BV2">
-        <v>0.01131162146480356</v>
+        <v>0.01108901361835826</v>
       </c>
       <c r="BW2">
-        <v>0.01150026225015386</v>
+        <v>0.01127435181810117</v>
       </c>
       <c r="BX2">
-        <v>0.01156295315193192</v>
+        <v>0.01133365744069603</v>
       </c>
       <c r="BY2">
-        <v>0.01160601335815321</v>
+        <v>0.01137331947901707</v>
       </c>
       <c r="BZ2">
-        <v>0.01161641297444817</v>
+        <v>0.01138029948379553</v>
       </c>
       <c r="CA2">
-        <v>0.01161703941571594</v>
+        <v>0.01138029948379553</v>
       </c>
       <c r="CB2">
-        <v>0.01162877928604891</v>
+        <v>0.01138862062256834</v>
       </c>
       <c r="CC2">
-        <v>0.01166588519410132</v>
+        <v>0.01142232445337026</v>
       </c>
       <c r="CD2">
-        <v>0.01180963259817834</v>
+        <v>0.01156273979666991</v>
       </c>
       <c r="CE2">
-        <v>0.01208793457607164</v>
+        <v>0.01183779805685163</v>
       </c>
       <c r="CF2">
-        <v>0.01236623655396495</v>
+        <v>0.01211285631703336</v>
       </c>
       <c r="CG2">
-        <v>0.01263685998164047</v>
+        <v>0.01238023098557324</v>
       </c>
       <c r="CH2">
-        <v>0.01298866767161857</v>
+        <v>0.01272884321870356</v>
       </c>
       <c r="CI2">
-        <v>0.01337292258251695</v>
+        <v>0.01310992397628098</v>
       </c>
       <c r="CJ2">
-        <v>0.01382537859534967</v>
+        <v>0.01355925061386505</v>
       </c>
       <c r="CK2">
-        <v>0.01415200750461364</v>
+        <v>0.01388266753491691</v>
       </c>
       <c r="CL2">
-        <v>0.01440945196191538</v>
+        <v>0.01413685458030656</v>
       </c>
       <c r="CM2">
-        <v>0.01451021864477336</v>
+        <v>0.01423426098299205</v>
       </c>
       <c r="CN2">
-        <v>0.1247726457720772</v>
+        <v>0.1245656555001618</v>
       </c>
       <c r="CO2">
-        <v>0.1247743510086256</v>
+        <v>0.1245656555001618</v>
       </c>
       <c r="CP2">
-        <v>0.1812796196112489</v>
+        <v>0.1811045967266837</v>
       </c>
       <c r="CQ2">
-        <v>0.2226550567847544</v>
+        <v>0.2225037728915432</v>
       </c>
       <c r="CR2">
-        <v>0.2239027049201407</v>
+        <v>0.2237488137425173</v>
       </c>
       <c r="CS2">
-        <v>0.2245931746397241</v>
+        <v>0.2244363103569806</v>
       </c>
       <c r="CT2">
-        <v>0.2487756123255953</v>
+        <v>0.2486311988093471</v>
       </c>
       <c r="CU2">
-        <v>0.255462948215264</v>
+        <v>0.2553194988925518</v>
       </c>
       <c r="CV2">
-        <v>0.2643174009663973</v>
+        <v>0.2641763386780957</v>
       </c>
       <c r="CW2">
-        <v>0.2763910603088349</v>
+        <v>0.2762544986551854</v>
       </c>
       <c r="CX2">
-        <v>0.2764236022777579</v>
+        <v>0.2762836355503608</v>
       </c>
       <c r="CY2">
-        <v>0.2771845991293415</v>
+        <v>0.2770417056020736</v>
       </c>
       <c r="CZ2">
-        <v>0.3287374145915016</v>
+        <v>0.3286249421086336</v>
       </c>
       <c r="DA2">
-        <v>0.3822716031098581</v>
+        <v>0.3821908525604295</v>
       </c>
       <c r="DB2">
-        <v>0.3823695975026374</v>
+        <v>0.3822854848528633</v>
       </c>
       <c r="DC2">
-        <v>0.3973035909262009</v>
+        <v>0.3972258568902123</v>
       </c>
       <c r="DD2">
-        <v>0.4007977120253025</v>
+        <v>0.4007188456477686</v>
       </c>
       <c r="DE2">
-        <v>0.4017252396016093</v>
+        <v>0.4016435557615117</v>
       </c>
       <c r="DF2">
-        <v>0.4254628622748646</v>
+        <v>0.4253933371537991</v>
       </c>
       <c r="DG2">
-        <v>0.4464769778708747</v>
+        <v>0.446417823324759</v>
       </c>
       <c r="DH2">
-        <v>0.4464777596450969</v>
+        <v>0.446417823324759</v>
       </c>
       <c r="DI2">
-        <v>0.4465358393527442</v>
+        <v>0.4464725147257004</v>
       </c>
       <c r="DJ2">
-        <v>0.4469537877645982</v>
+        <v>0.4468873111060171</v>
       </c>
       <c r="DK2">
-        <v>0.4469709668920854</v>
+        <v>0.4469010750731395</v>
       </c>
       <c r="DL2">
-        <v>0.4488413456451337</v>
+        <v>0.4487692554013958</v>
       </c>
       <c r="DM2">
-        <v>0.4529167341607214</v>
+        <v>0.4528438932120052</v>
       </c>
       <c r="DN2">
-        <v>0.4535017223773131</v>
+        <v>0.453425839068608</v>
       </c>
       <c r="DO2">
-        <v>0.4536034217501975</v>
+        <v>0.4535241787736863</v>
       </c>
       <c r="DP2">
-        <v>0.4578921918718372</v>
+        <v>0.4578123382880399</v>
       </c>
       <c r="DQ2">
-        <v>0.4591565869076984</v>
+        <v>0.4590741370348234</v>
       </c>
       <c r="DR2">
-        <v>0.4617912369824234</v>
+        <v>0.4617070904742514</v>
       </c>
       <c r="DS2">
-        <v>0.4689477871854001</v>
+        <v>0.4688649129378166</v>
       </c>
       <c r="DT2">
-        <v>0.4706558637338452</v>
+        <v>0.470570684500437</v>
       </c>
       <c r="DU2">
-        <v>0.4720520797734452</v>
+        <v>0.471964390799274</v>
       </c>
       <c r="DV2">
-        <v>0.4758646428815785</v>
+        <v>0.4757760306419459</v>
       </c>
       <c r="DW2">
-        <v>0.4903332992919439</v>
+        <v>0.490250760144722</v>
       </c>
       <c r="DX2">
-        <v>0.4934769319811048</v>
+        <v>0.4933930303758891</v>
       </c>
       <c r="DY2">
-        <v>0.4937973085901914</v>
+        <v>0.4937101908917573</v>
       </c>
       <c r="DZ2">
-        <v>0.4967364791735533</v>
+        <v>0.4966478647756146</v>
       </c>
       <c r="EA2">
-        <v>0.4974583551940274</v>
+        <v>0.4973667883110697</v>
       </c>
       <c r="EB2">
-        <v>0.4984050372808776</v>
+        <v>0.4983106655114295</v>
       </c>
       <c r="EC2">
-        <v>0.5121107686696046</v>
+        <v>0.512021969086998</v>
       </c>
       <c r="ED2">
-        <v>0.5224903729639948</v>
+        <v>0.5224049617683305</v>
       </c>
       <c r="EE2">
-        <v>0.524291251115072</v>
+        <v>0.5242035958633444</v>
       </c>
       <c r="EF2">
-        <v>0.534588382407123</v>
+        <v>0.5345040613939155</v>
       </c>
       <c r="EG2">
-        <v>0.5489863468154834</v>
+        <v>0.5489080524811906</v>
       </c>
       <c r="EH2">
-        <v>0.55442653316978</v>
+        <v>0.5543483842013138</v>
       </c>
       <c r="EI2">
-        <v>0.5564357033267648</v>
+        <v>0.556355447058303</v>
       </c>
       <c r="EJ2">
-        <v>0.5571736135476937</v>
+        <v>0.5570904153216174</v>
       </c>
       <c r="EK2">
-        <v>0.5583863109820887</v>
+        <v>0.5583004825243901</v>
       </c>
       <c r="EL2">
-        <v>0.558508845785564</v>
+        <v>0.5584196713397566</v>
       </c>
       <c r="EM2">
-        <v>0.559824848822889</v>
+        <v>0.5597331119717206</v>
       </c>
       <c r="EN2">
-        <v>0.5605686823439858</v>
+        <v>0.5604740074242012</v>
       </c>
       <c r="EO2">
-        <v>0.5623601218947953</v>
+        <v>0.562263196721946</v>
       </c>
       <c r="EP2">
-        <v>0.56432732875059</v>
+        <v>0.5642282687263465</v>
       </c>
       <c r="EQ2">
-        <v>0.5662111521040197</v>
+        <v>0.5661099024821624</v>
       </c>
       <c r="ER2">
-        <v>0.5688185137779707</v>
+        <v>0.5687155496043613</v>
       </c>
       <c r="ES2">
-        <v>0.571896227865262</v>
+        <v>0.5717918579541833</v>
       </c>
       <c r="ET2">
-        <v>0.5777462110311813</v>
+        <v>0.5776422555418645</v>
       </c>
       <c r="EU2">
-        <v>0.5891445883544663</v>
+        <v>0.5890446901370666</v>
       </c>
       <c r="EV2">
-        <v>0.6049443418025847</v>
+        <v>0.6048513906218242</v>
       </c>
       <c r="EW2">
-        <v>0.6273320244375524</v>
+        <v>0.6272503456600472</v>
       </c>
       <c r="EX2">
-        <v>0.6388569357644263</v>
+        <v>0.6387793973359235</v>
       </c>
       <c r="EY2">
-        <v>0.6392117928144908</v>
+        <v>0.6391310609312262</v>
       </c>
       <c r="EZ2">
-        <v>0.6480218370643646</v>
+        <v>0.647943463058693</v>
       </c>
       <c r="FA2">
-        <v>0.6925572143274934</v>
+        <v>0.6925046540014406</v>
       </c>
       <c r="FB2">
-        <v>0.7520368510144769</v>
+        <v>0.752019916161549</v>
       </c>
       <c r="FC2">
-        <v>0.8018761774280384</v>
+        <v>0.8018885386122254</v>
       </c>
       <c r="FD2">
-        <v>0.8324150592941935</v>
+        <v>0.8324440446278425</v>
       </c>
       <c r="FE2">
-        <v>0.8358613985919399</v>
+        <v>0.8358892202124544</v>
       </c>
       <c r="FF2">
-        <v>0.8362748063036651</v>
+        <v>0.8362994729114031</v>
       </c>
       <c r="FG2">
-        <v>0.8390079013811822</v>
+        <v>0.8390309359886119</v>
       </c>
       <c r="FH2">
-        <v>0.8437752579163957</v>
+        <v>0.843797996136932</v>
       </c>
       <c r="FI2">
-        <v>0.8492847025726566</v>
+        <v>0.8493076316312064</v>
       </c>
       <c r="FJ2">
-        <v>0.8498237643879457</v>
+        <v>0.8498436209330976</v>
       </c>
       <c r="FK2">
-        <v>0.8527881167720218</v>
+        <v>0.8528064931510163</v>
       </c>
       <c r="FL2">
-        <v>0.8599603596754436</v>
+        <v>0.859980018618216</v>
       </c>
       <c r="FM2">
-        <v>0.8862984734224549</v>
+        <v>0.8863319984610326</v>
       </c>
       <c r="FN2">
-        <v>0.9097775480883772</v>
+        <v>0.909823062093871</v>
       </c>
       <c r="FO2">
-        <v>0.9181227133250659</v>
+        <v>0.9181702799874821</v>
       </c>
       <c r="FP2">
-        <v>0.9185619574875239</v>
+        <v>0.9186063861003274</v>
       </c>
       <c r="FQ2">
-        <v>0.9198285042234462</v>
+        <v>0.9198703379598908</v>
       </c>
       <c r="FR2">
-        <v>0.9255508780857463</v>
+        <v>0.9255930424608692</v>
       </c>
       <c r="FS2">
-        <v>0.9323199532777333</v>
+        <v>0.9323631355130968</v>
       </c>
       <c r="FT2">
-        <v>0.9360254001828285</v>
+        <v>0.9360675888245842</v>
       </c>
       <c r="FU2">
-        <v>0.9404836853092761</v>
+        <v>0.9405253746404099</v>
       </c>
       <c r="FV2">
-        <v>0.9435944138975036</v>
+        <v>0.943634719167148</v>
       </c>
       <c r="FW2">
-        <v>0.946625520183473</v>
+        <v>0.9466643891148595</v>
       </c>
       <c r="FX2">
-        <v>0.9509000513047089</v>
+        <v>0.9509383002800601</v>
       </c>
       <c r="FY2">
-        <v>0.9542989378011094</v>
+        <v>0.9543359919077449</v>
       </c>
       <c r="FZ2">
-        <v>0.9579062927034225</v>
+        <v>0.9579422888132268</v>
       </c>
       <c r="GA2">
-        <v>0.9594179011462953</v>
+        <v>0.9594514632772999</v>
       </c>
       <c r="GB2">
-        <v>0.9596391591525707</v>
+        <v>0.9596694401131098</v>
       </c>
       <c r="GC2">
-        <v>0.9604097758744272</v>
+        <v>0.9604371363511114</v>
       </c>
       <c r="GD2">
-        <v>0.9635235939627425</v>
+        <v>0.9635495724063774</v>
       </c>
       <c r="GE2">
-        <v>0.969338180427658</v>
+        <v>0.969364550053019</v>
       </c>
       <c r="GF2">
-        <v>0.974532318574976</v>
+        <v>0.9745586720209087</v>
       </c>
       <c r="GG2">
-        <v>0.9784399092858046</v>
+        <v>0.9784654018575385</v>
       </c>
       <c r="GH2">
-        <v>0.9787410864743467</v>
+        <v>0.9787633503473029</v>
       </c>
       <c r="GI2">
-        <v>0.9788931788886603</v>
+        <v>0.9789121161798339</v>
       </c>
       <c r="GJ2">
-        <v>0.9795203809064493</v>
+        <v>0.9795363035535005</v>
       </c>
       <c r="GK2">
-        <v>0.9811206521518369</v>
+        <v>0.9811341990324818</v>
       </c>
       <c r="GL2">
-        <v>0.9811655565831104</v>
+        <v>0.9811757065066984</v>
       </c>
       <c r="GM2">
-        <v>0.9828928426321004</v>
+        <v>0.9829007001820411</v>
       </c>
       <c r="GN2">
-        <v>0.9895109761198063</v>
+        <v>0.9895197524277979</v>
       </c>
       <c r="GO2">
-        <v>0.9955054158898229</v>
+        <v>0.9955147014639127</v>
       </c>
       <c r="GP2">
-        <v>0.9968578176281802</v>
+        <v>0.9968645646948172</v>
       </c>
       <c r="GQ2">
-        <v>0.9968597735609356</v>
+        <v>0.9968645646948172</v>
       </c>
       <c r="GR2">
-        <v>0.9977194223353173</v>
+        <v>0.9977213514401719</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.963074556692464E-05</v>
+        <v>3.599912552283884E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001028343416866264</v>
+        <v>9.558786631397667E-05</v>
       </c>
       <c r="D3">
-        <v>0.000243574273046091</v>
+        <v>0.0002327680852135768</v>
       </c>
       <c r="E3">
-        <v>0.0005612267335442533</v>
+        <v>0.0005469866512227061</v>
       </c>
       <c r="F3">
-        <v>0.0009040698324958707</v>
+        <v>0.0008864137709512675</v>
       </c>
       <c r="G3">
-        <v>0.00142077833077326</v>
+        <v>0.001399829940895945</v>
       </c>
       <c r="H3">
-        <v>0.001736838571369174</v>
+        <v>0.001712455154636011</v>
       </c>
       <c r="I3">
-        <v>0.002039137712809933</v>
+        <v>0.002011309482499875</v>
       </c>
       <c r="J3">
-        <v>0.002154358911736085</v>
+        <v>0.002122952820363865</v>
       </c>
       <c r="K3">
-        <v>0.002160689924847401</v>
+        <v>0.002125628531079216</v>
       </c>
       <c r="L3">
-        <v>0.002164347128822872</v>
+        <v>0.002125628531079216</v>
       </c>
       <c r="M3">
-        <v>0.002164375406875136</v>
+        <v>0.002125628531079216</v>
       </c>
       <c r="N3">
-        <v>0.002167075333609378</v>
+        <v>0.002125628531079216</v>
       </c>
       <c r="O3">
-        <v>0.002204611641304887</v>
+        <v>0.002159531729192707</v>
       </c>
       <c r="P3">
-        <v>0.002243809990898358</v>
+        <v>0.002195098151227502</v>
       </c>
       <c r="Q3">
-        <v>0.002258088548021746</v>
+        <v>0.002205727058148501</v>
       </c>
       <c r="R3">
-        <v>0.002262599601744796</v>
+        <v>0.002206581515143306</v>
       </c>
       <c r="S3">
-        <v>0.002268110556806458</v>
+        <v>0.00220843658459401</v>
       </c>
       <c r="T3">
-        <v>0.002309437098269272</v>
+        <v>0.0022461327120415</v>
       </c>
       <c r="U3">
-        <v>0.002386465139540241</v>
+        <v>0.002319555729755828</v>
       </c>
       <c r="V3">
-        <v>0.002459809371037373</v>
+        <v>0.002389292317817031</v>
       </c>
       <c r="W3">
-        <v>0.002692722306738002</v>
+        <v>0.0026187110933419</v>
       </c>
       <c r="X3">
-        <v>0.003011938987140131</v>
+        <v>0.002934494991708564</v>
       </c>
       <c r="Y3">
-        <v>0.003188957406272327</v>
+        <v>0.003107979499186179</v>
       </c>
       <c r="Z3">
-        <v>0.003347728246524809</v>
+        <v>0.00326320345033495</v>
       </c>
       <c r="AA3">
-        <v>0.003594141031396633</v>
+        <v>0.003506131675954348</v>
       </c>
       <c r="AB3">
-        <v>0.003847268415856224</v>
+        <v>0.003755779276500486</v>
       </c>
       <c r="AC3">
-        <v>0.003932140730645605</v>
+        <v>0.003837052146482122</v>
       </c>
       <c r="AD3">
-        <v>0.003933939712035158</v>
+        <v>0.003837052146482122</v>
       </c>
       <c r="AE3">
-        <v>0.003935508990338814</v>
+        <v>0.003837052146482122</v>
       </c>
       <c r="AF3">
-        <v>0.01668794220742064</v>
+        <v>0.01659489492911782</v>
       </c>
       <c r="AG3">
-        <v>0.05725937971659279</v>
+        <v>0.05719152653062454</v>
       </c>
       <c r="AH3">
-        <v>0.06925588848008356</v>
+        <v>0.06919290725568311</v>
       </c>
       <c r="AI3">
-        <v>0.123014405179653</v>
+        <v>0.1229859965328364</v>
       </c>
       <c r="AJ3">
-        <v>0.138276103242682</v>
+        <v>0.1382548887190915</v>
       </c>
       <c r="AK3">
-        <v>0.1406308339981165</v>
+        <v>0.1406076343245591</v>
       </c>
       <c r="AL3">
-        <v>0.1407165489028541</v>
+        <v>0.1406897503837284</v>
       </c>
       <c r="AM3">
-        <v>0.1498105293445417</v>
+        <v>0.1497865385452621</v>
       </c>
       <c r="AN3">
-        <v>0.1506164510950632</v>
+        <v>0.1505893736522869</v>
       </c>
       <c r="AO3">
-        <v>0.1512476633163108</v>
+        <v>0.1512173749788128</v>
       </c>
       <c r="AP3">
-        <v>0.1558370000345548</v>
+        <v>0.1558063157708109</v>
       </c>
       <c r="AQ3">
-        <v>0.1803568315291933</v>
+        <v>0.1803399256570014</v>
       </c>
       <c r="AR3">
-        <v>0.1982955744278687</v>
+        <v>0.1982877665595986</v>
       </c>
       <c r="AS3">
-        <v>0.2188127271682462</v>
+        <v>0.2188158510366235</v>
       </c>
       <c r="AT3">
-        <v>0.2349227231791951</v>
+        <v>0.2349336444696547</v>
       </c>
       <c r="AU3">
-        <v>0.2395120598974391</v>
+        <v>0.2395225852616528</v>
       </c>
       <c r="AV3">
-        <v>0.2417584687595239</v>
+        <v>0.2417669319365994</v>
       </c>
       <c r="AW3">
-        <v>0.2640820723889968</v>
+        <v>0.2641027520279248</v>
       </c>
       <c r="AX3">
-        <v>0.2780201425332881</v>
+        <v>0.2780470749478753</v>
       </c>
       <c r="AY3">
-        <v>0.2789093699086951</v>
+        <v>0.2789332749257007</v>
       </c>
       <c r="AZ3">
-        <v>0.2797376635878432</v>
+        <v>0.279758497871987</v>
       </c>
       <c r="BA3">
-        <v>0.3048992120430844</v>
+        <v>0.3049342810998303</v>
       </c>
       <c r="BB3">
-        <v>0.3081636045426715</v>
+        <v>0.3081973353894686</v>
       </c>
       <c r="BC3">
-        <v>0.3221410916845428</v>
+        <v>0.3221811033398732</v>
       </c>
       <c r="BD3">
-        <v>0.3225620188587006</v>
+        <v>0.3225986700672223</v>
       </c>
       <c r="BE3">
-        <v>0.3482799592797828</v>
+        <v>0.3483312409598912</v>
       </c>
       <c r="BF3">
-        <v>0.3551405328585873</v>
+        <v>0.3551930338876056</v>
       </c>
       <c r="BG3">
-        <v>0.3576405881050999</v>
+        <v>0.3576912073371059</v>
       </c>
       <c r="BH3">
-        <v>0.3577813067764606</v>
+        <v>0.3578283662808869</v>
       </c>
       <c r="BI3">
-        <v>0.3583825454395484</v>
+        <v>0.3584263727324346</v>
       </c>
       <c r="BJ3">
-        <v>0.361294074960799</v>
+        <v>0.3613363130920139</v>
       </c>
       <c r="BK3">
-        <v>0.3677728555630432</v>
+        <v>0.3678160415167938</v>
       </c>
       <c r="BL3">
-        <v>0.3689024436936937</v>
+        <v>0.3689427731914157</v>
       </c>
       <c r="BM3">
-        <v>0.3707256842817583</v>
+        <v>0.3707636506403755</v>
       </c>
       <c r="BN3">
-        <v>0.3801878007008447</v>
+        <v>0.3802288365929958</v>
       </c>
       <c r="BO3">
-        <v>0.3944763188236207</v>
+        <v>0.3945238567256358</v>
       </c>
       <c r="BP3">
-        <v>0.4065880220800392</v>
+        <v>0.4066405138685001</v>
       </c>
       <c r="BQ3">
-        <v>0.4084903998632454</v>
+        <v>0.4085405847939816</v>
       </c>
       <c r="BR3">
-        <v>0.4107039888273451</v>
+        <v>0.4107520882298435</v>
       </c>
       <c r="BS3">
-        <v>0.4139085071306081</v>
+        <v>0.4139552257413806</v>
       </c>
       <c r="BT3">
-        <v>0.4147745487774386</v>
+        <v>0.4148182235012302</v>
       </c>
       <c r="BU3">
-        <v>0.4156203101755143</v>
+        <v>0.4156609265892665</v>
       </c>
       <c r="BV3">
-        <v>0.4240857996557871</v>
+        <v>0.4241287768145001</v>
       </c>
       <c r="BW3">
-        <v>0.4323610271477409</v>
+        <v>0.4324062297394758</v>
       </c>
       <c r="BX3">
-        <v>0.4364184691986398</v>
+        <v>0.4364628975873156</v>
       </c>
       <c r="BY3">
-        <v>0.4415470528837774</v>
+        <v>0.4415914688518838</v>
       </c>
       <c r="BZ3">
-        <v>0.4464899819803131</v>
+        <v>0.4465342534926361</v>
       </c>
       <c r="CA3">
-        <v>0.4563367653757833</v>
+        <v>0.4563843799919671</v>
       </c>
       <c r="CB3">
-        <v>0.4608327790997567</v>
+        <v>0.4608799314195521</v>
       </c>
       <c r="CC3">
-        <v>0.4609425456530178</v>
+        <v>0.4609861162324754</v>
       </c>
       <c r="CD3">
-        <v>0.461209767696612</v>
+        <v>0.4612498685161009</v>
       </c>
       <c r="CE3">
-        <v>0.4612099886390785</v>
+        <v>0.4612498685161009</v>
       </c>
       <c r="CF3">
-        <v>0.4612810527597156</v>
+        <v>0.4613173233717159</v>
       </c>
       <c r="CG3">
-        <v>0.4621319724574746</v>
+        <v>0.4621651884279535</v>
       </c>
       <c r="CH3">
-        <v>0.4632154440909563</v>
+        <v>0.4632457708079326</v>
       </c>
       <c r="CI3">
-        <v>0.4633799002908598</v>
+        <v>0.4634066841620887</v>
       </c>
       <c r="CJ3">
-        <v>0.4640200883015563</v>
+        <v>0.4640436676615324</v>
       </c>
       <c r="CK3">
-        <v>0.4659528216828988</v>
+        <v>0.4659741157736708</v>
       </c>
       <c r="CL3">
-        <v>0.468831863706144</v>
+        <v>0.4688515455305437</v>
       </c>
       <c r="CM3">
-        <v>0.4767309042211932</v>
+        <v>0.4767525439391573</v>
       </c>
       <c r="CN3">
-        <v>0.4918215862947215</v>
+        <v>0.4918502985114859</v>
       </c>
       <c r="CO3">
-        <v>0.5108115801288569</v>
+        <v>0.5108501379860172</v>
       </c>
       <c r="CP3">
-        <v>0.5256887552154931</v>
+        <v>0.5257342337279637</v>
       </c>
       <c r="CQ3">
-        <v>0.533123795259029</v>
+        <v>0.5331709016737509</v>
       </c>
       <c r="CR3">
-        <v>0.5333499326951455</v>
+        <v>0.5333935401310415</v>
       </c>
       <c r="CS3">
-        <v>0.5494374597074738</v>
+        <v>0.5494888485857822</v>
       </c>
       <c r="CT3">
-        <v>0.598136206717681</v>
+        <v>0.5982185697288598</v>
       </c>
       <c r="CU3">
-        <v>0.6396047311717777</v>
+        <v>0.6397129262722697</v>
       </c>
       <c r="CV3">
-        <v>0.6756825489568296</v>
+        <v>0.675812742343694</v>
       </c>
       <c r="CW3">
-        <v>0.6940766358275497</v>
+        <v>0.6942162510532554</v>
       </c>
       <c r="CX3">
-        <v>0.6955941056343867</v>
+        <v>0.6957311402606448</v>
       </c>
       <c r="CY3">
-        <v>0.6963444692183192</v>
+        <v>0.6964783776888095</v>
       </c>
       <c r="CZ3">
-        <v>0.6996189882172845</v>
+        <v>0.6997515656796653</v>
       </c>
       <c r="DA3">
-        <v>0.7052979428686329</v>
+        <v>0.7054308993273694</v>
       </c>
       <c r="DB3">
-        <v>0.7102722388632428</v>
+        <v>0.7104050731739403</v>
       </c>
       <c r="DC3">
-        <v>0.7143409699134485</v>
+        <v>0.7144730380496817</v>
       </c>
       <c r="DD3">
-        <v>0.7189121456328075</v>
+        <v>0.7190438049269202</v>
       </c>
       <c r="DE3">
-        <v>0.7314208063648554</v>
+        <v>0.7315577018565895</v>
       </c>
       <c r="DF3">
-        <v>0.7599436556137341</v>
+        <v>0.7600971763930173</v>
       </c>
       <c r="DG3">
-        <v>0.7776138575288962</v>
+        <v>0.7777762853291235</v>
       </c>
       <c r="DH3">
-        <v>0.7809630150232793</v>
+        <v>0.7811241648973584</v>
       </c>
       <c r="DI3">
-        <v>0.7815430594876682</v>
+        <v>0.781700962077159</v>
       </c>
       <c r="DJ3">
-        <v>0.7861083107073908</v>
+        <v>0.7862658002413314</v>
       </c>
       <c r="DK3">
-        <v>0.7941853852115099</v>
+        <v>0.794344959254554</v>
       </c>
       <c r="DL3">
-        <v>0.7992151615027138</v>
+        <v>0.7993746528546095</v>
       </c>
       <c r="DM3">
-        <v>0.8038334482191803</v>
+        <v>0.8039925642337057</v>
       </c>
       <c r="DN3">
-        <v>0.8104954422101763</v>
+        <v>0.8106556363463006</v>
       </c>
       <c r="DO3">
-        <v>0.8163922825481479</v>
+        <v>0.8165530106381941</v>
       </c>
       <c r="DP3">
-        <v>0.820612278289067</v>
+        <v>0.8207723477821988</v>
       </c>
       <c r="DQ3">
-        <v>0.8245495490473437</v>
+        <v>0.8247087588731009</v>
       </c>
       <c r="DR3">
-        <v>0.8296477510343465</v>
+        <v>0.8298069268324518</v>
       </c>
       <c r="DS3">
-        <v>0.8334487136009916</v>
+        <v>0.8336069327910469</v>
       </c>
       <c r="DT3">
-        <v>0.833771166651195</v>
+        <v>0.8339259553608804</v>
       </c>
       <c r="DU3">
-        <v>0.8345332138544101</v>
+        <v>0.8346848847175713</v>
       </c>
       <c r="DV3">
-        <v>0.8374640811744736</v>
+        <v>0.8376141766287633</v>
       </c>
       <c r="DW3">
-        <v>0.8427117254523017</v>
+        <v>0.8428618931604214</v>
       </c>
       <c r="DX3">
-        <v>0.8518546478909844</v>
+        <v>0.8520076581258844</v>
       </c>
       <c r="DY3">
-        <v>0.8584946118833329</v>
+        <v>0.8586486845723732</v>
       </c>
       <c r="DZ3">
-        <v>0.8624430036409267</v>
+        <v>0.8625962245717078</v>
       </c>
       <c r="EA3">
-        <v>0.8626376987689737</v>
+        <v>0.8627873983595538</v>
       </c>
       <c r="EB3">
-        <v>0.8626617957114943</v>
+        <v>0.8628078526345845</v>
       </c>
       <c r="EC3">
-        <v>0.8640273445276583</v>
+        <v>0.8641707128069986</v>
       </c>
       <c r="ED3">
-        <v>0.864329643669099</v>
+        <v>0.8644695671348626</v>
       </c>
       <c r="EE3">
-        <v>0.8649766392293776</v>
+        <v>0.8651133630253321</v>
       </c>
       <c r="EF3">
-        <v>0.8677817705571604</v>
+        <v>0.8679168295223836</v>
       </c>
       <c r="EG3">
-        <v>0.8763917300285637</v>
+        <v>0.8765292524839925</v>
       </c>
       <c r="EH3">
-        <v>0.8820437540815654</v>
+        <v>0.8821816363806463</v>
       </c>
       <c r="EI3">
-        <v>0.8823581943822608</v>
+        <v>0.8824926405024048</v>
       </c>
       <c r="EJ3">
-        <v>0.8826353773252436</v>
+        <v>0.8827663607694854</v>
       </c>
       <c r="EK3">
-        <v>0.8836451280632512</v>
+        <v>0.8837731698246147</v>
       </c>
       <c r="EL3">
-        <v>0.8854684450513112</v>
+        <v>0.8855941237279046</v>
       </c>
       <c r="EM3">
-        <v>0.8882453178808288</v>
+        <v>0.8883693116296015</v>
       </c>
       <c r="EN3">
-        <v>0.8890659066704499</v>
+        <v>0.88918682420674</v>
       </c>
       <c r="EO3">
-        <v>0.8890949549166666</v>
+        <v>0.8892122333067718</v>
       </c>
       <c r="EP3">
-        <v>0.8890949568770632</v>
+        <v>0.8892122333067718</v>
       </c>
       <c r="EQ3">
-        <v>0.8895845811470033</v>
+        <v>0.889698545986416</v>
       </c>
       <c r="ER3">
-        <v>0.8908840163672263</v>
+        <v>0.8909952455437292</v>
       </c>
       <c r="ES3">
-        <v>0.8925761037633428</v>
+        <v>0.8926848765262366</v>
       </c>
       <c r="ET3">
-        <v>0.8940866126706072</v>
+        <v>0.8941927998835489</v>
       </c>
       <c r="EU3">
-        <v>0.8964959119226915</v>
+        <v>0.8966001527940965</v>
       </c>
       <c r="EV3">
-        <v>0.8983789107070874</v>
+        <v>0.898480830938667</v>
       </c>
       <c r="EW3">
-        <v>0.8988179581801327</v>
+        <v>0.898916530851833</v>
       </c>
       <c r="EX3">
-        <v>0.8988191334536605</v>
+        <v>0.898916530851833</v>
       </c>
       <c r="EY3">
-        <v>0.8988222923068666</v>
+        <v>0.898916530851833</v>
       </c>
       <c r="EZ3">
-        <v>0.8988251412086917</v>
+        <v>0.898916530851833</v>
       </c>
       <c r="FA3">
-        <v>0.8989375000017936</v>
+        <v>0.8990253097481656</v>
       </c>
       <c r="FB3">
-        <v>0.899198905285745</v>
+        <v>0.8992832411353419</v>
       </c>
       <c r="FC3">
-        <v>0.8992012161584031</v>
+        <v>0.8992832411353419</v>
       </c>
       <c r="FD3">
-        <v>0.9021224062790606</v>
+        <v>0.9022028489648252</v>
       </c>
       <c r="FE3">
-        <v>0.9090199248555969</v>
+        <v>0.9091016131650902</v>
       </c>
       <c r="FF3">
-        <v>0.9161062934205391</v>
+        <v>0.9161893616615031</v>
       </c>
       <c r="FG3">
-        <v>0.9280952596844929</v>
+        <v>0.9281831945228937</v>
       </c>
       <c r="FH3">
-        <v>0.9346227292837479</v>
+        <v>0.9347116465716881</v>
       </c>
       <c r="FI3">
-        <v>0.9381874850648946</v>
+        <v>0.938275277757483</v>
       </c>
       <c r="FJ3">
-        <v>0.9389354004189774</v>
+        <v>0.9390200652146478</v>
       </c>
       <c r="FK3">
-        <v>0.939289514067237</v>
+        <v>0.9393707708991577</v>
       </c>
       <c r="FL3">
-        <v>0.941543348128866</v>
+        <v>0.9416225480543572</v>
       </c>
       <c r="FM3">
-        <v>0.943716178695468</v>
+        <v>0.9437932641058605</v>
       </c>
       <c r="FN3">
-        <v>0.9442293351639635</v>
+        <v>0.9443031257198643</v>
       </c>
       <c r="FO3">
-        <v>0.944919153321613</v>
+        <v>0.9449897746625987</v>
       </c>
       <c r="FP3">
-        <v>0.9477279337491717</v>
+        <v>0.94779689285462</v>
       </c>
       <c r="FQ3">
-        <v>0.9500405349071928</v>
+        <v>0.9501074789006331</v>
       </c>
       <c r="FR3">
-        <v>0.9520931201811771</v>
+        <v>0.9521578641425754</v>
       </c>
       <c r="FS3">
-        <v>0.9540873655587431</v>
+        <v>0.9541498679974972</v>
       </c>
       <c r="FT3">
-        <v>0.9555952683661675</v>
+        <v>0.9556551834015441</v>
       </c>
       <c r="FU3">
-        <v>0.9559985289414098</v>
+        <v>0.9560550709657144</v>
       </c>
       <c r="FV3">
-        <v>0.9561263170435644</v>
+        <v>0.9561792901442308</v>
       </c>
       <c r="FW3">
-        <v>0.9563605970691811</v>
+        <v>0.9564100769819289</v>
       </c>
       <c r="FX3">
-        <v>0.9569097834054645</v>
+        <v>0.9569559940877105</v>
       </c>
       <c r="FY3">
-        <v>0.9582277598245491</v>
+        <v>0.9582712480301534</v>
       </c>
       <c r="FZ3">
-        <v>0.9593982970526855</v>
+        <v>0.9594389579247457</v>
       </c>
       <c r="GA3">
-        <v>0.9605811074800685</v>
+        <v>0.9606189497471297</v>
       </c>
       <c r="GB3">
-        <v>0.9637377031862736</v>
+        <v>0.9637741305796592</v>
       </c>
       <c r="GC3">
-        <v>0.9684336953979696</v>
+        <v>0.968469802717158</v>
       </c>
       <c r="GD3">
-        <v>0.971161203230518</v>
+        <v>0.9711955905141192</v>
       </c>
       <c r="GE3">
-        <v>0.9726122714414317</v>
+        <v>0.9726440309016035</v>
       </c>
       <c r="GF3">
-        <v>0.9727164871850336</v>
+        <v>0.9727446609572014</v>
       </c>
       <c r="GG3">
-        <v>0.9740986128001798</v>
+        <v>0.9741241097178093</v>
       </c>
       <c r="GH3">
-        <v>0.9761990906712239</v>
+        <v>0.9762224216174255</v>
       </c>
       <c r="GI3">
-        <v>0.9802679358214227</v>
+        <v>0.9802905006743063</v>
       </c>
       <c r="GJ3">
-        <v>0.9862388470548468</v>
+        <v>0.9862619985399438</v>
       </c>
       <c r="GK3">
-        <v>0.990698947381025</v>
+        <v>0.9907216110285758</v>
       </c>
       <c r="GL3">
-        <v>0.9924956264707204</v>
+        <v>0.9925159080889621</v>
       </c>
       <c r="GM3">
-        <v>0.9933368416690752</v>
+        <v>0.9933540617440773</v>
       </c>
       <c r="GN3">
-        <v>0.9940196299271563</v>
+        <v>0.9940336757876669</v>
       </c>
       <c r="GO3">
-        <v>0.9943497576068886</v>
+        <v>0.9943603784451295</v>
       </c>
       <c r="GP3">
-        <v>0.994644683928782</v>
+        <v>0.9946518547099893</v>
       </c>
       <c r="GQ3">
-        <v>0.9962033007330929</v>
+        <v>0.9962079201780809</v>
       </c>
       <c r="GR3">
-        <v>0.9977207006399342</v>
+        <v>0.9977227394357626</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001448652234568836</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003232438454000701</v>
+        <v>3.42387569771985E-05</v>
       </c>
       <c r="D4">
-        <v>0.0004551146794438703</v>
+        <v>3.42387569771985E-05</v>
       </c>
       <c r="E4">
-        <v>0.0006725979596208197</v>
+        <v>0.0001084285469864371</v>
       </c>
       <c r="F4">
-        <v>0.0006867265844826732</v>
+        <v>0.0001084285469864371</v>
       </c>
       <c r="G4">
-        <v>0.0007007968138471643</v>
+        <v>0.0001084285469864371</v>
       </c>
       <c r="H4">
-        <v>0.0007568293173163485</v>
+        <v>0.0001084285469864371</v>
       </c>
       <c r="I4">
-        <v>0.0008648063524393581</v>
+        <v>0.0001084285469864371</v>
       </c>
       <c r="J4">
-        <v>0.001126006940641731</v>
+        <v>0.0002272818552536516</v>
       </c>
       <c r="K4">
-        <v>0.001501769183669707</v>
+        <v>0.0004631763719820917</v>
       </c>
       <c r="L4">
-        <v>0.001807373769866488</v>
+        <v>0.0006273947510811381</v>
       </c>
       <c r="M4">
-        <v>0.002041220059304371</v>
+        <v>0.0007183017086354622</v>
       </c>
       <c r="N4">
-        <v>0.00261178008353393</v>
+        <v>0.001153210177738336</v>
       </c>
       <c r="O4">
-        <v>0.003030345964628597</v>
+        <v>0.00143283476744354</v>
       </c>
       <c r="P4">
-        <v>0.003307321282118474</v>
+        <v>0.001567804230647315</v>
       </c>
       <c r="Q4">
-        <v>0.00351503088273687</v>
+        <v>0.001632008801183361</v>
       </c>
       <c r="R4">
-        <v>0.003892381435693107</v>
+        <v>0.001869526004959204</v>
       </c>
       <c r="S4">
-        <v>0.004003787390661243</v>
+        <v>0.001869526004959204</v>
       </c>
       <c r="T4">
-        <v>0.004027071161609587</v>
+        <v>0.001869526004959204</v>
       </c>
       <c r="U4">
-        <v>0.004057327731242991</v>
+        <v>0.001869526004959204</v>
       </c>
       <c r="V4">
-        <v>0.004064061153638863</v>
+        <v>0.001869526004959204</v>
       </c>
       <c r="W4">
-        <v>0.004070059680667927</v>
+        <v>0.001869526004959204</v>
       </c>
       <c r="X4">
-        <v>0.004239001123037362</v>
+        <v>0.001894123325598398</v>
       </c>
       <c r="Y4">
-        <v>0.00451521416056167</v>
+        <v>0.002028314010174264</v>
       </c>
       <c r="Z4">
-        <v>0.005023429337607154</v>
+        <v>0.002399528250463293</v>
       </c>
       <c r="AA4">
-        <v>0.005609618511130793</v>
+        <v>0.002850404143599842</v>
       </c>
       <c r="AB4">
-        <v>0.006062241440687208</v>
+        <v>0.003164822906928441</v>
       </c>
       <c r="AC4">
-        <v>0.006623920815317879</v>
+        <v>0.003590658515111517</v>
       </c>
       <c r="AD4">
-        <v>0.007036546396680852</v>
+        <v>0.00386421423421357</v>
       </c>
       <c r="AE4">
-        <v>0.007252824266912246</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AF4">
-        <v>0.00732362112371457</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AG4">
-        <v>0.007324654995867872</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AH4">
-        <v>0.00732622279249706</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AI4">
-        <v>0.007329907704430623</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AJ4">
-        <v>0.007379115720208049</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AK4">
-        <v>0.007447056317139381</v>
+        <v>0.00393717252458243</v>
       </c>
       <c r="AL4">
-        <v>0.007621694179251526</v>
+        <v>0.003967589557337376</v>
       </c>
       <c r="AM4">
-        <v>0.00783985394939792</v>
+        <v>0.004042470479153817</v>
       </c>
       <c r="AN4">
-        <v>0.008033933920631925</v>
+        <v>0.004092750422846297</v>
       </c>
       <c r="AO4">
-        <v>0.008222635322108863</v>
+        <v>0.004137535383901539</v>
       </c>
       <c r="AP4">
-        <v>0.008349672986370963</v>
+        <v>0.004137535383901539</v>
       </c>
       <c r="AQ4">
-        <v>0.008507947409222194</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AR4">
-        <v>0.008508530289595867</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AS4">
-        <v>0.008508663107549868</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AT4">
-        <v>0.008513851075315543</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AU4">
-        <v>0.008517144731166779</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AV4">
-        <v>0.008526906984725849</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AW4">
-        <v>0.008529633251402711</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AX4">
-        <v>0.008542338270828865</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AY4">
-        <v>0.008551165051430186</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="AZ4">
-        <v>0.008555008760956577</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BA4">
-        <v>0.008578689163887005</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BB4">
-        <v>0.008578888341368008</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BC4">
-        <v>0.008589168775903672</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BD4">
-        <v>0.00859346645010956</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BE4">
-        <v>0.008599033982858093</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BF4">
-        <v>0.008613162607719946</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BG4">
-        <v>0.008625290824172151</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BH4">
-        <v>0.008627295368081612</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BI4">
-        <v>0.008642540498393036</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BJ4">
-        <v>0.008681285771643031</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BK4">
-        <v>0.008724617302685879</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BL4">
-        <v>0.008745010917764761</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BM4">
-        <v>0.008855073212793586</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BN4">
-        <v>0.008988830606752176</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BO4">
-        <v>0.009034344127696471</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BP4">
-        <v>0.009048782091044353</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BQ4">
-        <v>0.009054982761764287</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BR4">
-        <v>0.009061597769465506</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BS4">
-        <v>0.009062208469777924</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BT4">
-        <v>0.009070928574384064</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BU4">
-        <v>0.009111118735568798</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BV4">
-        <v>0.009180415367438882</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BW4">
-        <v>0.009229050882242166</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BX4">
-        <v>0.009230809667862726</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BY4">
-        <v>0.009242883785317376</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="BZ4">
-        <v>0.009329688491396674</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="CA4">
-        <v>0.009329887668877677</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="CB4">
-        <v>0.009357692741621808</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="CC4">
-        <v>0.009360921360775981</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="CD4">
-        <v>0.009486120635121116</v>
+        <v>0.00415123480980457</v>
       </c>
       <c r="CE4">
-        <v>0.009742384073546485</v>
+        <v>0.004265044109436135</v>
       </c>
       <c r="CF4">
-        <v>0.009912989235840775</v>
+        <v>0.004291341159280903</v>
       </c>
       <c r="CG4">
-        <v>0.01004538694986078</v>
+        <v>0.004291341159280903</v>
       </c>
       <c r="CH4">
-        <v>0.01021921450200952</v>
+        <v>0.004320930343856728</v>
       </c>
       <c r="CI4">
-        <v>0.01047156213061176</v>
+        <v>0.004430739080520677</v>
       </c>
       <c r="CJ4">
-        <v>0.01064837003262589</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="CK4">
-        <v>0.01065827602567846</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="CL4">
-        <v>0.01065828571334403</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="CM4">
-        <v>0.01080612149666674</v>
+        <v>0.00446640797534026</v>
       </c>
       <c r="CN4">
-        <v>0.1144281468163787</v>
+        <v>0.1101832107243765</v>
       </c>
       <c r="CO4">
-        <v>0.1147294738327687</v>
+        <v>0.1103430589506506</v>
       </c>
       <c r="CP4">
-        <v>0.1656932685308909</v>
+        <v>0.1622619049857847</v>
       </c>
       <c r="CQ4">
-        <v>0.2100753545262886</v>
+        <v>0.2074565888963464</v>
       </c>
       <c r="CR4">
-        <v>0.2144447093289383</v>
+        <v>0.2117725126339466</v>
       </c>
       <c r="CS4">
-        <v>0.2170370731118492</v>
+        <v>0.2142729844501201</v>
       </c>
       <c r="CT4">
-        <v>0.2200530807756254</v>
+        <v>0.2172062694257155</v>
       </c>
       <c r="CU4">
-        <v>0.2217142915005937</v>
+        <v>0.21875543446014</v>
       </c>
       <c r="CV4">
-        <v>0.2262127592974117</v>
+        <v>0.2232032656923423</v>
       </c>
       <c r="CW4">
-        <v>0.2470609983557609</v>
+        <v>0.2443547399491438</v>
       </c>
       <c r="CX4">
-        <v>0.2493856050507656</v>
+        <v>0.2465816593869903</v>
       </c>
       <c r="CY4">
-        <v>0.2509488552801584</v>
+        <v>0.2480307436849672</v>
       </c>
       <c r="CZ4">
-        <v>0.3102862676000701</v>
+        <v>0.3085044445459886</v>
       </c>
       <c r="DA4">
-        <v>0.3790852984926295</v>
+        <v>0.3786445496975875</v>
       </c>
       <c r="DB4">
-        <v>0.3791316775145347</v>
+        <v>0.3786445496975875</v>
       </c>
       <c r="DC4">
-        <v>0.3906258329953791</v>
+        <v>0.3902394821287223</v>
       </c>
       <c r="DD4">
-        <v>0.3911679192708947</v>
+        <v>0.390645300567972</v>
       </c>
       <c r="DE4">
-        <v>0.3932015739790408</v>
+        <v>0.3925749707019572</v>
       </c>
       <c r="DF4">
-        <v>0.4270302444511038</v>
+        <v>0.4269878226974259</v>
       </c>
       <c r="DG4">
-        <v>0.4402122048557152</v>
+        <v>0.4403070906248069</v>
       </c>
       <c r="DH4">
-        <v>0.4402408798364201</v>
+        <v>0.4403070906248069</v>
       </c>
       <c r="DI4">
-        <v>0.4408938926069255</v>
+        <v>0.4408262364338799</v>
       </c>
       <c r="DJ4">
-        <v>0.4435011141891653</v>
+        <v>0.4433418876291499</v>
       </c>
       <c r="DK4">
-        <v>0.4436547277922271</v>
+        <v>0.4433508253572456</v>
       </c>
       <c r="DL4">
-        <v>0.4473527626251982</v>
+        <v>0.4469808991860352</v>
       </c>
       <c r="DM4">
-        <v>0.4601360400478169</v>
+        <v>0.4598928551024613</v>
       </c>
       <c r="DN4">
-        <v>0.4652326751176176</v>
+        <v>0.4649518002418292</v>
       </c>
       <c r="DO4">
-        <v>0.4654336571285399</v>
+        <v>0.4650091316118231</v>
       </c>
       <c r="DP4">
-        <v>0.4678388648199041</v>
+        <v>0.4673183965607523</v>
       </c>
       <c r="DQ4">
-        <v>0.4678600044009493</v>
+        <v>0.4673183965607523</v>
       </c>
       <c r="DR4">
-        <v>0.468959842551273</v>
+        <v>0.468294038764755</v>
       </c>
       <c r="DS4">
-        <v>0.4722454372028728</v>
+        <v>0.4715027456246478</v>
       </c>
       <c r="DT4">
-        <v>0.4740166328228733</v>
+        <v>0.4731642760491032</v>
       </c>
       <c r="DU4">
-        <v>0.4748387294857417</v>
+        <v>0.4738561653745265</v>
       </c>
       <c r="DV4">
-        <v>0.4790429777958488</v>
+        <v>0.4780034090817849</v>
       </c>
       <c r="DW4">
-        <v>0.4930352491638609</v>
+        <v>0.4921505262099319</v>
       </c>
       <c r="DX4">
-        <v>0.4971170094795004</v>
+        <v>0.4961726308126942</v>
       </c>
       <c r="DY4">
-        <v>0.4988744529001221</v>
+        <v>0.4978201113874267</v>
       </c>
       <c r="DZ4">
-        <v>0.5027957127230108</v>
+        <v>0.5016782416511419</v>
       </c>
       <c r="EA4">
-        <v>0.5055156751001585</v>
+        <v>0.5043090737845625</v>
       </c>
       <c r="EB4">
-        <v>0.5055278033166107</v>
+        <v>0.5043090737845625</v>
       </c>
       <c r="EC4">
-        <v>0.5149109938928009</v>
+        <v>0.5137473519334588</v>
       </c>
       <c r="ED4">
-        <v>0.5220421155707101</v>
+        <v>0.5208848177748338</v>
       </c>
       <c r="EE4">
-        <v>0.5231783805193885</v>
+        <v>0.5218976751928301</v>
       </c>
       <c r="EF4">
-        <v>0.5293312368414829</v>
+        <v>0.5280357022637491</v>
       </c>
       <c r="EG4">
-        <v>0.5380545034474797</v>
+        <v>0.5367997731564607</v>
       </c>
       <c r="EH4">
-        <v>0.5424767688477397</v>
+        <v>0.541169752679953</v>
       </c>
       <c r="EI4">
-        <v>0.5438323979865101</v>
+        <v>0.5424067221705323</v>
       </c>
       <c r="EJ4">
-        <v>0.5443598155626882</v>
+        <v>0.5427975544235261</v>
       </c>
       <c r="EK4">
-        <v>0.5454510116134023</v>
+        <v>0.543764367479735</v>
       </c>
       <c r="EL4">
-        <v>0.5454600217199953</v>
+        <v>0.543764367479735</v>
       </c>
       <c r="EM4">
-        <v>0.5464099446770903</v>
+        <v>0.5445868497506964</v>
       </c>
       <c r="EN4">
-        <v>0.5474654495294163</v>
+        <v>0.5455171991140831</v>
       </c>
       <c r="EO4">
-        <v>0.5500986054104848</v>
+        <v>0.5480593459258849</v>
       </c>
       <c r="EP4">
-        <v>0.552622661796481</v>
+        <v>0.550490031911067</v>
       </c>
       <c r="EQ4">
-        <v>0.5533283378046078</v>
+        <v>0.5510629807922243</v>
       </c>
       <c r="ER4">
-        <v>0.5535365667852027</v>
+        <v>0.5511277159841117</v>
       </c>
       <c r="ES4">
-        <v>0.5539146172681273</v>
+        <v>0.5513659482670251</v>
       </c>
       <c r="ET4">
-        <v>0.555783578983712</v>
+        <v>0.5531273608203755</v>
       </c>
       <c r="EU4">
-        <v>0.5627904156672348</v>
+        <v>0.5601378516633645</v>
       </c>
       <c r="EV4">
-        <v>0.5755847070893559</v>
+        <v>0.5730610599644888</v>
       </c>
       <c r="EW4">
-        <v>0.5935089792797718</v>
+        <v>0.5912252814948481</v>
       </c>
       <c r="EX4">
-        <v>0.6012464879302923</v>
+        <v>0.5989822588488459</v>
       </c>
       <c r="EY4">
-        <v>0.601251389138371</v>
+        <v>0.5989822588488459</v>
       </c>
       <c r="EZ4">
-        <v>0.6138801255679698</v>
+        <v>0.6117363289123888</v>
       </c>
       <c r="FA4">
-        <v>0.6634355963297016</v>
+        <v>0.6622163694792279</v>
       </c>
       <c r="FB4">
-        <v>0.722207313675164</v>
+        <v>0.7221121315567115</v>
       </c>
       <c r="FC4">
-        <v>0.7715852914449127</v>
+        <v>0.7724108375024094</v>
       </c>
       <c r="FD4">
-        <v>0.7962686133300431</v>
+        <v>0.7974804004886261</v>
       </c>
       <c r="FE4">
-        <v>0.7978466557587678</v>
+        <v>0.798944597145867</v>
       </c>
       <c r="FF4">
-        <v>0.7989945104069227</v>
+        <v>0.7999692951088913</v>
       </c>
       <c r="FG4">
-        <v>0.8032867842130539</v>
+        <v>0.8042064695215481</v>
       </c>
       <c r="FH4">
-        <v>0.8105563968847078</v>
+        <v>0.8114854238329837</v>
       </c>
       <c r="FI4">
-        <v>0.8176905595624796</v>
+        <v>0.8186259964931228</v>
       </c>
       <c r="FJ4">
-        <v>0.819724915470594</v>
+        <v>0.8205563830037332</v>
       </c>
       <c r="FK4">
-        <v>0.8253545115163224</v>
+        <v>0.8261598244388314</v>
       </c>
       <c r="FL4">
-        <v>0.8364954955131185</v>
+        <v>0.8373939414003398</v>
       </c>
       <c r="FM4">
-        <v>0.8678015740991193</v>
+        <v>0.869229602945403</v>
       </c>
       <c r="FN4">
-        <v>0.8967218927928775</v>
+        <v>0.8986278676030741</v>
       </c>
       <c r="FO4">
-        <v>0.908193594274736</v>
+        <v>0.910199860044558</v>
       </c>
       <c r="FP4">
-        <v>0.9091116248332713</v>
+        <v>0.910989759643125</v>
       </c>
       <c r="FQ4">
-        <v>0.9101819668849273</v>
+        <v>0.9119352673397463</v>
       </c>
       <c r="FR4">
-        <v>0.9158042576309857</v>
+        <v>0.9175312453604686</v>
       </c>
       <c r="FS4">
-        <v>0.9223566476350344</v>
+        <v>0.9240774535547144</v>
       </c>
       <c r="FT4">
-        <v>0.9271511204184829</v>
+        <v>0.9288276964568468</v>
       </c>
       <c r="FU4">
-        <v>0.9317395728112366</v>
+        <v>0.9333674598967956</v>
       </c>
       <c r="FV4">
-        <v>0.9343593474929095</v>
+        <v>0.9358959358887204</v>
       </c>
       <c r="FW4">
-        <v>0.9380673441254307</v>
+        <v>0.939536187128613</v>
       </c>
       <c r="FX4">
-        <v>0.9435402753782353</v>
+        <v>0.9449795729437478</v>
       </c>
       <c r="FY4">
-        <v>0.9495940181048064</v>
+        <v>0.9510163412207654</v>
       </c>
       <c r="FZ4">
-        <v>0.9560753768120633</v>
+        <v>0.9574899807285014</v>
       </c>
       <c r="GA4">
-        <v>0.9601053236300431</v>
+        <v>0.9614591503907731</v>
       </c>
       <c r="GB4">
-        <v>0.9601053552505187</v>
+        <v>0.9614591503907731</v>
       </c>
       <c r="GC4">
-        <v>0.9606955146238629</v>
+        <v>0.961914082414083</v>
       </c>
       <c r="GD4">
-        <v>0.9633899245021648</v>
+        <v>0.9645188089945708</v>
       </c>
       <c r="GE4">
-        <v>0.9678829042992307</v>
+        <v>0.9689610334456559</v>
       </c>
       <c r="GF4">
-        <v>0.971596833731484</v>
+        <v>0.9726073458938231</v>
       </c>
       <c r="GG4">
-        <v>0.9744126059043042</v>
+        <v>0.9753360615143931</v>
       </c>
       <c r="GH4">
-        <v>0.9744197708145806</v>
+        <v>0.9753360615143931</v>
       </c>
       <c r="GI4">
-        <v>0.9750997241838693</v>
+        <v>0.9758827310201432</v>
       </c>
       <c r="GJ4">
-        <v>0.9772276485877575</v>
+        <v>0.9779087112076775</v>
       </c>
       <c r="GK4">
-        <v>0.9793226632931321</v>
+        <v>0.9799010694045903</v>
       </c>
       <c r="GL4">
-        <v>0.9793232117039073</v>
+        <v>0.9799010694045903</v>
       </c>
       <c r="GM4">
-        <v>0.9808208232362648</v>
+        <v>0.9812830943323571</v>
       </c>
       <c r="GN4">
-        <v>0.9880156074112986</v>
+        <v>0.9884856005714853</v>
       </c>
       <c r="GO4">
-        <v>0.9955510558709455</v>
+        <v>0.9960361443770349</v>
       </c>
       <c r="GP4">
-        <v>0.9983246397456712</v>
+        <v>0.9987217585829177</v>
       </c>
       <c r="GQ4">
-        <v>0.9984591080695977</v>
+        <v>0.9987217585829177</v>
       </c>
       <c r="GR4">
-        <v>0.9988226743531765</v>
+        <v>0.9989451931728544</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.207409091525745E-05</v>
+        <v>2.919331536163359E-05</v>
       </c>
       <c r="C5">
-        <v>3.308756824417776E-05</v>
+        <v>2.919331536163359E-05</v>
       </c>
       <c r="D5">
-        <v>3.309099496847555E-05</v>
+        <v>2.919331536163359E-05</v>
       </c>
       <c r="E5">
-        <v>3.598804905114509E-05</v>
+        <v>2.919331536163359E-05</v>
       </c>
       <c r="F5">
-        <v>4.83649244043282E-05</v>
+        <v>3.86784256389365E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001119154162177876</v>
+        <v>9.936570329505825E-05</v>
       </c>
       <c r="H5">
-        <v>0.0002332553346803102</v>
+        <v>0.0002178746496289879</v>
       </c>
       <c r="I5">
-        <v>0.0002908078263226123</v>
+        <v>0.0002725605806939384</v>
       </c>
       <c r="J5">
-        <v>0.0003151957950185407</v>
+        <v>0.0002940634855747408</v>
       </c>
       <c r="K5">
-        <v>0.0003852112270164818</v>
+        <v>0.0003612193103517572</v>
       </c>
       <c r="L5">
-        <v>0.0004084115786785207</v>
+        <v>0.0003815339356002543</v>
       </c>
       <c r="M5">
-        <v>0.0004192010764864068</v>
+        <v>0.0003894307826984097</v>
       </c>
       <c r="N5">
-        <v>0.0004294639677792659</v>
+        <v>0.0003968007294758476</v>
       </c>
       <c r="O5">
-        <v>0.0004399885150795915</v>
+        <v>0.0004044324782445591</v>
       </c>
       <c r="P5">
-        <v>0.0005336185877513936</v>
+        <v>0.0004952161188378032</v>
       </c>
       <c r="Q5">
-        <v>0.0007053692626524236</v>
+        <v>0.0006641639469119154</v>
       </c>
       <c r="R5">
-        <v>0.0007342562864767359</v>
+        <v>0.000690168417045759</v>
       </c>
       <c r="S5">
-        <v>0.0007528273030066733</v>
+        <v>0.0007058511243513353</v>
       </c>
       <c r="T5">
-        <v>0.0007610258032406235</v>
+        <v>0.000711155528299381</v>
       </c>
       <c r="U5">
-        <v>0.0007746804186302679</v>
+        <v>0.0007219190914932233</v>
       </c>
       <c r="V5">
-        <v>0.0008104157396500012</v>
+        <v>0.0007547756796424516</v>
       </c>
       <c r="W5">
-        <v>0.0008165049698237618</v>
+        <v>0.0007579696367208141</v>
       </c>
       <c r="X5">
-        <v>0.0008378855504338721</v>
+        <v>0.0007764634756259364</v>
       </c>
       <c r="Y5">
-        <v>0.0009268628329729034</v>
+        <v>0.0008625917301895149</v>
       </c>
       <c r="Z5">
-        <v>0.000926928351274773</v>
+        <v>0.0008625917301895149</v>
       </c>
       <c r="AA5">
-        <v>0.0009274585197399018</v>
+        <v>0.0008625917301895149</v>
       </c>
       <c r="AB5">
-        <v>0.0009502695843908321</v>
+        <v>0.0008825168512348714</v>
       </c>
       <c r="AC5">
-        <v>0.0009626464597440152</v>
+        <v>0.0008920019615121743</v>
       </c>
       <c r="AD5">
-        <v>0.0009674588405813399</v>
+        <v>0.0008939183568709646</v>
       </c>
       <c r="AE5">
-        <v>0.001103397164460439</v>
+        <v>0.001027033853402174</v>
       </c>
       <c r="AF5">
-        <v>0.001208232647451995</v>
+        <v>0.001129029156067138</v>
       </c>
       <c r="AG5">
-        <v>0.001313900790467312</v>
+        <v>0.001231857583315731</v>
       </c>
       <c r="AH5">
-        <v>0.001479971395206258</v>
+        <v>0.00139512217218809</v>
       </c>
       <c r="AI5">
-        <v>0.001756543153098433</v>
+        <v>0.001668949565307364</v>
       </c>
       <c r="AJ5">
-        <v>0.001940319848342635</v>
+        <v>0.001849930123313513</v>
       </c>
       <c r="AK5">
-        <v>0.002086621122517448</v>
+        <v>0.001993414351864892</v>
       </c>
       <c r="AL5">
-        <v>0.002098050333843589</v>
+        <v>0.002001951269391949</v>
       </c>
       <c r="AM5">
-        <v>0.002098807513265195</v>
+        <v>0.002001951269391949</v>
       </c>
       <c r="AN5">
-        <v>0.002108305198536219</v>
+        <v>0.002008555583221797</v>
       </c>
       <c r="AO5">
-        <v>0.002180372830592721</v>
+        <v>0.002077764753026223</v>
       </c>
       <c r="AP5">
-        <v>0.00231408240440822</v>
+        <v>0.002208650256023743</v>
       </c>
       <c r="AQ5">
-        <v>0.002427725582651111</v>
+        <v>0.002319458167952515</v>
       </c>
       <c r="AR5">
-        <v>0.002486360638324305</v>
+        <v>0.002375227267035326</v>
       </c>
       <c r="AS5">
-        <v>0.002524756417419956</v>
+        <v>0.002410745797590232</v>
       </c>
       <c r="AT5">
-        <v>0.002526570795771731</v>
+        <v>0.002410745797590232</v>
       </c>
       <c r="AU5">
-        <v>0.002536068481042754</v>
+        <v>0.00241735011142008</v>
       </c>
       <c r="AV5">
-        <v>0.002589985915581327</v>
+        <v>0.002468398957300692</v>
       </c>
       <c r="AW5">
-        <v>0.002616314902332644</v>
+        <v>0.002491843963174775</v>
       </c>
       <c r="AX5">
-        <v>0.002639515253994683</v>
+        <v>0.002512158588423272</v>
       </c>
       <c r="AY5">
-        <v>0.002667536426794288</v>
+        <v>0.00253729672445453</v>
       </c>
       <c r="AZ5">
-        <v>0.00271750615122021</v>
+        <v>0.002584395657705693</v>
       </c>
       <c r="BA5">
-        <v>0.002772622098792984</v>
+        <v>0.002636643685298047</v>
       </c>
       <c r="BB5">
-        <v>0.002773040661804927</v>
+        <v>0.002636643685298047</v>
       </c>
       <c r="BC5">
-        <v>0.00280192768562924</v>
+        <v>0.002662648155431891</v>
       </c>
       <c r="BD5">
-        <v>0.002989447690980259</v>
+        <v>0.002847374112022267</v>
       </c>
       <c r="BE5">
-        <v>0.003084457163691423</v>
+        <v>0.002939537922253367</v>
       </c>
       <c r="BF5">
-        <v>0.00309800253007795</v>
+        <v>0.002950192175491601</v>
       </c>
       <c r="BG5">
-        <v>0.003130832565014779</v>
+        <v>0.002980141856633081</v>
       </c>
       <c r="BH5">
-        <v>0.003161378570886431</v>
+        <v>0.003007806234397887</v>
       </c>
       <c r="BI5">
-        <v>0.003168813718098599</v>
+        <v>0.003012346859432226</v>
       </c>
       <c r="BJ5">
-        <v>0.003178402921372234</v>
+        <v>0.003019042742324651</v>
       </c>
       <c r="BK5">
-        <v>0.003228008986787779</v>
+        <v>0.003065777813671846</v>
       </c>
       <c r="BL5">
-        <v>0.003309396209110222</v>
+        <v>0.0031443117733525</v>
       </c>
       <c r="BM5">
-        <v>0.003370775424861723</v>
+        <v>0.003202826563542617</v>
       </c>
       <c r="BN5">
-        <v>0.003406510745881456</v>
+        <v>0.003235683151691846</v>
       </c>
       <c r="BO5">
-        <v>0.00344610512701131</v>
+        <v>0.003272400953008151</v>
       </c>
       <c r="BP5">
-        <v>0.003528226199354694</v>
+        <v>0.003351669172141277</v>
       </c>
       <c r="BQ5">
-        <v>0.003667018233315226</v>
+        <v>0.003487639970903345</v>
       </c>
       <c r="BR5">
-        <v>0.003914373000373674</v>
+        <v>0.003732234072368604</v>
       </c>
       <c r="BS5">
-        <v>0.004156648207287172</v>
+        <v>0.003971745779687372</v>
       </c>
       <c r="BT5">
-        <v>0.004342632032594356</v>
+        <v>0.004154934699164307</v>
       </c>
       <c r="BU5">
-        <v>0.004411037110546344</v>
+        <v>0.00422047927144241</v>
       </c>
       <c r="BV5">
-        <v>0.004460073184945624</v>
+        <v>0.004266644033762455</v>
       </c>
       <c r="BW5">
-        <v>0.004489558710787015</v>
+        <v>0.004293247339831195</v>
       </c>
       <c r="BX5">
-        <v>0.004512220781433693</v>
+        <v>0.004313023383745174</v>
       </c>
       <c r="BY5">
-        <v>0.004582236213431634</v>
+        <v>0.004380179208522191</v>
       </c>
       <c r="BZ5">
-        <v>0.004929482493340559</v>
+        <v>0.004724720554573218</v>
       </c>
       <c r="CA5">
-        <v>0.005455083908338976</v>
+        <v>0.005247716544079295</v>
       </c>
       <c r="CB5">
-        <v>0.005706778465521263</v>
+        <v>0.0054966528569355</v>
       </c>
       <c r="CC5">
-        <v>0.006100879526767223</v>
+        <v>0.005888075125666267</v>
       </c>
       <c r="CD5">
-        <v>0.006701554083907907</v>
+        <v>0.006486186142319312</v>
       </c>
       <c r="CE5">
-        <v>0.007017044562910657</v>
+        <v>0.006798953970184292</v>
       </c>
       <c r="CF5">
-        <v>0.00719713751804974</v>
+        <v>0.006976248732843365</v>
       </c>
       <c r="CG5">
-        <v>0.007412875784205988</v>
+        <v>0.007189208693845176</v>
       </c>
       <c r="CH5">
-        <v>0.007459047862523541</v>
+        <v>0.007232507862195276</v>
       </c>
       <c r="CI5">
-        <v>0.007494123989524464</v>
+        <v>0.007264704888546435</v>
       </c>
       <c r="CJ5">
-        <v>0.007516935054175395</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="CK5">
-        <v>0.007517414212289068</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="CL5">
-        <v>0.007517649088195771</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="CM5">
-        <v>0.008267856859603493</v>
+        <v>0.008032357668475643</v>
       </c>
       <c r="CN5">
-        <v>0.09756814940785212</v>
+        <v>0.09737957420014436</v>
       </c>
       <c r="CO5">
-        <v>0.09773990008275316</v>
+        <v>0.09754852202821847</v>
       </c>
       <c r="CP5">
-        <v>0.142638106363956</v>
+        <v>0.1424688793642149</v>
       </c>
       <c r="CQ5">
-        <v>0.166942970057513</v>
+        <v>0.1667844046207646</v>
       </c>
       <c r="CR5">
-        <v>0.1672599037665569</v>
+        <v>0.1670986164838814</v>
       </c>
       <c r="CS5">
-        <v>0.170240417551608</v>
+        <v>0.1700778944945995</v>
       </c>
       <c r="CT5">
-        <v>0.1764876662298778</v>
+        <v>0.1763257299838503</v>
       </c>
       <c r="CU5">
-        <v>0.1803499968400922</v>
+        <v>0.1801873168052915</v>
       </c>
       <c r="CV5">
-        <v>0.1804019158045737</v>
+        <v>0.1802363660661234</v>
       </c>
       <c r="CW5">
-        <v>0.2137287867555802</v>
+        <v>0.2135789321621149</v>
       </c>
       <c r="CX5">
-        <v>0.2280365791638634</v>
+        <v>0.2278918085411144</v>
       </c>
       <c r="CY5">
-        <v>0.232428464289189</v>
+        <v>0.2322832453281131</v>
       </c>
       <c r="CZ5">
-        <v>0.2475708567212882</v>
+        <v>0.2474311873731665</v>
       </c>
       <c r="DA5">
-        <v>0.3007727122394417</v>
+        <v>0.3006598267399118</v>
       </c>
       <c r="DB5">
-        <v>0.3174659927157966</v>
+        <v>0.3173595221047532</v>
       </c>
       <c r="DC5">
-        <v>0.3359027662419033</v>
+        <v>0.3358036832535693</v>
       </c>
       <c r="DD5">
-        <v>0.3701791672200053</v>
+        <v>0.3700963091409437</v>
       </c>
       <c r="DE5">
-        <v>0.3702704560726103</v>
+        <v>0.3701847502552505</v>
       </c>
       <c r="DF5">
-        <v>0.3716437791117991</v>
+        <v>0.3715559408320227</v>
       </c>
       <c r="DG5">
-        <v>0.4019654669770504</v>
+        <v>0.4018916471826165</v>
       </c>
       <c r="DH5">
-        <v>0.4197631834849212</v>
+        <v>0.4196963947688261</v>
       </c>
       <c r="DI5">
-        <v>0.4204948669558003</v>
+        <v>0.4204255877920549</v>
       </c>
       <c r="DJ5">
-        <v>0.4240525635573217</v>
+        <v>0.4239823706425966</v>
       </c>
       <c r="DK5">
-        <v>0.4279060719672844</v>
+        <v>0.4278351303416809</v>
       </c>
       <c r="DL5">
-        <v>0.4515886366430836</v>
+        <v>0.4515280093857699</v>
       </c>
       <c r="DM5">
-        <v>0.4528695759796361</v>
+        <v>0.4528067647169478</v>
       </c>
       <c r="DN5">
-        <v>0.452871430481489</v>
+        <v>0.4528067647169478</v>
       </c>
       <c r="DO5">
-        <v>0.4622404647488412</v>
+        <v>0.4621781275100987</v>
       </c>
       <c r="DP5">
-        <v>0.4627022863820197</v>
+        <v>0.4626373081336013</v>
       </c>
       <c r="DQ5">
-        <v>0.4661709876810016</v>
+        <v>0.4661050460291105</v>
       </c>
       <c r="DR5">
-        <v>0.4668200718595237</v>
+        <v>0.4667515936759681</v>
       </c>
       <c r="DS5">
-        <v>0.4669569581234298</v>
+        <v>0.4668856576414036</v>
       </c>
       <c r="DT5">
-        <v>0.4680779861554191</v>
+        <v>0.4680044124498831</v>
       </c>
       <c r="DU5">
-        <v>0.4721362546712248</v>
+        <v>0.4720620464951066</v>
       </c>
       <c r="DV5">
-        <v>0.4760408933826465</v>
+        <v>0.475965965022402</v>
       </c>
       <c r="DW5">
-        <v>0.4892936977608249</v>
+        <v>0.4892232647696031</v>
       </c>
       <c r="DX5">
-        <v>0.4944490059079353</v>
+        <v>0.4943785505093647</v>
       </c>
       <c r="DY5">
-        <v>0.5000840990687369</v>
+        <v>0.5000138889457326</v>
       </c>
       <c r="DZ5">
-        <v>0.5033468229618411</v>
+        <v>0.5032755345159087</v>
       </c>
       <c r="EA5">
-        <v>0.5043348192900343</v>
+        <v>0.5042611833991943</v>
       </c>
       <c r="EB5">
-        <v>0.5046154551680425</v>
+        <v>0.5045390771798942</v>
       </c>
       <c r="EC5">
-        <v>0.5096211373108833</v>
+        <v>0.5095446534356527</v>
       </c>
       <c r="ED5">
-        <v>0.5163904580040508</v>
+        <v>0.5163148522155915</v>
       </c>
       <c r="EE5">
-        <v>0.5177698030434115</v>
+        <v>0.5176920681523457</v>
       </c>
       <c r="EF5">
-        <v>0.5201183362104286</v>
+        <v>0.5200390129487429</v>
       </c>
       <c r="EG5">
-        <v>0.5269328069048844</v>
+        <v>0.5268543869201774</v>
       </c>
       <c r="EH5">
-        <v>0.5357238081557421</v>
+        <v>0.5356473941991345</v>
       </c>
       <c r="EI5">
-        <v>0.5368918831890739</v>
+        <v>0.5368132222575431</v>
       </c>
       <c r="EJ5">
-        <v>0.5369472192746529</v>
+        <v>0.5368656905459618</v>
       </c>
       <c r="EK5">
-        <v>0.5373932795473816</v>
+        <v>0.537309101015395</v>
       </c>
       <c r="EL5">
-        <v>0.5379063961020237</v>
+        <v>0.5378196051789587</v>
       </c>
       <c r="EM5">
-        <v>0.5379721424438999</v>
+        <v>0.5378824895317919</v>
       </c>
       <c r="EN5">
-        <v>0.5386515556632875</v>
+        <v>0.5385593831407731</v>
       </c>
       <c r="EO5">
-        <v>0.538768128946614</v>
+        <v>0.5386731227925574</v>
       </c>
       <c r="EP5">
-        <v>0.5387767118088589</v>
+        <v>0.5386788117729607</v>
       </c>
       <c r="EQ5">
-        <v>0.5389135980727651</v>
+        <v>0.5388128757383962</v>
       </c>
       <c r="ER5">
-        <v>0.540085462606205</v>
+        <v>0.5399824954111608</v>
       </c>
       <c r="ES5">
-        <v>0.5420091953611001</v>
+        <v>0.541904402789674</v>
       </c>
       <c r="ET5">
-        <v>0.5465652939911118</v>
+        <v>0.5464601446997887</v>
       </c>
       <c r="EU5">
-        <v>0.5584381513299124</v>
+        <v>0.5583367275039343</v>
       </c>
       <c r="EV5">
-        <v>0.5723434957267115</v>
+        <v>0.5722469313365977</v>
       </c>
       <c r="EW5">
-        <v>0.5870791751472048</v>
+        <v>0.5869879334556531</v>
       </c>
       <c r="EX5">
-        <v>0.5962770714096735</v>
+        <v>0.5961880627621552</v>
       </c>
       <c r="EY5">
-        <v>0.5962813033095942</v>
+        <v>0.596189398352734</v>
       </c>
       <c r="EZ5">
-        <v>0.6102670107086865</v>
+        <v>0.610180010024028</v>
       </c>
       <c r="FA5">
-        <v>0.6623216481941033</v>
+        <v>0.6622607912991377</v>
       </c>
       <c r="FB5">
-        <v>0.7141774096738451</v>
+        <v>0.7141425856111489</v>
       </c>
       <c r="FC5">
-        <v>0.7618605310345176</v>
+        <v>0.7618494117937528</v>
       </c>
       <c r="FD5">
-        <v>0.7869851617514672</v>
+        <v>0.7869851614402665</v>
       </c>
       <c r="FE5">
-        <v>0.788252340387627</v>
+        <v>0.7882501483936456</v>
       </c>
       <c r="FF5">
-        <v>0.7891270697125881</v>
+        <v>0.7891224670794751</v>
       </c>
       <c r="FG5">
-        <v>0.7932060468289847</v>
+        <v>0.7932008212790863</v>
       </c>
       <c r="FH5">
-        <v>0.8003261370321616</v>
+        <v>0.8003219852712812</v>
       </c>
       <c r="FI5">
-        <v>0.8089287892776446</v>
+        <v>0.8089265384606917</v>
       </c>
       <c r="FJ5">
-        <v>0.8118071730597813</v>
+        <v>0.8118036294878559</v>
       </c>
       <c r="FK5">
-        <v>0.8154073549625152</v>
+        <v>0.8154029213431209</v>
       </c>
       <c r="FL5">
-        <v>0.8261731002697235</v>
+        <v>0.8261717744328209</v>
       </c>
       <c r="FM5">
-        <v>0.8563623011311942</v>
+        <v>0.8563749198621369</v>
       </c>
       <c r="FN5">
-        <v>0.8846504409384167</v>
+        <v>0.8846759435922267</v>
       </c>
       <c r="FO5">
-        <v>0.8938561232011075</v>
+        <v>0.8938838632429367</v>
       </c>
       <c r="FP5">
-        <v>0.8943507757552228</v>
+        <v>0.8943758931044898</v>
       </c>
       <c r="FQ5">
-        <v>0.8960222072029184</v>
+        <v>0.8960453584111953</v>
       </c>
       <c r="FR5">
-        <v>0.9016794685643524</v>
+        <v>0.9017028774163366</v>
       </c>
       <c r="FS5">
-        <v>0.9087902120672626</v>
+        <v>0.9088146894935292</v>
       </c>
       <c r="FT5">
-        <v>0.9149942342442989</v>
+        <v>0.9150192743645035</v>
       </c>
       <c r="FU5">
-        <v>0.922565622460354</v>
+        <v>0.9225919881589495</v>
       </c>
       <c r="FV5">
-        <v>0.926611672575811</v>
+        <v>0.9266373969869023</v>
       </c>
       <c r="FW5">
-        <v>0.9318203527244445</v>
+        <v>0.9318460845056342</v>
       </c>
       <c r="FX5">
-        <v>0.9392686564369873</v>
+        <v>0.9392956451249383</v>
       </c>
       <c r="FY5">
-        <v>0.944766806993881</v>
+        <v>0.9447939645540212</v>
       </c>
       <c r="FZ5">
-        <v>0.9496228881324529</v>
+        <v>0.9496498563397254</v>
       </c>
       <c r="GA5">
-        <v>0.9526273106181863</v>
+        <v>0.9526530563903308</v>
       </c>
       <c r="GB5">
-        <v>0.9526498318818289</v>
+        <v>0.9526726915486814</v>
       </c>
       <c r="GC5">
-        <v>0.9535108131463976</v>
+        <v>0.9535312545037646</v>
       </c>
       <c r="GD5">
-        <v>0.9562632397249401</v>
+        <v>0.9562823180529605</v>
       </c>
       <c r="GE5">
-        <v>0.9612997768686613</v>
+        <v>0.9613187665243026</v>
       </c>
       <c r="GF5">
-        <v>0.9655463145898393</v>
+        <v>0.9655647748145482</v>
       </c>
       <c r="GG5">
-        <v>0.9701229800204377</v>
+        <v>0.9701410949999332</v>
       </c>
       <c r="GH5">
-        <v>0.9703221967961225</v>
+        <v>0.9703375242527501</v>
       </c>
       <c r="GI5">
-        <v>0.970542428662407</v>
+        <v>0.9705549803209613</v>
       </c>
       <c r="GJ5">
-        <v>0.9713189843845667</v>
+        <v>0.9713290706307149</v>
       </c>
       <c r="GK5">
-        <v>0.9719276419419351</v>
+        <v>0.9719351691014922</v>
       </c>
       <c r="GL5">
-        <v>0.9719745698802743</v>
+        <v>0.9719792245515754</v>
       </c>
       <c r="GM5">
-        <v>0.9746613919569447</v>
+        <v>0.9746646469966631</v>
       </c>
       <c r="GN5">
-        <v>0.9858823872771439</v>
+        <v>0.9858890040936373</v>
       </c>
       <c r="GO5">
-        <v>0.995595196554306</v>
+        <v>0.9956043336964548</v>
       </c>
       <c r="GP5">
-        <v>0.9977215711149836</v>
+        <v>0.9977289959391993</v>
       </c>
       <c r="GQ5">
-        <v>0.9979529184715853</v>
+        <v>0.9979575736993113</v>
       </c>
       <c r="GR5">
-        <v>0.9981085780460272</v>
+        <v>0.9981104214493371</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.372736063059297E-05</v>
+        <v>2.187944470858442E-05</v>
       </c>
       <c r="C6">
-        <v>7.688743756249855E-05</v>
+        <v>7.320235860486681E-05</v>
       </c>
       <c r="D6">
-        <v>8.412024114506265E-05</v>
+        <v>7.858122017880165E-05</v>
       </c>
       <c r="E6">
-        <v>9.296227863475101E-05</v>
+        <v>8.556990357397624E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001965666266553029</v>
+        <v>0.0001873555177623212</v>
       </c>
       <c r="G6">
-        <v>0.0002770026170129993</v>
+        <v>0.0002659643100089744</v>
       </c>
       <c r="H6">
-        <v>0.0003580976523326595</v>
+        <v>0.0003452323879916852</v>
       </c>
       <c r="I6">
-        <v>0.000489474344750351</v>
+        <v>0.0004748004928667919</v>
       </c>
       <c r="J6">
-        <v>0.0005098466635745778</v>
+        <v>0.0004933236700451254</v>
       </c>
       <c r="K6">
-        <v>0.0005205192494586174</v>
+        <v>0.0005021435706033339</v>
       </c>
       <c r="L6">
-        <v>0.0005210488003880547</v>
+        <v>0.0005021435706033339</v>
       </c>
       <c r="M6">
-        <v>0.0005212726635451347</v>
+        <v>0.0005021435706033339</v>
       </c>
       <c r="N6">
-        <v>0.0005231285699380224</v>
+        <v>0.0005021435706033339</v>
       </c>
       <c r="O6">
-        <v>0.0005270630301109479</v>
+        <v>0.0005042228837578179</v>
       </c>
       <c r="P6">
-        <v>0.0005451842390650958</v>
+        <v>0.000520494128650349</v>
       </c>
       <c r="Q6">
-        <v>0.0005668167078165939</v>
+        <v>0.0005402779161364657</v>
       </c>
       <c r="R6">
-        <v>0.0006355453138499734</v>
+        <v>0.0006071750469077492</v>
       </c>
       <c r="S6">
-        <v>0.0006908656406572018</v>
+        <v>0.0006606589999004794</v>
       </c>
       <c r="T6">
-        <v>0.0007042019838875047</v>
+        <v>0.0006721436309764317</v>
       </c>
       <c r="U6">
-        <v>0.0007199845849766236</v>
+        <v>0.0006860754136218776</v>
       </c>
       <c r="V6">
-        <v>0.0007720806679699368</v>
+        <v>0.0007363339448622702</v>
       </c>
       <c r="W6">
-        <v>0.0008086156538613472</v>
+        <v>0.0007710256939424237</v>
       </c>
       <c r="X6">
-        <v>0.0008086190795895495</v>
+        <v>0.0007710256939424237</v>
       </c>
       <c r="Y6">
-        <v>0.0008123465085744237</v>
+        <v>0.0007728979002725195</v>
       </c>
       <c r="Z6">
-        <v>0.0008155619088888493</v>
+        <v>0.0007742578908686942</v>
       </c>
       <c r="AA6">
-        <v>0.0009484622912186023</v>
+        <v>0.0009053502423175154</v>
       </c>
       <c r="AB6">
-        <v>0.001115192931595867</v>
+        <v>0.001070285211288844</v>
       </c>
       <c r="AC6">
-        <v>0.001420654673966369</v>
+        <v>0.001374001965981088</v>
       </c>
       <c r="AD6">
-        <v>0.001684093058762218</v>
+        <v>0.001635680010374013</v>
       </c>
       <c r="AE6">
-        <v>0.002018738039448431</v>
+        <v>0.001968590665124593</v>
       </c>
       <c r="AF6">
-        <v>0.00238284721843414</v>
+        <v>0.002330976282562621</v>
       </c>
       <c r="AG6">
-        <v>0.002662599272288457</v>
+        <v>0.0026089739560154</v>
       </c>
       <c r="AH6">
-        <v>0.002754645230976093</v>
+        <v>0.002699196958153292</v>
       </c>
       <c r="AI6">
-        <v>0.002796364296568308</v>
+        <v>0.002739074680874974</v>
       </c>
       <c r="AJ6">
-        <v>0.00284333064785768</v>
+        <v>0.002784201606326083</v>
       </c>
       <c r="AK6">
-        <v>0.00285003125417096</v>
+        <v>0.002789048076198908</v>
       </c>
       <c r="AL6">
-        <v>0.002893759801647199</v>
+        <v>0.00283093601494448</v>
       </c>
       <c r="AM6">
-        <v>0.003056202792271923</v>
+        <v>0.002991581767722366</v>
       </c>
       <c r="AN6">
-        <v>0.003225970182473923</v>
+        <v>0.003159554595958195</v>
       </c>
       <c r="AO6">
-        <v>0.003439042470176614</v>
+        <v>0.003370848142614468</v>
       </c>
       <c r="AP6">
-        <v>0.003685726315939439</v>
+        <v>0.00361576552690648</v>
       </c>
       <c r="AQ6">
-        <v>0.004023655996436079</v>
+        <v>0.003951962081492774</v>
       </c>
       <c r="AR6">
-        <v>0.004353545537396749</v>
+        <v>0.00428011555917551</v>
       </c>
       <c r="AS6">
-        <v>0.004722135776123837</v>
+        <v>0.004646983873455815</v>
       </c>
       <c r="AT6">
-        <v>0.005186734809309848</v>
+        <v>0.005109896057845155</v>
       </c>
       <c r="AU6">
-        <v>0.005540345308901481</v>
+        <v>0.005461779160323759</v>
       </c>
       <c r="AV6">
-        <v>0.005626639143921097</v>
+        <v>0.005546247937324923</v>
       </c>
       <c r="AW6">
-        <v>0.0056685680715012</v>
+        <v>0.005586335598705029</v>
       </c>
       <c r="AX6">
-        <v>0.005671159588051632</v>
+        <v>0.005587071477608834</v>
       </c>
       <c r="AY6">
-        <v>0.00568953375599118</v>
+        <v>0.005603595773902267</v>
       </c>
       <c r="AZ6">
-        <v>0.005744612988812323</v>
+        <v>0.005656838544828144</v>
       </c>
       <c r="BA6">
-        <v>0.005785859731431798</v>
+        <v>0.00569624377201961</v>
       </c>
       <c r="BB6">
-        <v>0.005828053808996598</v>
+        <v>0.005736596680253748</v>
       </c>
       <c r="BC6">
-        <v>0.00583524869518135</v>
+        <v>0.005741937610577209</v>
       </c>
       <c r="BD6">
-        <v>0.00587744277274615</v>
+        <v>0.005782290518811348</v>
       </c>
       <c r="BE6">
-        <v>0.005970193637393103</v>
+        <v>0.00587321868443741</v>
       </c>
       <c r="BF6">
-        <v>0.006039872393371645</v>
+        <v>0.005941066312279629</v>
       </c>
       <c r="BG6">
-        <v>0.006128606728250409</v>
+        <v>0.006027976480747004</v>
       </c>
       <c r="BH6">
-        <v>0.006231322856322223</v>
+        <v>0.006128873550486212</v>
       </c>
       <c r="BI6">
-        <v>0.006591246135549518</v>
+        <v>0.006487071738898053</v>
       </c>
       <c r="BJ6">
-        <v>0.006837708301325137</v>
+        <v>0.00673176736221476</v>
       </c>
       <c r="BK6">
-        <v>0.006912211947025215</v>
+        <v>0.006804441642493531</v>
       </c>
       <c r="BL6">
-        <v>0.007042588189500647</v>
+        <v>0.00693300893192411</v>
       </c>
       <c r="BM6">
-        <v>0.007403904068647569</v>
+        <v>0.00729260022902509</v>
       </c>
       <c r="BN6">
-        <v>0.007624053675941798</v>
+        <v>0.007510973680885887</v>
       </c>
       <c r="BO6">
-        <v>0.007653863680221335</v>
+        <v>0.007538937991463595</v>
       </c>
       <c r="BP6">
-        <v>0.007656274588882192</v>
+        <v>0.00753949319649492</v>
       </c>
       <c r="BQ6">
-        <v>0.007692367656799107</v>
+        <v>0.007573742866151199</v>
       </c>
       <c r="BR6">
-        <v>0.007712739975623334</v>
+        <v>0.007592266043329532</v>
       </c>
       <c r="BS6">
-        <v>0.007854178777460297</v>
+        <v>0.007731899933693707</v>
       </c>
       <c r="BT6">
-        <v>0.00818673760826691</v>
+        <v>0.008062723676415098</v>
       </c>
       <c r="BU6">
-        <v>0.008581834485464186</v>
+        <v>0.008456108313044886</v>
       </c>
       <c r="BV6">
-        <v>0.008956077943865003</v>
+        <v>0.00882863191233425</v>
       </c>
       <c r="BW6">
-        <v>0.009391894518712173</v>
+        <v>0.009262751123062232</v>
       </c>
       <c r="BX6">
-        <v>0.009666084402887508</v>
+        <v>0.009535184594764708</v>
       </c>
       <c r="BY6">
-        <v>0.009928562547738776</v>
+        <v>0.009795902048401021</v>
       </c>
       <c r="BZ6">
-        <v>0.01018425356298176</v>
+        <v>0.01004982989283346</v>
       </c>
       <c r="CA6">
-        <v>0.01030756268586507</v>
+        <v>0.01017132748078537</v>
       </c>
       <c r="CB6">
-        <v>0.0103490180994725</v>
+        <v>0.01021094145520021</v>
       </c>
       <c r="CC6">
-        <v>0.01041474052567938</v>
+        <v>0.01027483130787361</v>
       </c>
       <c r="CD6">
-        <v>0.01053561873870298</v>
+        <v>0.01039389709786235</v>
       </c>
       <c r="CE6">
-        <v>0.01059796715110459</v>
+        <v>0.0104544117040754</v>
       </c>
       <c r="CF6">
-        <v>0.01060310968980779</v>
+        <v>0.01045769953711701</v>
       </c>
       <c r="CG6">
-        <v>0.01061617957005347</v>
+        <v>0.01046891760785932</v>
       </c>
       <c r="CH6">
-        <v>0.01063781203880497</v>
+        <v>0.01048870139534544</v>
       </c>
       <c r="CI6">
-        <v>0.01063850201006515</v>
+        <v>0.01048870139534544</v>
       </c>
       <c r="CJ6">
-        <v>0.01074629621784388</v>
+        <v>0.01059467840000648</v>
       </c>
       <c r="CK6">
-        <v>0.01086944862073624</v>
+        <v>0.01071601921071169</v>
       </c>
       <c r="CL6">
-        <v>0.01104553953057328</v>
+        <v>0.01089031786880386</v>
       </c>
       <c r="CM6">
-        <v>0.0113398893935851</v>
+        <v>0.01118291868454689</v>
       </c>
       <c r="CN6">
-        <v>0.01820023929764509</v>
+        <v>0.01804391834991985</v>
       </c>
       <c r="CO6">
-        <v>0.1080003741148969</v>
+        <v>0.107875003974262</v>
       </c>
       <c r="CP6">
-        <v>0.1188259739901054</v>
+        <v>0.1187027022668298</v>
       </c>
       <c r="CQ6">
-        <v>0.1862926100963186</v>
+        <v>0.1861921299069024</v>
       </c>
       <c r="CR6">
-        <v>0.2101062237219335</v>
+        <v>0.210012586963378</v>
       </c>
       <c r="CS6">
-        <v>0.2104478708022156</v>
+        <v>0.2103525022758567</v>
       </c>
       <c r="CT6">
-        <v>0.2117270154283907</v>
+        <v>0.211630257637601</v>
       </c>
       <c r="CU6">
-        <v>0.2157072501986744</v>
+        <v>0.2156100899540201</v>
       </c>
       <c r="CV6">
-        <v>0.2169569093265513</v>
+        <v>0.2168583490452966</v>
       </c>
       <c r="CW6">
-        <v>0.2292283756183127</v>
+        <v>0.2291324419841989</v>
       </c>
       <c r="CX6">
-        <v>0.2411090059326309</v>
+        <v>0.2410155561584679</v>
       </c>
       <c r="CY6">
-        <v>0.241559188146649</v>
+        <v>0.241464046256679</v>
       </c>
       <c r="CZ6">
-        <v>0.2455373765170508</v>
+        <v>0.2454418314255888</v>
       </c>
       <c r="DA6">
-        <v>0.3135156025937379</v>
+        <v>0.3134430359393343</v>
       </c>
       <c r="DB6">
-        <v>0.3539517752599942</v>
+        <v>0.3538921248870494</v>
       </c>
       <c r="DC6">
-        <v>0.3631603017285309</v>
+        <v>0.3631021589947637</v>
       </c>
       <c r="DD6">
-        <v>0.3778757228792413</v>
+        <v>0.3778210996619193</v>
       </c>
       <c r="DE6">
-        <v>0.3794829089864837</v>
+        <v>0.3794270163507126</v>
       </c>
       <c r="DF6">
-        <v>0.3866794848711386</v>
+        <v>0.3866243648327699</v>
       </c>
       <c r="DG6">
-        <v>0.423985232718065</v>
+        <v>0.4239418852983659</v>
       </c>
       <c r="DH6">
-        <v>0.4302643553556701</v>
+        <v>0.4302214453529424</v>
       </c>
       <c r="DI6">
-        <v>0.4303995907878652</v>
+        <v>0.4303548736073387</v>
       </c>
       <c r="DJ6">
-        <v>0.4317571226095162</v>
+        <v>0.4317110448023713</v>
       </c>
       <c r="DK6">
-        <v>0.4324484848696147</v>
+        <v>0.4324008030588714</v>
       </c>
       <c r="DL6">
-        <v>0.4324522122985996</v>
+        <v>0.4324026752652015</v>
       </c>
       <c r="DM6">
-        <v>0.4370865290311334</v>
+        <v>0.4370368285047928</v>
       </c>
       <c r="DN6">
-        <v>0.44444733530631</v>
+        <v>0.4443984673769554</v>
       </c>
       <c r="DO6">
-        <v>0.4457427731315448</v>
+        <v>0.4456925218902824</v>
       </c>
       <c r="DP6">
-        <v>0.4461082829904496</v>
+        <v>0.446056308699361</v>
       </c>
       <c r="DQ6">
-        <v>0.4498608091738754</v>
+        <v>0.4498083492383481</v>
       </c>
       <c r="DR6">
-        <v>0.4505571117036888</v>
+        <v>0.4505030495694307</v>
       </c>
       <c r="DS6">
-        <v>0.4537431858198069</v>
+        <v>0.4536884310947087</v>
       </c>
       <c r="DT6">
-        <v>0.4602085044466658</v>
+        <v>0.4601542551629885</v>
       </c>
       <c r="DU6">
-        <v>0.4625330538125062</v>
+        <v>0.4624777971903568</v>
       </c>
       <c r="DV6">
-        <v>0.4647891681822962</v>
+        <v>0.464732879219778</v>
       </c>
       <c r="DW6">
-        <v>0.4751659655834071</v>
+        <v>0.4751116110737005</v>
       </c>
       <c r="DX6">
-        <v>0.4890856507800427</v>
+        <v>0.4890345250742893</v>
       </c>
       <c r="DY6">
-        <v>0.4924309621869706</v>
+        <v>0.4923792020657924</v>
       </c>
       <c r="DZ6">
-        <v>0.4927682955875016</v>
+        <v>0.4927148021225695</v>
       </c>
       <c r="EA6">
-        <v>0.4984662296586496</v>
+        <v>0.4984129612804861</v>
       </c>
       <c r="EB6">
-        <v>0.4990354110257997</v>
+        <v>0.4989804940067284</v>
       </c>
       <c r="EC6">
-        <v>0.5004303491452918</v>
+        <v>0.5003740851655401</v>
       </c>
       <c r="ED6">
-        <v>0.5204685879887997</v>
+        <v>0.5204177881524626</v>
       </c>
       <c r="EE6">
-        <v>0.5305372604076938</v>
+        <v>0.5304882824544384</v>
       </c>
       <c r="EF6">
-        <v>0.5333119870475524</v>
+        <v>0.5332621662226391</v>
       </c>
       <c r="EG6">
-        <v>0.5477441142146129</v>
+        <v>0.5476977094081195</v>
       </c>
       <c r="EH6">
-        <v>0.5596582785269957</v>
+        <v>0.559614369831693</v>
       </c>
       <c r="EI6">
-        <v>0.565064943814954</v>
+        <v>0.5650211537948981</v>
       </c>
       <c r="EJ6">
-        <v>0.5682642462303086</v>
+        <v>0.5682197684522117</v>
       </c>
       <c r="EK6">
-        <v>0.5694518305617681</v>
+        <v>0.5694059300687957</v>
       </c>
       <c r="EL6">
-        <v>0.5710050880721229</v>
+        <v>0.5709578984585417</v>
       </c>
       <c r="EM6">
-        <v>0.5710525583393832</v>
+        <v>0.5710035294840633</v>
       </c>
       <c r="EN6">
-        <v>0.5722026801730048</v>
+        <v>0.5721522149163397</v>
       </c>
       <c r="EO6">
-        <v>0.5726665799862312</v>
+        <v>0.5726144276253179</v>
       </c>
       <c r="EP6">
-        <v>0.5757806273065063</v>
+        <v>0.5757277560406355</v>
       </c>
       <c r="EQ6">
-        <v>0.5779360067821101</v>
+        <v>0.5778820663735972</v>
       </c>
       <c r="ER6">
-        <v>0.5785484057467659</v>
+        <v>0.5784928324863711</v>
       </c>
       <c r="ES6">
-        <v>0.5795646399881147</v>
+        <v>0.5795075814121646</v>
       </c>
       <c r="ET6">
-        <v>0.5824173884234705</v>
+        <v>0.5823595154801804</v>
       </c>
       <c r="EU6">
-        <v>0.589636114006847</v>
+        <v>0.5895790217530834</v>
       </c>
       <c r="EV6">
-        <v>0.6044277611531581</v>
+        <v>0.6043742162640839</v>
       </c>
       <c r="EW6">
-        <v>0.6269914098509138</v>
+        <v>0.6269442517331546</v>
       </c>
       <c r="EX6">
-        <v>0.6510012904652014</v>
+        <v>0.6509610474820697</v>
       </c>
       <c r="EY6">
-        <v>0.6597481839603809</v>
+        <v>0.6597092799644118</v>
       </c>
       <c r="EZ6">
-        <v>0.6597788001286139</v>
+        <v>0.6597380507334651</v>
       </c>
       <c r="FA6">
-        <v>0.6765235151622051</v>
+        <v>0.6764870266614411</v>
       </c>
       <c r="FB6">
-        <v>0.7249178873691597</v>
+        <v>0.72489722258166</v>
       </c>
       <c r="FC6">
-        <v>0.7749102544838874</v>
+        <v>0.774905997217735</v>
       </c>
       <c r="FD6">
-        <v>0.8185513869651718</v>
+        <v>0.8185612168737253</v>
       </c>
       <c r="FE6">
-        <v>0.8343490720534201</v>
+        <v>0.8343628168704391</v>
       </c>
       <c r="FF6">
-        <v>0.8345749078303862</v>
+        <v>0.834586878569345</v>
       </c>
       <c r="FG6">
-        <v>0.8356372398690746</v>
+        <v>0.8356477421337499</v>
       </c>
       <c r="FH6">
-        <v>0.8385977208982126</v>
+        <v>0.8386074481543462</v>
       </c>
       <c r="FI6">
-        <v>0.8422376740881354</v>
+        <v>0.8422468745726508</v>
       </c>
       <c r="FJ6">
-        <v>0.8442433895723771</v>
+        <v>0.8442514662363237</v>
       </c>
       <c r="FK6">
-        <v>0.8446596171683548</v>
+        <v>0.8446659893115861</v>
       </c>
       <c r="FL6">
-        <v>0.8467457670479542</v>
+        <v>0.8467510447563489</v>
       </c>
       <c r="FM6">
-        <v>0.8559582185162644</v>
+        <v>0.8559650052977877</v>
       </c>
       <c r="FN6">
-        <v>0.8819062010186959</v>
+        <v>0.8819206109968956</v>
       </c>
       <c r="FO6">
-        <v>0.8991220900250936</v>
+        <v>0.8991409330353818</v>
       </c>
       <c r="FP6">
-        <v>0.9034777037737126</v>
+        <v>0.9034962814702989</v>
       </c>
       <c r="FQ6">
-        <v>0.9037401819185639</v>
+        <v>0.9037569989239352</v>
       </c>
       <c r="FR6">
-        <v>0.9062437481740724</v>
+        <v>0.906259623242624</v>
       </c>
       <c r="FS6">
-        <v>0.9174891835250504</v>
+        <v>0.917507310392767</v>
       </c>
       <c r="FT6">
-        <v>0.9247527914058367</v>
+        <v>0.9247717153602834</v>
       </c>
       <c r="FU6">
-        <v>0.9296786088215467</v>
+        <v>0.9296974757792946</v>
       </c>
       <c r="FV6">
-        <v>0.934121493565129</v>
+        <v>0.9341401270925759</v>
       </c>
       <c r="FW6">
-        <v>0.9361188178498548</v>
+        <v>0.9361363244911101</v>
       </c>
       <c r="FX6">
-        <v>0.9393305762644906</v>
+        <v>0.9393473996983531</v>
       </c>
       <c r="FY6">
-        <v>0.9425861207765992</v>
+        <v>0.9426022769997894</v>
       </c>
       <c r="FZ6">
-        <v>0.9453986386142769</v>
+        <v>0.9454139657723655</v>
       </c>
       <c r="GA6">
-        <v>0.948090934158893</v>
+        <v>0.9481053883301216</v>
       </c>
       <c r="GB6">
-        <v>0.9488733268537378</v>
+        <v>0.9488862102782346</v>
       </c>
       <c r="GC6">
-        <v>0.9501808217782767</v>
+        <v>0.9501923262957809</v>
       </c>
       <c r="GD6">
-        <v>0.9535176555856938</v>
+        <v>0.953528522590585</v>
       </c>
       <c r="GE6">
-        <v>0.9596987112289588</v>
+        <v>0.9597099798232329</v>
       </c>
       <c r="GF6">
-        <v>0.9687552177062693</v>
+        <v>0.9687679384010586</v>
       </c>
       <c r="GG6">
-        <v>0.9753063196281773</v>
+        <v>0.9753195771042752</v>
       </c>
       <c r="GH6">
-        <v>0.9805037149282134</v>
+        <v>0.9805170146253029</v>
       </c>
       <c r="GI6">
-        <v>0.9805573076351204</v>
+        <v>0.9805687703272303</v>
       </c>
       <c r="GJ6">
-        <v>0.9806631634040111</v>
+        <v>0.9806728081848181</v>
       </c>
       <c r="GK6">
-        <v>0.9818381452361978</v>
+        <v>0.981846362697959</v>
       </c>
       <c r="GL6">
-        <v>0.9829962205693604</v>
+        <v>0.9830030045354911</v>
       </c>
       <c r="GM6">
-        <v>0.9830471626084203</v>
+        <v>0.9830521086011821</v>
       </c>
       <c r="GN6">
-        <v>0.9850177274946906</v>
+        <v>0.9850215368250386</v>
       </c>
       <c r="GO6">
-        <v>0.9920630472880753</v>
+        <v>0.9920675739562447</v>
       </c>
       <c r="GP6">
-        <v>0.996223670547948</v>
+        <v>0.9962278606650024</v>
       </c>
       <c r="GQ6">
-        <v>0.9963548854803751</v>
+        <v>0.9963572669507897</v>
       </c>
       <c r="GR6">
-        <v>0.9968810711800067</v>
+        <v>0.9968817883015673</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.01382537859534967</v>
+        <v>0.01413685458030656</v>
       </c>
       <c r="F2">
-        <v>0.5121107686696046</v>
+        <v>0.512021969086998</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>92</v>
       </c>
       <c r="E3">
-        <v>0.003935508990338814</v>
+        <v>0.05719152653062454</v>
       </c>
       <c r="F3">
-        <v>0.5108115801288569</v>
+        <v>0.5108501379860172</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.01064837003262589</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="F4">
-        <v>0.5027957127230108</v>
+        <v>0.5016782416511419</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.007516935054175395</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="F5">
-        <v>0.5000840990687369</v>
+        <v>0.5000138889457326</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>132</v>
       </c>
       <c r="E6">
-        <v>0.01086944862073624</v>
+        <v>0.01118291868454689</v>
       </c>
       <c r="F6">
-        <v>0.5004303491452918</v>
+        <v>0.5003740851655401</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.01382537859534967</v>
+        <v>0.01413685458030656</v>
       </c>
       <c r="F2">
-        <v>0.7520368510144769</v>
+        <v>0.752019916161549</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.003935508990338814</v>
+        <v>0.05719152653062454</v>
       </c>
       <c r="F3">
-        <v>0.7052979428686329</v>
+        <v>0.7054308993273694</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>157</v>
       </c>
       <c r="E4">
-        <v>0.01064837003262589</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="F4">
-        <v>0.722207313675164</v>
+        <v>0.7221121315567115</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.007516935054175395</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="F5">
-        <v>0.7141774096738451</v>
+        <v>0.7141425856111489</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.01086944862073624</v>
+        <v>0.01118291868454689</v>
       </c>
       <c r="F6">
-        <v>0.7249178873691597</v>
+        <v>0.72489722258166</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.01382537859534967</v>
+        <v>0.01413685458030656</v>
       </c>
       <c r="F2">
-        <v>0.8018761774280384</v>
+        <v>0.8018885386122254</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>116</v>
       </c>
       <c r="E3">
-        <v>0.003935508990338814</v>
+        <v>0.05719152653062454</v>
       </c>
       <c r="F3">
-        <v>0.8038334482191803</v>
+        <v>0.8039925642337057</v>
       </c>
       <c r="G3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.01064837003262589</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="F4">
-        <v>0.8032867842130539</v>
+        <v>0.8042064695215481</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
       <c r="E5">
-        <v>0.007516935054175395</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="F5">
-        <v>0.8003261370321616</v>
+        <v>0.8003219852712812</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.01086944862073624</v>
+        <v>0.01118291868454689</v>
       </c>
       <c r="F6">
-        <v>0.8185513869651718</v>
+        <v>0.8185612168737253</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>169</v>
       </c>
       <c r="E2">
-        <v>0.01382537859534967</v>
+        <v>0.01413685458030656</v>
       </c>
       <c r="F2">
-        <v>0.9097775480883772</v>
+        <v>0.909823062093871</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.003935508990338814</v>
+        <v>0.05719152653062454</v>
       </c>
       <c r="F3">
-        <v>0.9021224062790606</v>
+        <v>0.9022028489648252</v>
       </c>
       <c r="G3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.01064837003262589</v>
+        <v>0.004463373121164731</v>
       </c>
       <c r="F4">
-        <v>0.908193594274736</v>
+        <v>0.910199860044558</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>173</v>
       </c>
       <c r="E5">
-        <v>0.007516935054175395</v>
+        <v>0.007284630009591791</v>
       </c>
       <c r="F5">
-        <v>0.9016794685643524</v>
+        <v>0.9017028774163366</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>171</v>
       </c>
       <c r="E6">
-        <v>0.01086944862073624</v>
+        <v>0.01118291868454689</v>
       </c>
       <c r="F6">
-        <v>0.9034777037737126</v>
+        <v>0.9034962814702989</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>31</v>

--- a/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
@@ -1994,40 +1994,40 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001171437734980022</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001601239452352522</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001476240133183842</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.000144224342600906</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001875743470064218</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002596519712385767</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002283085450324716</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001670139361504927</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001940358567707886</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001083989655317122</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.37427174561358E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.333429352748137E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2039,94 +2039,94 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.64111872987967E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.901542990598233E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.258996607033316E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001276444035591158</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002221355445754842</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001931864994591082</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002601748443253725</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002398800077278319</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002766078669669496</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0003011766779623814</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001710905210298848</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>8.465883327957489E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.313671931856333E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.51969213651666E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.213121949135633E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>6.004223092551215E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001133556979259896</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001222885993110786</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001979643845014575</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002741344540199202</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002941813379215829</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.000256652453083973</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0002096435578719229</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0002147496682816194</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001367165262952582</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9.371618132119914E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6.512676217589382E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.565128563789585E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.079166882821559E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2135,40 +2135,40 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.093233926856494E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.58370889848153E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0001022088238273767</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001896270839239619</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0003569251076805042</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0004173555995661333</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0005274089118088936</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.000424998674622747</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.00030891263396347</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001896270839239619</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>6.616524958659812E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.533624378253532E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2177,421 +2177,421 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.01820405856566E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.974722207648143E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>6.961253554714771E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>8.00663448865206E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001522171171152399</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>9.833970507832242E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0001989525528949903</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0003428121673770159</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0005160456157034825</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0004412779563861824</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003611666708115182</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0002787885078095357</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0001853381997429133</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>5.930562259485624E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>3.966203832103654E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>6.980004778460054E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>8.321138772815522E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>3.370383080192241E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001404153432996436</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0002750582601817291</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0002750582601817291</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0002673746685398774</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0003486122331303155</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0003810807575774208</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0004493266375840739</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0003234169210518605</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0002541870453896456</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>9.740640268549584E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1103313945171698</v>
+        <v>0.3526106786218914</v>
       </c>
       <c r="CO2">
         <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.05653894122652183</v>
+        <v>0.1164435350827708</v>
       </c>
       <c r="CQ2">
-        <v>0.04139917616485948</v>
+        <v>0.04997482340034989</v>
       </c>
       <c r="CR2">
-        <v>0.001245040850974158</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.0006874966144633254</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02419488845236649</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.006688300083204702</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.008856839785543844</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01207815997708969</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>2.913689517549287E-05</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0007580700517127777</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.05158323650656</v>
+        <v>0.09468630788190253</v>
       </c>
       <c r="DA2">
-        <v>0.05356591045179581</v>
+        <v>0.1033909200267661</v>
       </c>
       <c r="DB2">
-        <v>9.463229243384821E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01494037203734898</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.00349298875755628</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0009247101137431782</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02374978139228741</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0210244861709599</v>
+        <v>0</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2">
-        <v>5.469140094137266E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0004147963803167046</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>1.376396712231938E-05</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001868180328256358</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.004074637810609371</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0005819458566027958</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>9.833970507832242E-05</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.004288159514353559</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.001261798746783513</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.002632953439428007</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.00715782246356522</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001705771562620382</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001393706298837029</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.003811639842671896</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01447472950277614</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.00314227023116706</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0003171605158682844</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.002937673883857291</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0007189235354551122</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0009438772003597611</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.01371130357556858</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.01038299268133243</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001798634095013927</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0103004655305711</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01440399108727507</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.005440331720123207</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.002007062856989112</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0007349682633143795</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.001210067202772757</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0001191888153663826</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001313440631964007</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0007408954524805867</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.00178918929774481</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00196507200440047</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001881633755815994</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002605647122198908</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.003076308349821941</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.005850397587681215</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01140243459520212</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0158067004847576</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.02239895503822301</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01152905167587621</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0003516635953027304</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.00881240212746684</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.04456119094274758</v>
+        <v>0.0638571424291447</v>
       </c>
       <c r="FB2">
-        <v>0.05951526216010837</v>
+        <v>0.1295105950538584</v>
       </c>
       <c r="FC2">
-        <v>0.04986862245067644</v>
+        <v>0.08715856971271874</v>
       </c>
       <c r="FD2">
-        <v>0.03055550601561708</v>
+        <v>0.002367427790597413</v>
       </c>
       <c r="FE2">
-        <v>0.003445175584611828</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0004102526989487176</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.002731463077208849</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.004767060148320108</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.005509635494274428</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0005359893018912508</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.002962872217918641</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.007173525467199772</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.02635197984281653</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.02349106363283836</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.008347217893611186</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0004361061128452368</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.00126395185956337</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.005722704500978317</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.006770093052227606</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.003704453311487374</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.004457785815825643</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.003109344526738144</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.003029669947711505</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.004273911165200615</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003397691627684744</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003606296905482007</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001509174464073069</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0002179768358099357</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0007676962380015562</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.003112436055265991</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.005814977646641678</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.005194121967889695</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.003906729836629767</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0002979484897643456</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0001487658325309657</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0006241873736666679</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001597895478981243</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>4.150747421657591E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001724993675342725</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.006619052245756737</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.005994949036114878</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001349863230904466</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0008567867453547562</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002278648559828299</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,34 +2767,34 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.599912552283884E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.958874079113783E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001371802188996001</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0003142185660091293</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003394271197285614</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0005134161699446772</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.000312625213740066</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002988543278638645</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001116433378639893</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.675710715351705E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2806,49 +2806,49 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.390319811349077E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.556642203479457E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.062890692099902E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.544569948054672E-07</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.85506945070319E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3.769612744749014E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7.342301771432791E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>6.973658806120353E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002294187755248687</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000315783898366664</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001734845074776149</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001552239511487707</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002429282256193989</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002496476005461375</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>8.127286998163612E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2857,370 +2857,370 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0127578427826357</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.04059663160150672</v>
+        <v>0.1497900247904029</v>
       </c>
       <c r="AH3">
-        <v>0.01200138072505857</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.05379308927715327</v>
+        <v>0.3366418996776913</v>
       </c>
       <c r="AJ3">
-        <v>0.0152688921862551</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002352745605467672</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>8.211605916930488E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.009096788161533672</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0008028351070247843</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0006280013265258658</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004588940791998096</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.02453360988619052</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.01794784090259725</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.02052808447702493</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.01611779343303116</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004588940791998096</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.002244346674946615</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0223358200913254</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.01394432291995045</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0008861999778254523</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0008252229462862074</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.02517578322784332</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.003263054289638274</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01398376795040457</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000417566727349187</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.02573257089266892</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.006861792927714453</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.002498173449500202</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001371589437810611</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0005980064515475951</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.002909940359579332</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.006479728424779905</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001126731674621924</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001820877448959869</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.009465185952620239</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01429502013264007</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01211665714286427</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001900070925481523</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.002211503435861924</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.003203137511537042</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0008629977598496784</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0008427030880363178</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.008467850225233537</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.00827745292497572</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.00405666784783982</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.00512857126456817</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.004942784640752353</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.009850126499330954</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.004495551427585021</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001061848129233175</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0002637522836255326</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>6.74548556149549E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0008478650562376397</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001080582379979065</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0001609133541561699</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0006369834994436376</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.001930448112138376</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.002877429756872928</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.007900998408613611</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01509775457232856</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.01899983947453137</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.01488409574194653</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.007436667945787205</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.0002226384572905558</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01609530845474073</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.04872972114307764</v>
+        <v>0.2649484306914976</v>
       </c>
       <c r="CU3">
-        <v>0.04149435654340991</v>
+        <v>0.1625011320170985</v>
       </c>
       <c r="CV3">
-        <v>0.03609981607142432</v>
+        <v>0.08611851282330958</v>
       </c>
       <c r="CW3">
-        <v>0.01840350870956131</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.001514889207389438</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0007472374281647655</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.003273187990855863</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.005679333647704034</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.004974173846570945</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.004067964875741399</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.004570766877238542</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.01251389692966927</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02853947453642782</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01767910893610612</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.003347879568234915</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0005767971798006134</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.004564838164172467</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.008079159013222519</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.00502969360005558</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.004617911379096224</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.006663072112594895</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.005897374291893544</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.004219337144004682</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.003936411090902164</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.005098167959350928</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.00380000595859512</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0003190225698335643</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.000758929356690894</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.00292929191119198</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.005247716531658162</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.009145764965463087</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.00664102644648879</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.003947539999334574</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0001911737878459511</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>2.045427503070645E-05</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001362860172414152</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0002988543278638645</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0006437958904695394</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.00280346649705139</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.008612422961608888</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.00565238389665378</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0003110041217585897</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0002737202670806529</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001006809055129244</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.001820953903289896</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.002775187901696902</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.0008175125771384878</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>2.540910003178777E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0004863126796441348</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.001296699557313263</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001689630982507431</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.001507923357312362</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.002407352910547608</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.001880678144570483</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.000435699913165912</v>
+        <v>0</v>
       </c>
       <c r="EX3">
         <v>0</v>
@@ -3232,139 +3232,139 @@
         <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0001087788963326179</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.000257931387176175</v>
+        <v>0</v>
       </c>
       <c r="FC3">
         <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.00291960782948331</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.006898764200265068</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.007087748496412953</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0119938328613906</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.006528452048794436</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.00356363118579478</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0007447874571647224</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0003507056845098668</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0022517771551995</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002170716051503365</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.000509861614003739</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0006866489427344184</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002807118192021331</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.002310586046013122</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002050385241942383</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001992003854921796</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.001505315404046855</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0003998875641703349</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0001242191785163486</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0002307868376981322</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0005459171057816039</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001315253942442928</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001167709894592214</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001179991822384019</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.003155180832529488</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.004695672137498762</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.002725787796961184</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.001448440387484257</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001006300555979236</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001379448760607873</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.002098311899616157</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.004068079056880878</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.00597149786563747</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.004459612488632004</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001794297060386228</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0008381536551152295</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0006796140435896475</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0003267026574626109</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0002914762648597604</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001556065468091567</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.00151481925768173</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002277260564236804</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.42387569771985E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.418979000923863E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3564,31 +3564,31 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001188533082672144</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002358945167284401</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001642183790990465</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.090695755432411E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0004349084691028736</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002796245897052043</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001349694632037748</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.420457053604562E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002375172037758436</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3606,28 +3606,28 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>2.459732063919405E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0001341906845758654</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0003712142402890292</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0004508758931365491</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0003144187633285997</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0004258356081830755</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002735557191020529</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>7.295829036885938E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3648,22 +3648,22 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.041703275494633E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>7.488092181644124E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>5.027994369248058E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.478496105524145E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.369942590303134E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3783,22 +3783,22 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.000113809299631565</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>2.629704984476866E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>2.958918457582416E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001098087366639495</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>3.263404064405339E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>3.03485417552941E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1057168027490363</v>
+        <v>0.2945537700852151</v>
       </c>
       <c r="CO4">
-        <v>0.0001598482262741181</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.051918846035134</v>
+        <v>0.08387387791640963</v>
       </c>
       <c r="CQ4">
-        <v>0.04519468391056175</v>
+        <v>0.05754117240374163</v>
       </c>
       <c r="CR4">
-        <v>0.004315923737600215</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.002500471816173425</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.002933284975595404</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.001549165034424483</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.004447831232202285</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.02115147425680152</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.002226919437846564</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.001449084297976828</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0604737008610214</v>
+        <v>0.1173758174384359</v>
       </c>
       <c r="DA4">
-        <v>0.07014010515159899</v>
+        <v>0.1552307312305929</v>
       </c>
       <c r="DB4">
         <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01159493243113476</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.000405818439249755</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.001929670133985128</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.03441285199546874</v>
+        <v>0.0153180969562129</v>
       </c>
       <c r="DG4">
-        <v>0.01331926792738105</v>
+        <v>0</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0005191458090729065</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.00251565119527002</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>8.937728095752285E-06</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.003630073828789623</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01291195591642602</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.005058945139367985</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>5.73313699938079E-05</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.00230926494892927</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
         <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0009756422040026806</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.00320870685989279</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.001661530424455381</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0006918893254232894</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.004147243707258446</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01414711712814703</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.004022104602762241</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.001647480574732528</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.003858130263715209</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.002630832133420578</v>
+        <v>0</v>
       </c>
       <c r="EB4">
         <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.009438278148896258</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.007137465841375016</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.001012857417996397</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.006138027070918965</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.008764070892711546</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.004369979523492358</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.001236969490579231</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0003908322529937669</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0009668130562088834</v>
+        <v>0</v>
       </c>
       <c r="EL4">
         <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.000822482270961327</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0009303493633867708</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002542146811801728</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.002430685985182111</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0005729488811572629</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>6.473519188746978E-05</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0002382322829134737</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.001761412553350345</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.007010490842988965</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01292320830112428</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01816422153035932</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.007756977353997802</v>
+        <v>0</v>
       </c>
       <c r="EY4">
         <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01275407006354289</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.05048004056683906</v>
+        <v>0.07823932598492458</v>
       </c>
       <c r="FB4">
-        <v>0.05989576207748358</v>
+        <v>0.1151125329563981</v>
       </c>
       <c r="FC4">
-        <v>0.05029870594569785</v>
+        <v>0.07752919569816166</v>
       </c>
       <c r="FD4">
-        <v>0.02506956298621678</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.001464196657240827</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.001024697963024315</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.004237174412656775</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.007278954311435625</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.007140572660139083</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001930386510610371</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.00560344143509819</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.0112341169615085</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.03183566154506309</v>
+        <v>0.005225479329907614</v>
       </c>
       <c r="FN4">
-        <v>0.02939826465767115</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.01157199244148387</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.000789899598567013</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0009455076966213006</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.005595978020722283</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00654620819424578</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.004750242902132391</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.004539763439948751</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002528475991924805</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003640251239892509</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.005443385815134791</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.006036768277017563</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.006473639507736072</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.00396916966227163</v>
+        <v>0</v>
       </c>
       <c r="GB4">
         <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.000454932023309879</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002604726580487726</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.004442224451085153</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.003646312448167239</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.002728715620570016</v>
+        <v>0</v>
       </c>
       <c r="GH4">
         <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.000546669505750054</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.002025980187534257</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.001992358196912819</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001382024927766726</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.007202506239128182</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.007550543805549596</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.002685614205882723</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
         <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0002234345899366603</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001054806827146577</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.919331536163359E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4325,64 +4325,64 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.485110277302901E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6.068727765612175E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001185089463339296</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.468593106495059E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.150290488080237E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.715582477701641E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.031462524849712E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>7.896847098155386E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7.369946777437882E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>7.631748768711554E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>9.078364059324417E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001689478280741121</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.600447013384365E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.568270730557625E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.30440394804568E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.076356319384226E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.285658814922839E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3.19395707836252E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.84938389051223E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.612825456357841E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4391,187 +4391,187 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.992512104535653E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>9.485110277302901E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.916395358790282E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001331154965312097</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000101995302664964</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001028284272485926</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001632645888723593</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0002738273931192738</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001809805580061488</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001434842285513793</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>8.536917527056881E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>6.604313829848066E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>6.920916980442578E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001308855029975197</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001108079119287728</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>5.576909908281065E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>3.551853055490596E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>6.604313829848066E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>5.1048845880612E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.344500587408378E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>2.031462524849712E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>2.513813603125743E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.709893325116346E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>5.22480275923533E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.600447013384365E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001847259565903764</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>9.216381023110038E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1.065425323823391E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.994968114147959E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.766437776480636E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>4.5406250343394E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>6.695882892424058E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>4.673507134719569E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>7.853395968065332E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>5.851479019011779E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.285658814922839E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>3.671780131630492E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>7.926821913312598E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001359707987620685</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002445941014652588</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0002395117073187684</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001831889194769344</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>6.554457227810362E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.616476232004527E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.660330606874014E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1.977604391397858E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>6.715582477701641E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0003445413460510274</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0005229959895060774</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0002489363128562056</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0003914222687307665</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0005981110166530457</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0003127678278649799</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.000177294762659073</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0002129599610018105</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>4.329916835010065E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>3.219702635115895E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.992512104535653E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -4580,337 +4580,337 @@
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0007477276588838529</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08934721653166872</v>
+        <v>0.3548620054769024</v>
       </c>
       <c r="CO5">
-        <v>0.0001689478280741121</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.04492035733599645</v>
+        <v>0.08915314127084149</v>
       </c>
       <c r="CQ5">
-        <v>0.02431552525654964</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0003142118631168598</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.002979278010718008</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.006247835489250887</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.003861586821441159</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>4.904926083191946E-05</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.03334256609599152</v>
+        <v>0.01990850376794411</v>
       </c>
       <c r="CX5">
-        <v>0.01431287637899945</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.004391436786998736</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01514794204505338</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.05322863936674534</v>
+        <v>0.1388434462318764</v>
       </c>
       <c r="DB5">
-        <v>0.01669969536484135</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01844416114881614</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.03429262588737444</v>
+        <v>0.02559063643873153</v>
       </c>
       <c r="DE5">
-        <v>8.844111430678507E-05</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001371190576772194</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.0303357063505938</v>
+        <v>0.001925029305847042</v>
       </c>
       <c r="DH5">
-        <v>0.01780474758620959</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0007291930232288292</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.00355678285054172</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.003852759699084269</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.02369287904408895</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001278755331177865</v>
+        <v>0</v>
       </c>
       <c r="DN5">
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.009371362793150949</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0004591806235026352</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.003467737895509167</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0006465476468575957</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0001340639654354503</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001118754808479508</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.00405763404522346</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.003903918527295432</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0132572997472011</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.005155285739761601</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.005635338436367979</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.003261645570176006</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.000985648883285659</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0002778937806998191</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005005576255758504</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.006770198779938769</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.001377215936754193</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002346944796397183</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.006815373971434497</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.008793007278957144</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001165828058408622</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>5.246828841860993E-05</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0004434104694332418</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0005105041635637218</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>6.288435283321799E-05</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0006768936089812192</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0001137396517843119</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>5.688980403276713E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0001340639654354503</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.001169619672764615</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001921907378513198</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.004555741910114657</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01187658280414561</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0139102038326634</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01474100211905554</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.009200129306502091</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>1.335590578787787E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01399061167129399</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.05208078127510977</v>
+        <v>0.1319783183493288</v>
       </c>
       <c r="FB5">
-        <v>0.05188179431201111</v>
+        <v>0.1307882139639639</v>
       </c>
       <c r="FC5">
-        <v>0.04770682618260389</v>
+        <v>0.1058184983494657</v>
       </c>
       <c r="FD5">
-        <v>0.02513574964651374</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001264986953379078</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0008723186858294763</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.004078354199611244</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.007121163992194822</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.008604553189410545</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.002877091027164104</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.003599291855264942</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01076885308970001</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.03020314542931596</v>
+        <v>0.00113220684509845</v>
       </c>
       <c r="FN5">
-        <v>0.02830102373008981</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.00920791965070997</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0004920298615531542</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001669465306705419</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.005657519005141305</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.007111812077192538</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.006204584870974252</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.007572713794445967</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.004045408827952775</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.005208687518731923</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.007449560619304085</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.005498319429082866</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.004855891785704187</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.003003200050605359</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>1.963515835054693E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0008585629550831915</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002751063549195871</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.00503644847134213</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.004246008290245554</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.004576320185384963</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0001964292528169875</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.000217456068211228</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0007740903097536175</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0006060984707773069</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>4.405545008307875E-05</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002685422445087754</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.01122435709697421</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.009715329602817482</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.002124662242744406</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0002285777601119779</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.000152847750025897</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001889578550664246</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,34 +5086,34 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.187944470858442E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.13229138962824E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.378861573934839E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.988683395174589E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001017856141883449</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7.860879224665321E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.926807798271082E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001295681048751067</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.852317717833347E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.819900558208487E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5125,565 +5125,565 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.079313154484049E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.627124489253103E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.978378748611672E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>6.689713077128359E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>5.348395299273024E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.148463107595236E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.393178264544586E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>5.02585312403926E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3.469174908015349E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.872206330095893E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.359990596174647E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001310923514488212</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001649349689713283</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.000303716754692244</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002616780443929254</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0003329106547505803</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.000362385617438028</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002779976734527789</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>9.022300213789154E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.987772272168266E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>4.512692545110911E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>4.846469872824325E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.18879387455726E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0001606457527778856</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0001679728282358292</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002112935466562735</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002449173842920114</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0003361965545862948</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0003281534776827354</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0003668683142803049</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0004629121843893398</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0003518831024786043</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>8.446877700116383E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.008766138010586E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>7.35878903805498E-07</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1.652429629343294E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5.324277092587734E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>3.940522719146553E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>4.035290823413812E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>5.340930323461213E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>4.035290823413812E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>9.092816562606219E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>6.784762784221981E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>8.691016846737423E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0001008970697392085</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0003581981884118407</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0002446956233167073</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.267428027877126E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001285672894305789</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00035959129710098</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0002183734518607972</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>2.796431057770789E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>5.552050313243753E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>3.424966965627937E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.852317717833347E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0001396338903641747</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0003308237427213917</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0003933846366297869</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0003725235992893644</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0004341192107279828</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0002724334717024771</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0002607174536363125</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.000253927844432436</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0001214975879519127</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>3.961397441484008E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>6.388985267339695E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.000119065789988739</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>6.051460621305097E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>3.287833041618405E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.121807074230728E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1.978378748611672E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001059770046610416</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001213408107052074</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0001742986580921745</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0002926008157430312</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.006860999665372955</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.08983108562434215</v>
+        <v>0.2916869315461472</v>
       </c>
       <c r="CP6">
-        <v>0.01082769829256781</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.06748942764007264</v>
+        <v>0.1827508943679607</v>
       </c>
       <c r="CR6">
-        <v>0.02382045705647553</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.000339915312478731</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.001277755361744341</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.003979832316419063</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.001248259091276426</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01227409293890236</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01188311417426897</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0004484900982111423</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.00397778516890976</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.06800120451374549</v>
+        <v>0.1852462751752676</v>
       </c>
       <c r="DB6">
-        <v>0.04044908894771509</v>
+        <v>0.05090448694486678</v>
       </c>
       <c r="DC6">
-        <v>0.009210034107714309</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01471894066715568</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.001605916688793247</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.007197348482057264</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.037317520465596</v>
+        <v>0.03563522354309256</v>
       </c>
       <c r="DH6">
-        <v>0.0062795600545766</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0001334282543962396</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001356171195032654</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0006897582565000625</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>1.872206330095893E-06</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.004634153239591291</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0073616388721627</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.00129405451332691</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.000363786809078631</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.003752040538987097</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0006947003310826378</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.00318538152527804</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.006465824068279738</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002323542027368344</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002255082029421158</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01037873185392249</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01392291400058883</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.00334467699150315</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0003356000567770459</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.005698159157916586</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0005675327262423673</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001393591158811595</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.02004370298692255</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.01007049430197573</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.00277388376820081</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.01443554318548036</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.01191666042357358</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.005406783963205116</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.00319861465731347</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.001186161616584061</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001551968389746054</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>4.563102552162206E-05</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001148685432276375</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0004622127089781522</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.003113328415317604</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.002154310332961597</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0006107661127738543</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.001014748925793528</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.002851934068015755</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.00721950627290304</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01479519451100052</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.02257003546907062</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.02401679574891508</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.008748232482342006</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>2.877076905341616E-05</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01674897592797598</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0484101959202189</v>
+        <v>0.08972217208474381</v>
       </c>
       <c r="FC6">
-        <v>0.05000877463607502</v>
+        <v>0.09751670687465835</v>
       </c>
       <c r="FD6">
-        <v>0.04365521965599031</v>
+        <v>0.06653730946326294</v>
       </c>
       <c r="FE6">
-        <v>0.01580159999671385</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0002240616989058378</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001060863564404908</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.002959706020596233</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.003639426418304571</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.002004591663672963</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0004145230752623954</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.002085055444762802</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.009213960541438904</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.02595560569910778</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.01722032203848621</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.004355348434917153</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0002607174536363125</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002502624318688745</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.01124768715014296</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.007264404967516396</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.004925760419011227</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.004442651313281277</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001996197398534153</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003211075207243041</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.003254877301436295</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.002811688772576081</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002691422557756092</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0007808219481130011</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001306116017546228</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.003336196294804136</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.006181457232647955</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.009057958577825636</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.006551638703216581</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.005197437521027756</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>5.175570192743445E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001040378575877495</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001173554513140948</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001156641837532063</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>4.910406569102513E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.00196942822385646</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.007046037131206099</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.00416028670875772</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0001294062857873894</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0005245213507775043</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.003118211698432665</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001171437734980022</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002772677187332544</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004248917320516386</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0005691160746525446</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0007566904216589664</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001016342392897543</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001244650937930015</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001411664874080507</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001605700730851296</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001714099696383008</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001767842413839144</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001771175843191892</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001771175843191892</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001771175843191892</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001771175843191892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001779816961921772</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.001798832391827754</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001851422357898087</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.001979066761457203</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002201202306032687</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.002394388805491796</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.002654563649817168</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.002894443657545</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.003171051524511949</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.003472228202474331</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003643318723504215</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.00372797755678379</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003730291228715646</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.003730291228715646</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.003745488150080813</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.00378761936957217</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.003847661600497682</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.003961017298423671</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00408330589773475</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004281270282236208</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.004555404736256128</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.004849586074177711</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.005106238527261684</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.005315882085133607</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.005530631753415226</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.005667348279710485</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.005761064461031684</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.005826191223207578</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.005861842508845473</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.005872634177673689</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.005872634177673689</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.005872634177673689</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.005903566516942254</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.005929403605927069</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.006031612429754445</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.006221239513678407</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.006578164621358911</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.006995520220925045</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.007522929132733938</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.007947927807356685</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.008256840441320155</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.008446467525244118</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.008512632774830716</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.008527969018613251</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.008527969018613251</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.008527969018613251</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.008529987222671818</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.008549734444748299</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.008619346980295447</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.008699413325181968</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.008851630442297208</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.008949970147375532</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.009148922700270522</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.009491734867647539</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01000778048335102</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0104490584397372</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01081022511054872</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01108901361835826</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01127435181810117</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01133365744069603</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01137331947901707</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01138029948379553</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01138029948379553</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01138862062256834</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01142232445337026</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01156273979666991</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01183779805685163</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01211285631703336</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01238023098557324</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01272884321870356</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01310992397628098</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01355925061386505</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01388266753491691</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01413685458030656</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01423426098299205</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1245656555001618</v>
+        <v>0.3526106786218914</v>
       </c>
       <c r="CO2">
-        <v>0.1245656555001618</v>
+        <v>0.3526106786218914</v>
       </c>
       <c r="CP2">
-        <v>0.1811045967266837</v>
+        <v>0.4690542137046623</v>
       </c>
       <c r="CQ2">
-        <v>0.2225037728915432</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CR2">
-        <v>0.2237488137425173</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CS2">
-        <v>0.2244363103569806</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CT2">
-        <v>0.2486311988093471</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CU2">
-        <v>0.2553194988925518</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CV2">
-        <v>0.2641763386780957</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CW2">
-        <v>0.2762544986551854</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CX2">
-        <v>0.2762836355503608</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CY2">
-        <v>0.2770417056020736</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="CZ2">
-        <v>0.3286249421086336</v>
+        <v>0.6137153449869147</v>
       </c>
       <c r="DA2">
-        <v>0.3821908525604295</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DB2">
-        <v>0.3822854848528633</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DC2">
-        <v>0.3972258568902123</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DD2">
-        <v>0.4007188456477686</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DE2">
-        <v>0.4016435557615117</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DF2">
-        <v>0.4253933371537991</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DG2">
-        <v>0.446417823324759</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DH2">
-        <v>0.446417823324759</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DI2">
-        <v>0.4464725147257004</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DJ2">
-        <v>0.4468873111060171</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DK2">
-        <v>0.4469010750731395</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DL2">
-        <v>0.4487692554013958</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DM2">
-        <v>0.4528438932120052</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DN2">
-        <v>0.453425839068608</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DO2">
-        <v>0.4535241787736863</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DP2">
-        <v>0.4578123382880399</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DQ2">
-        <v>0.4590741370348234</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DR2">
-        <v>0.4617070904742514</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DS2">
-        <v>0.4688649129378166</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DT2">
-        <v>0.470570684500437</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DU2">
-        <v>0.471964390799274</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DV2">
-        <v>0.4757760306419459</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DW2">
-        <v>0.490250760144722</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DX2">
-        <v>0.4933930303758891</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DY2">
-        <v>0.4937101908917573</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="DZ2">
-        <v>0.4966478647756146</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EA2">
-        <v>0.4973667883110697</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EB2">
-        <v>0.4983106655114295</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EC2">
-        <v>0.512021969086998</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="ED2">
-        <v>0.5224049617683305</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EE2">
-        <v>0.5242035958633444</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EF2">
-        <v>0.5345040613939155</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EG2">
-        <v>0.5489080524811906</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EH2">
-        <v>0.5543483842013138</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EI2">
-        <v>0.556355447058303</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EJ2">
-        <v>0.5570904153216174</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EK2">
-        <v>0.5583004825243901</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EL2">
-        <v>0.5584196713397566</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EM2">
-        <v>0.5597331119717206</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EN2">
-        <v>0.5604740074242012</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EO2">
-        <v>0.562263196721946</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EP2">
-        <v>0.5642282687263465</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EQ2">
-        <v>0.5661099024821624</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="ER2">
-        <v>0.5687155496043613</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="ES2">
-        <v>0.5717918579541833</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="ET2">
-        <v>0.5776422555418645</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EU2">
-        <v>0.5890446901370666</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EV2">
-        <v>0.6048513906218242</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EW2">
-        <v>0.6272503456600472</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EX2">
-        <v>0.6387793973359235</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EY2">
-        <v>0.6391310609312262</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="EZ2">
-        <v>0.647943463058693</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="FA2">
-        <v>0.6925046540014406</v>
+        <v>0.7809634074428256</v>
       </c>
       <c r="FB2">
-        <v>0.752019916161549</v>
+        <v>0.910474002496684</v>
       </c>
       <c r="FC2">
-        <v>0.8018885386122254</v>
+        <v>0.9976325722094027</v>
       </c>
       <c r="FD2">
-        <v>0.8324440446278425</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8358892202124544</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8362994729114031</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8390309359886119</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.843797996136932</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8493076316312064</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8498436209330976</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8528064931510163</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.859980018618216</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8863319984610326</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.909823062093871</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9181702799874821</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9186063861003274</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9198703379598908</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9255930424608692</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9323631355130968</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9360675888245842</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9405253746404099</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.943634719167148</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9466643891148595</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9509383002800601</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9543359919077449</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9579422888132268</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9594514632772999</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9596694401131098</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9604371363511114</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9635495724063774</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.969364550053019</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9745586720209087</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9784654018575385</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9787633503473029</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9789121161798339</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9795363035535005</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9811341990324818</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9811757065066984</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9829007001820411</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9895197524277979</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9955147014639127</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9968645646948172</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9968645646948172</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9977213514401719</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.599912552283884E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.558786631397667E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002327680852135768</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0005469866512227061</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0008864137709512675</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001399829940895945</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001712455154636011</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002011309482499875</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.002122952820363865</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002125628531079216</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002125628531079216</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.002125628531079216</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002125628531079216</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002159531729192707</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.002195098151227502</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002205727058148501</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002206581515143306</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.00220843658459401</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0022461327120415</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002319555729755828</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002389292317817031</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0026187110933419</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002934494991708564</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003107979499186179</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.00326320345033495</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003506131675954348</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003755779276500486</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003837052146482122</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003837052146482122</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003837052146482122</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01659489492911782</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.05719152653062454</v>
+        <v>0.1497900247904029</v>
       </c>
       <c r="AH3">
-        <v>0.06919290725568311</v>
+        <v>0.1497900247904029</v>
       </c>
       <c r="AI3">
-        <v>0.1229859965328364</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AJ3">
-        <v>0.1382548887190915</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AK3">
-        <v>0.1406076343245591</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AL3">
-        <v>0.1406897503837284</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AM3">
-        <v>0.1497865385452621</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AN3">
-        <v>0.1505893736522869</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AO3">
-        <v>0.1512173749788128</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AP3">
-        <v>0.1558063157708109</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AQ3">
-        <v>0.1803399256570014</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AR3">
-        <v>0.1982877665595986</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AS3">
-        <v>0.2188158510366235</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AT3">
-        <v>0.2349336444696547</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AU3">
-        <v>0.2395225852616528</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AV3">
-        <v>0.2417669319365994</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AW3">
-        <v>0.2641027520279248</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AX3">
-        <v>0.2780470749478753</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AY3">
-        <v>0.2789332749257007</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="AZ3">
-        <v>0.279758497871987</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BA3">
-        <v>0.3049342810998303</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BB3">
-        <v>0.3081973353894686</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BC3">
-        <v>0.3221811033398732</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BD3">
-        <v>0.3225986700672223</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BE3">
-        <v>0.3483312409598912</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BF3">
-        <v>0.3551930338876056</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BG3">
-        <v>0.3576912073371059</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BH3">
-        <v>0.3578283662808869</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BI3">
-        <v>0.3584263727324346</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BJ3">
-        <v>0.3613363130920139</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BK3">
-        <v>0.3678160415167938</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BL3">
-        <v>0.3689427731914157</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BM3">
-        <v>0.3707636506403755</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BN3">
-        <v>0.3802288365929958</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BO3">
-        <v>0.3945238567256358</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BP3">
-        <v>0.4066405138685001</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BQ3">
-        <v>0.4085405847939816</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BR3">
-        <v>0.4107520882298435</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BS3">
-        <v>0.4139552257413806</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BT3">
-        <v>0.4148182235012302</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BU3">
-        <v>0.4156609265892665</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BV3">
-        <v>0.4241287768145001</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BW3">
-        <v>0.4324062297394758</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BX3">
-        <v>0.4364628975873156</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BY3">
-        <v>0.4415914688518838</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="BZ3">
-        <v>0.4465342534926361</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CA3">
-        <v>0.4563843799919671</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CB3">
-        <v>0.4608799314195521</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CC3">
-        <v>0.4609861162324754</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CD3">
-        <v>0.4612498685161009</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CE3">
-        <v>0.4612498685161009</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CF3">
-        <v>0.4613173233717159</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CG3">
-        <v>0.4621651884279535</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CH3">
-        <v>0.4632457708079326</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CI3">
-        <v>0.4634066841620887</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CJ3">
-        <v>0.4640436676615324</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CK3">
-        <v>0.4659741157736708</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CL3">
-        <v>0.4688515455305437</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CM3">
-        <v>0.4767525439391573</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CN3">
-        <v>0.4918502985114859</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CO3">
-        <v>0.5108501379860172</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CP3">
-        <v>0.5257342337279637</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CQ3">
-        <v>0.5331709016737509</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CR3">
-        <v>0.5333935401310415</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CS3">
-        <v>0.5494888485857822</v>
+        <v>0.4864319244680942</v>
       </c>
       <c r="CT3">
-        <v>0.5982185697288598</v>
+        <v>0.7513803551595919</v>
       </c>
       <c r="CU3">
-        <v>0.6397129262722697</v>
+        <v>0.9138814871766904</v>
       </c>
       <c r="CV3">
-        <v>0.675812742343694</v>
+        <v>1</v>
       </c>
       <c r="CW3">
-        <v>0.6942162510532554</v>
+        <v>1</v>
       </c>
       <c r="CX3">
-        <v>0.6957311402606448</v>
+        <v>1</v>
       </c>
       <c r="CY3">
-        <v>0.6964783776888095</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
-        <v>0.6997515656796653</v>
+        <v>1</v>
       </c>
       <c r="DA3">
-        <v>0.7054308993273694</v>
+        <v>1</v>
       </c>
       <c r="DB3">
-        <v>0.7104050731739403</v>
+        <v>1</v>
       </c>
       <c r="DC3">
-        <v>0.7144730380496817</v>
+        <v>1</v>
       </c>
       <c r="DD3">
-        <v>0.7190438049269202</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.7315577018565895</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.7600971763930173</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.7777762853291235</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.7811241648973584</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.781700962077159</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.7862658002413314</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.794344959254554</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7993746528546095</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.8039925642337057</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.8106556363463006</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.8165530106381941</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.8207723477821988</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.8247087588731009</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.8298069268324518</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.8336069327910469</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.8339259553608804</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.8346848847175713</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.8376141766287633</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.8428618931604214</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.8520076581258844</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.8586486845723732</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8625962245717078</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8627873983595538</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8628078526345845</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8641707128069986</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8644695671348626</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8651133630253321</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8679168295223836</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8765292524839925</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8821816363806463</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8824926405024048</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8827663607694854</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8837731698246147</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8855941237279046</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8883693116296015</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.88918682420674</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8892122333067718</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8892122333067718</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.889698545986416</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8909952455437292</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8926848765262366</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8941927998835489</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8966001527940965</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.898480830938667</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.898916530851833</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.898916530851833</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.898916530851833</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.898916530851833</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8990253097481656</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8992832411353419</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8992832411353419</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9022028489648252</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9091016131650902</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9161893616615031</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9281831945228937</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9347116465716881</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.938275277757483</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9390200652146478</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9393707708991577</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9416225480543572</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9437932641058605</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9443031257198643</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9449897746625987</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.94779689285462</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9501074789006331</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9521578641425754</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9541498679974972</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9556551834015441</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9560550709657144</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9561792901442308</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9564100769819289</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9569559940877105</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9582712480301534</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9594389579247457</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9606189497471297</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9637741305796592</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.968469802717158</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9711955905141192</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9726440309016035</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9727446609572014</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9741241097178093</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9762224216174255</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9802905006743063</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9862619985399438</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9907216110285758</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9925159080889621</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9933540617440773</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9940336757876669</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9943603784451295</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9946518547099893</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9962079201780809</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9977227394357626</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8194,769 +8194,769 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.42387569771985E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.42387569771985E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001084285469864371</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001084285469864371</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001084285469864371</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001084285469864371</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001084285469864371</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002272818552536516</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0004631763719820917</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006273947510811381</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0007183017086354622</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001153210177738336</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.00143283476744354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001567804230647315</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001632008801183361</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001869526004959204</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001869526004959204</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001869526004959204</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001869526004959204</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001869526004959204</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001869526004959204</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001894123325598398</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002028314010174264</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002399528250463293</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002850404143599842</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003164822906928441</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003590658515111517</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00386421423421357</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.00393717252458243</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003967589557337376</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.004042470479153817</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004092750422846297</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004137535383901539</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004137535383901539</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.00415123480980457</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004265044109436135</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.004291341159280903</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.004291341159280903</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004320930343856728</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.004430739080520677</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00446640797534026</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1101832107243765</v>
+        <v>0.2945537700852151</v>
       </c>
       <c r="CO4">
-        <v>0.1103430589506506</v>
+        <v>0.2945537700852151</v>
       </c>
       <c r="CP4">
-        <v>0.1622619049857847</v>
+        <v>0.3784276480016248</v>
       </c>
       <c r="CQ4">
-        <v>0.2074565888963464</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CR4">
-        <v>0.2117725126339466</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CS4">
-        <v>0.2142729844501201</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CT4">
-        <v>0.2172062694257155</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CU4">
-        <v>0.21875543446014</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CV4">
-        <v>0.2232032656923423</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CW4">
-        <v>0.2443547399491438</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CX4">
-        <v>0.2465816593869903</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CY4">
-        <v>0.2480307436849672</v>
+        <v>0.4359688204053664</v>
       </c>
       <c r="CZ4">
-        <v>0.3085044445459886</v>
+        <v>0.5533446378438023</v>
       </c>
       <c r="DA4">
-        <v>0.3786445496975875</v>
+        <v>0.7085753690743952</v>
       </c>
       <c r="DB4">
-        <v>0.3786445496975875</v>
+        <v>0.7085753690743952</v>
       </c>
       <c r="DC4">
-        <v>0.3902394821287223</v>
+        <v>0.7085753690743952</v>
       </c>
       <c r="DD4">
-        <v>0.390645300567972</v>
+        <v>0.7085753690743952</v>
       </c>
       <c r="DE4">
-        <v>0.3925749707019572</v>
+        <v>0.7085753690743952</v>
       </c>
       <c r="DF4">
-        <v>0.4269878226974259</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DG4">
-        <v>0.4403070906248069</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DH4">
-        <v>0.4403070906248069</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DI4">
-        <v>0.4408262364338799</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DJ4">
-        <v>0.4433418876291499</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DK4">
-        <v>0.4433508253572456</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DL4">
-        <v>0.4469808991860352</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DM4">
-        <v>0.4598928551024613</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DN4">
-        <v>0.4649518002418292</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DO4">
-        <v>0.4650091316118231</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DP4">
-        <v>0.4673183965607523</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DQ4">
-        <v>0.4673183965607523</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DR4">
-        <v>0.468294038764755</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DS4">
-        <v>0.4715027456246478</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DT4">
-        <v>0.4731642760491032</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DU4">
-        <v>0.4738561653745265</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DV4">
-        <v>0.4780034090817849</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DW4">
-        <v>0.4921505262099319</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DX4">
-        <v>0.4961726308126942</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DY4">
-        <v>0.4978201113874267</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="DZ4">
-        <v>0.5016782416511419</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EA4">
-        <v>0.5043090737845625</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EB4">
-        <v>0.5043090737845625</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EC4">
-        <v>0.5137473519334588</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="ED4">
-        <v>0.5208848177748338</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EE4">
-        <v>0.5218976751928301</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EF4">
-        <v>0.5280357022637491</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EG4">
-        <v>0.5367997731564607</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EH4">
-        <v>0.541169752679953</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EI4">
-        <v>0.5424067221705323</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EJ4">
-        <v>0.5427975544235261</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EK4">
-        <v>0.543764367479735</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EL4">
-        <v>0.543764367479735</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EM4">
-        <v>0.5445868497506964</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EN4">
-        <v>0.5455171991140831</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EO4">
-        <v>0.5480593459258849</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EP4">
-        <v>0.550490031911067</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EQ4">
-        <v>0.5510629807922243</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="ER4">
-        <v>0.5511277159841117</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="ES4">
-        <v>0.5513659482670251</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="ET4">
-        <v>0.5531273608203755</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EU4">
-        <v>0.5601378516633645</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EV4">
-        <v>0.5730610599644888</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EW4">
-        <v>0.5912252814948481</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EX4">
-        <v>0.5989822588488459</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EY4">
-        <v>0.5989822588488459</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="EZ4">
-        <v>0.6117363289123888</v>
+        <v>0.7238934660306081</v>
       </c>
       <c r="FA4">
-        <v>0.6622163694792279</v>
+        <v>0.8021327920155327</v>
       </c>
       <c r="FB4">
-        <v>0.7221121315567115</v>
+        <v>0.9172453249719308</v>
       </c>
       <c r="FC4">
-        <v>0.7724108375024094</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FD4">
-        <v>0.7974804004886261</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FE4">
-        <v>0.798944597145867</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FF4">
-        <v>0.7999692951088913</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FG4">
-        <v>0.8042064695215481</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FH4">
-        <v>0.8114854238329837</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FI4">
-        <v>0.8186259964931228</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FJ4">
-        <v>0.8205563830037332</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FK4">
-        <v>0.8261598244388314</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FL4">
-        <v>0.8373939414003398</v>
+        <v>0.9947745206700924</v>
       </c>
       <c r="FM4">
-        <v>0.869229602945403</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8986278676030741</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.910199860044558</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.910989759643125</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9119352673397463</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9175312453604686</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9240774535547144</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9288276964568468</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9333674598967956</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9358959358887204</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.939536187128613</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9449795729437478</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9510163412207654</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9574899807285014</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9614591503907731</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9614591503907731</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.961914082414083</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9645188089945708</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9689610334456559</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9726073458938231</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9753360615143931</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9753360615143931</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9758827310201432</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9779087112076775</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9799010694045903</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9799010694045903</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9812830943323571</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9884856005714853</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9960361443770349</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9987217585829177</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9987217585829177</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9989451931728544</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.919331536163359E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.919331536163359E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.919331536163359E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.919331536163359E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.86784256389365E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.936570329505825E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002178746496289879</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002725605806939384</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002940634855747408</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0003612193103517572</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0003815339356002543</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0003894307826984097</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003968007294758476</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0004044324782445591</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0004952161188378032</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0006641639469119154</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.000690168417045759</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0007058511243513353</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.000711155528299381</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0007219190914932233</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0007547756796424516</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0007579696367208141</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0007764634756259364</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0008625917301895149</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0008625917301895149</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0008625917301895149</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0008825168512348714</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0008920019615121743</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0008939183568709646</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001027033853402174</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001129029156067138</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001231857583315731</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00139512217218809</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001668949565307364</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001849930123313513</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001993414351864892</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002001951269391949</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002001951269391949</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002008555583221797</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.002077764753026223</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.002208650256023743</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.002319458167952515</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.002375227267035326</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002410745797590232</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002410745797590232</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.00241735011142008</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002468398957300692</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002491843963174775</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002512158588423272</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00253729672445453</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002584395657705693</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002636643685298047</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.002636643685298047</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.002662648155431891</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.002847374112022267</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.002939537922253367</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.002950192175491601</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.002980141856633081</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.003007806234397887</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.003012346859432226</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.003019042742324651</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.003065777813671846</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0031443117733525</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.003202826563542617</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.003235683151691846</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.003272400953008151</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.003351669172141277</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.003487639970903345</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.003732234072368604</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.003971745779687372</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.004154934699164307</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00422047927144241</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.004266644033762455</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.004293247339831195</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.004313023383745174</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.004380179208522191</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.004724720554573218</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.005247716544079295</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0054966528569355</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.005888075125666267</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.006486186142319312</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.006798953970184292</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.006976248732843365</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.007189208693845176</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.007232507862195276</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.007264704888546435</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008032357668475643</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.09737957420014436</v>
+        <v>0.3548620054769024</v>
       </c>
       <c r="CO5">
-        <v>0.09754852202821847</v>
+        <v>0.3548620054769024</v>
       </c>
       <c r="CP5">
-        <v>0.1424688793642149</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CQ5">
-        <v>0.1667844046207646</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CR5">
-        <v>0.1670986164838814</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CS5">
-        <v>0.1700778944945995</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CT5">
-        <v>0.1763257299838503</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CU5">
-        <v>0.1801873168052915</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CV5">
-        <v>0.1802363660661234</v>
+        <v>0.4440151467477439</v>
       </c>
       <c r="CW5">
-        <v>0.2135789321621149</v>
+        <v>0.463923650515688</v>
       </c>
       <c r="CX5">
-        <v>0.2278918085411144</v>
+        <v>0.463923650515688</v>
       </c>
       <c r="CY5">
-        <v>0.2322832453281131</v>
+        <v>0.463923650515688</v>
       </c>
       <c r="CZ5">
-        <v>0.2474311873731665</v>
+        <v>0.463923650515688</v>
       </c>
       <c r="DA5">
-        <v>0.3006598267399118</v>
+        <v>0.6027670967475645</v>
       </c>
       <c r="DB5">
-        <v>0.3173595221047532</v>
+        <v>0.6027670967475645</v>
       </c>
       <c r="DC5">
-        <v>0.3358036832535693</v>
+        <v>0.6027670967475645</v>
       </c>
       <c r="DD5">
-        <v>0.3700963091409437</v>
+        <v>0.628357733186296</v>
       </c>
       <c r="DE5">
-        <v>0.3701847502552505</v>
+        <v>0.628357733186296</v>
       </c>
       <c r="DF5">
-        <v>0.3715559408320227</v>
+        <v>0.628357733186296</v>
       </c>
       <c r="DG5">
-        <v>0.4018916471826165</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DH5">
-        <v>0.4196963947688261</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DI5">
-        <v>0.4204255877920549</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DJ5">
-        <v>0.4239823706425966</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DK5">
-        <v>0.4278351303416809</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DL5">
-        <v>0.4515280093857699</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DM5">
-        <v>0.4528067647169478</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DN5">
-        <v>0.4528067647169478</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DO5">
-        <v>0.4621781275100987</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DP5">
-        <v>0.4626373081336013</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DQ5">
-        <v>0.4661050460291105</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DR5">
-        <v>0.4667515936759681</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DS5">
-        <v>0.4668856576414036</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DT5">
-        <v>0.4680044124498831</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DU5">
-        <v>0.4720620464951066</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DV5">
-        <v>0.475965965022402</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DW5">
-        <v>0.4892232647696031</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DX5">
-        <v>0.4943785505093647</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DY5">
-        <v>0.5000138889457326</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="DZ5">
-        <v>0.5032755345159087</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EA5">
-        <v>0.5042611833991943</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EB5">
-        <v>0.5045390771798942</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EC5">
-        <v>0.5095446534356527</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="ED5">
-        <v>0.5163148522155915</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EE5">
-        <v>0.5176920681523457</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EF5">
-        <v>0.5200390129487429</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EG5">
-        <v>0.5268543869201774</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EH5">
-        <v>0.5356473941991345</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EI5">
-        <v>0.5368132222575431</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EJ5">
-        <v>0.5368656905459618</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EK5">
-        <v>0.537309101015395</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EL5">
-        <v>0.5378196051789587</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EM5">
-        <v>0.5378824895317919</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EN5">
-        <v>0.5385593831407731</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EO5">
-        <v>0.5386731227925574</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EP5">
-        <v>0.5386788117729607</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EQ5">
-        <v>0.5388128757383962</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="ER5">
-        <v>0.5399824954111608</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="ES5">
-        <v>0.541904402789674</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="ET5">
-        <v>0.5464601446997887</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EU5">
-        <v>0.5583367275039343</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EV5">
-        <v>0.5722469313365977</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EW5">
-        <v>0.5869879334556531</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EX5">
-        <v>0.5961880627621552</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EY5">
-        <v>0.596189398352734</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="EZ5">
-        <v>0.610180010024028</v>
+        <v>0.630282762492143</v>
       </c>
       <c r="FA5">
-        <v>0.6622607912991377</v>
+        <v>0.7622610808414718</v>
       </c>
       <c r="FB5">
-        <v>0.7141425856111489</v>
+        <v>0.8930492948054357</v>
       </c>
       <c r="FC5">
-        <v>0.7618494117937528</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FD5">
-        <v>0.7869851614402665</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FE5">
-        <v>0.7882501483936456</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FF5">
-        <v>0.7891224670794751</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FG5">
-        <v>0.7932008212790863</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FH5">
-        <v>0.8003219852712812</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FI5">
-        <v>0.8089265384606917</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FJ5">
-        <v>0.8118036294878559</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FK5">
-        <v>0.8154029213431209</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FL5">
-        <v>0.8261717744328209</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="FM5">
-        <v>0.8563749198621369</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN5">
-        <v>0.8846759435922267</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO5">
-        <v>0.8938838632429367</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP5">
-        <v>0.8943758931044898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ5">
-        <v>0.8960453584111953</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR5">
-        <v>0.9017028774163366</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS5">
-        <v>0.9088146894935292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT5">
-        <v>0.9150192743645035</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU5">
-        <v>0.9225919881589495</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV5">
-        <v>0.9266373969869023</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW5">
-        <v>0.9318460845056342</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX5">
-        <v>0.9392956451249383</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY5">
-        <v>0.9447939645540212</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ5">
-        <v>0.9496498563397254</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA5">
-        <v>0.9526530563903308</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB5">
-        <v>0.9526726915486814</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC5">
-        <v>0.9535312545037646</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD5">
-        <v>0.9562823180529605</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE5">
-        <v>0.9613187665243026</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF5">
-        <v>0.9655647748145482</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG5">
-        <v>0.9701410949999332</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH5">
-        <v>0.9703375242527501</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI5">
-        <v>0.9705549803209613</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ5">
-        <v>0.9713290706307149</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK5">
-        <v>0.9719351691014922</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL5">
-        <v>0.9719792245515754</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM5">
-        <v>0.9746646469966631</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN5">
-        <v>0.9858890040936373</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO5">
-        <v>0.9956043336964548</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP5">
-        <v>0.9977289959391993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ5">
-        <v>0.9979575736993113</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR5">
-        <v>0.9981104214493371</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.187944470858442E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.320235860486681E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.858122017880165E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8.556990357397624E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001873555177623212</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002659643100089744</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0003452323879916852</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004748004928667919</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0004933236700451254</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0005021435706033339</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0005021435706033339</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0005021435706033339</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0005021435706033339</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0005042228837578179</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.000520494128650349</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0005402779161364657</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0006071750469077492</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0006606589999004794</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006721436309764317</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0006860754136218776</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0007363339448622702</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0007710256939424237</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0007710256939424237</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0007728979002725195</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0007742578908686942</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0009053502423175154</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001070285211288844</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001374001965981088</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001635680010374013</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001968590665124593</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.002330976282562621</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0026089739560154</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002699196958153292</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.002739074680874974</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002784201606326083</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.002789048076198908</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.00283093601494448</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002991581767722366</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.003159554595958195</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.003370848142614468</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00361576552690648</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.003951962081492774</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.00428011555917551</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.004646983873455815</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.005109896057845155</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.005461779160323759</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.005546247937324923</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.005586335598705029</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.005587071477608834</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.005603595773902267</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.005656838544828144</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.00569624377201961</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.005736596680253748</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.005741937610577209</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.005782290518811348</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.00587321868443741</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.005941066312279629</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.006027976480747004</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.006128873550486212</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.006487071738898053</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.00673176736221476</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.006804441642493531</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.00693300893192411</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00729260022902509</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.007510973680885887</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.007538937991463595</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.00753949319649492</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.007573742866151199</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.007592266043329532</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.007731899933693707</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.008062723676415098</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.008456108313044886</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00882863191233425</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.009262751123062232</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.009535184594764708</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.009795902048401021</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01004982989283346</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01017132748078537</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01021094145520021</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01027483130787361</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01039389709786235</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0104544117040754</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01045769953711701</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01046891760785932</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01048870139534544</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01048870139534544</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01059467840000648</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01071601921071169</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01089031786880386</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01118291868454689</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01804391834991985</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.107875003974262</v>
+        <v>0.2916869315461472</v>
       </c>
       <c r="CP6">
-        <v>0.1187027022668298</v>
+        <v>0.2916869315461472</v>
       </c>
       <c r="CQ6">
-        <v>0.1861921299069024</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CR6">
-        <v>0.210012586963378</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CS6">
-        <v>0.2103525022758567</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CT6">
-        <v>0.211630257637601</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CU6">
-        <v>0.2156100899540201</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CV6">
-        <v>0.2168583490452966</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CW6">
-        <v>0.2291324419841989</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CX6">
-        <v>0.2410155561584679</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CY6">
-        <v>0.241464046256679</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="CZ6">
-        <v>0.2454418314255888</v>
+        <v>0.4744378259141079</v>
       </c>
       <c r="DA6">
-        <v>0.3134430359393343</v>
+        <v>0.6596841010893755</v>
       </c>
       <c r="DB6">
-        <v>0.3538921248870494</v>
+        <v>0.7105885880342423</v>
       </c>
       <c r="DC6">
-        <v>0.3631021589947637</v>
+        <v>0.7105885880342423</v>
       </c>
       <c r="DD6">
-        <v>0.3778210996619193</v>
+        <v>0.7105885880342423</v>
       </c>
       <c r="DE6">
-        <v>0.3794270163507126</v>
+        <v>0.7105885880342423</v>
       </c>
       <c r="DF6">
-        <v>0.3866243648327699</v>
+        <v>0.7105885880342423</v>
       </c>
       <c r="DG6">
-        <v>0.4239418852983659</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DH6">
-        <v>0.4302214453529424</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DI6">
-        <v>0.4303548736073387</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DJ6">
-        <v>0.4317110448023713</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DK6">
-        <v>0.4324008030588714</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DL6">
-        <v>0.4324026752652015</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DM6">
-        <v>0.4370368285047928</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DN6">
-        <v>0.4443984673769554</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DO6">
-        <v>0.4456925218902824</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DP6">
-        <v>0.446056308699361</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DQ6">
-        <v>0.4498083492383481</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DR6">
-        <v>0.4505030495694307</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DS6">
-        <v>0.4536884310947087</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DT6">
-        <v>0.4601542551629885</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DU6">
-        <v>0.4624777971903568</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DV6">
-        <v>0.464732879219778</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DW6">
-        <v>0.4751116110737005</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DX6">
-        <v>0.4890345250742893</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DY6">
-        <v>0.4923792020657924</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="DZ6">
-        <v>0.4927148021225695</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EA6">
-        <v>0.4984129612804861</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EB6">
-        <v>0.4989804940067284</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EC6">
-        <v>0.5003740851655401</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="ED6">
-        <v>0.5204177881524626</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EE6">
-        <v>0.5304882824544384</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EF6">
-        <v>0.5332621662226391</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EG6">
-        <v>0.5476977094081195</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EH6">
-        <v>0.559614369831693</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EI6">
-        <v>0.5650211537948981</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EJ6">
-        <v>0.5682197684522117</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EK6">
-        <v>0.5694059300687957</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EL6">
-        <v>0.5709578984585417</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EM6">
-        <v>0.5710035294840633</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EN6">
-        <v>0.5721522149163397</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EO6">
-        <v>0.5726144276253179</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EP6">
-        <v>0.5757277560406355</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EQ6">
-        <v>0.5778820663735972</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="ER6">
-        <v>0.5784928324863711</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="ES6">
-        <v>0.5795075814121646</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="ET6">
-        <v>0.5823595154801804</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EU6">
-        <v>0.5895790217530834</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EV6">
-        <v>0.6043742162640839</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EW6">
-        <v>0.6269442517331546</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EX6">
-        <v>0.6509610474820697</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EY6">
-        <v>0.6597092799644118</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="EZ6">
-        <v>0.6597380507334651</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="FA6">
-        <v>0.6764870266614411</v>
+        <v>0.7462238115773349</v>
       </c>
       <c r="FB6">
-        <v>0.72489722258166</v>
+        <v>0.8359459836620786</v>
       </c>
       <c r="FC6">
-        <v>0.774905997217735</v>
+        <v>0.9334626905367369</v>
       </c>
       <c r="FD6">
-        <v>0.8185612168737253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8343628168704391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.834586878569345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.8356477421337499</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.8386074481543462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.8422468745726508</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.8442514662363237</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.8446659893115861</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.8467510447563489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.8559650052977877</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.8819206109968956</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.8991409330353818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9034962814702989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9037569989239352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.906259623242624</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.917507310392767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9247717153602834</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9296974757792946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9341401270925759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9361363244911101</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9393473996983531</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9426022769997894</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9454139657723655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9481053883301216</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9488862102782346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9501923262957809</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.953528522590585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9597099798232329</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9687679384010586</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9753195771042752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9805170146253029</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9805687703272303</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9806728081848181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.981846362697959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9830030045354911</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9830521086011821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9850215368250386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9920675739562447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9962278606650024</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9963572669507897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9968817883015673</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
         <v>0.9999999999999999</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.01413685458030656</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.512021969086998</v>
+        <v>0.5190290371050121</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.05719152653062454</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5108501379860172</v>
+        <v>0.7513803551595919</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5016782416511419</v>
+        <v>0.5533446378438023</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5000138889457326</v>
+        <v>0.6027670967475645</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>0.01118291868454689</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5003740851655401</v>
+        <v>0.6596841010893755</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>0.01413685458030656</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.752019916161549</v>
+        <v>0.7171062650136808</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.05719152653062454</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7054308993273694</v>
+        <v>0.7513803551595919</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7221121315567115</v>
+        <v>0.7085753690743952</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7141425856111489</v>
+        <v>0.7622610808414718</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.01118291868454689</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.72489722258166</v>
+        <v>0.7105885880342423</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>0.01413685458030656</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8018885386122254</v>
+        <v>0.910474002496684</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.05719152653062454</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8039925642337057</v>
+        <v>0.9138814871766904</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8042064695215481</v>
+        <v>0.8021327920155327</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8003219852712812</v>
+        <v>0.8930492948054357</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6">
-        <v>0.01118291868454689</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8185612168737253</v>
+        <v>0.8359459836620786</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E2">
-        <v>0.01413685458030656</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.909823062093871</v>
+        <v>0.910474002496684</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.05719152653062454</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9022028489648252</v>
+        <v>0.9138814871766904</v>
       </c>
       <c r="G3">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E4">
-        <v>0.004463373121164731</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.910199860044558</v>
+        <v>0.9172453249719308</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E5">
-        <v>0.007284630009591791</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9017028774163366</v>
+        <v>0.9988677931549014</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E6">
-        <v>0.01118291868454689</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9034962814702989</v>
+        <v>0.9334626905367369</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>31</v>

--- a/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/31_11R22.xlsx
@@ -1208,16 +1208,16 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.3521473861397433</v>
+        <v>0.283583469067571</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.156239490223702</v>
+        <v>0.1393825374979737</v>
       </c>
       <c r="BO2">
-        <v>0.1011016532883281</v>
+        <v>0.09879750944876775</v>
       </c>
       <c r="BP2">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03844498678015322</v>
+        <v>0.05267813464114625</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.005748385261645557</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.01156156956713486</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.0201969327842578</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.1381912023119532</v>
+        <v>0.126097825731043</v>
       </c>
       <c r="BY2">
-        <v>0.1454119453184119</v>
+        <v>0.1314127614220589</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.004740763832921538</v>
+        <v>0.02786963815817093</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.03682394177731027</v>
+        <v>0.05148494026563025</v>
       </c>
       <c r="CE2">
-        <v>0.02689863032747654</v>
+        <v>0.04417926659437715</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>0.00700702956022289</v>
       </c>
     </row>
     <row r="3" spans="1:95">
@@ -1315,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01136014060558081</v>
+        <v>0.03289943153416811</v>
       </c>
       <c r="E3">
-        <v>0.1833655807474954</v>
+        <v>0.1333189429292199</v>
       </c>
       <c r="F3">
-        <v>0.006686245127915038</v>
+        <v>0.03017073702432297</v>
       </c>
       <c r="G3">
-        <v>0.2649015457487841</v>
+        <v>0.1809209359812886</v>
       </c>
       <c r="H3">
-        <v>0.02687497354956526</v>
+        <v>0.04195723774265393</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01969334995376364</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1345,31 +1345,31 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00343273483729788</v>
       </c>
       <c r="O3">
-        <v>0.08411819113839016</v>
+        <v>0.07537673852244156</v>
       </c>
       <c r="P3">
-        <v>0.04342719340618817</v>
+        <v>0.05162068692852946</v>
       </c>
       <c r="Q3">
-        <v>0.05936955119267105</v>
+        <v>0.06092808893908711</v>
       </c>
       <c r="R3">
-        <v>0.03212001612446913</v>
+        <v>0.0450193770109441</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00343273483729788</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07053887188478355</v>
+        <v>0.06744891598729662</v>
       </c>
       <c r="V3">
-        <v>0.01869095659640158</v>
+        <v>0.0371792784931822</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.08808593948394744</v>
+        <v>0.0776931731065492</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01893467265275794</v>
+        <v>0.03732156380275289</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.09152612174105038</v>
+        <v>0.07970160621821809</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.01163132071784168</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.0102531454331442</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.3151472908636754</v>
+        <v>0.2650246457266198</v>
       </c>
       <c r="BM4">
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.130303093266529</v>
+        <v>0.1240685536533241</v>
       </c>
       <c r="BO4">
-        <v>0.1071995698550443</v>
+        <v>0.1064505682605435</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.02458959602752891</v>
+        <v>0.04345492529001422</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.1596966868608112</v>
+        <v>0.1464831392280928</v>
       </c>
       <c r="BY4">
-        <v>0.1929094490897473</v>
+        <v>0.1718100969124959</v>
       </c>
       <c r="BZ4">
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>0.01841581838406579</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.07015431403666381</v>
+        <v>0.07820107729521258</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>0.02293375192319098</v>
       </c>
       <c r="CF4">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="CK4">
-        <v>0</v>
+        <v>0.02186655322596052</v>
       </c>
       <c r="CL4">
-        <v>0</v>
+        <v>0.001290870100479924</v>
       </c>
       <c r="CM4">
         <v>0</v>
@@ -2069,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.3189991468844565</v>
+        <v>0.2336898113172486</v>
       </c>
       <c r="BM5">
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.1314918794280727</v>
+        <v>0.1112025191799319</v>
       </c>
       <c r="BO5">
-        <v>0.0445274657926594</v>
+        <v>0.05439386486476471</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.004580251324667567</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -2096,28 +2096,28 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.08262684512456164</v>
+        <v>0.07928191251103889</v>
       </c>
       <c r="BV5">
-        <v>0.002310451303870017</v>
+        <v>0.0268160122460308</v>
       </c>
       <c r="BW5">
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.005834915648710985</v>
+        <v>0.02911833417568353</v>
       </c>
       <c r="BY5">
-        <v>0.1665576772145265</v>
+        <v>0.1341089092935659</v>
       </c>
       <c r="BZ5">
-        <v>0.01238422005662102</v>
+        <v>0.03339660334994096</v>
       </c>
       <c r="CA5">
-        <v>0.01974688350495532</v>
+        <v>0.03820619137785376</v>
       </c>
       <c r="CB5">
-        <v>0.08663665177368317</v>
+        <v>0.08190127956335513</v>
       </c>
       <c r="CC5">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.06993614259254366</v>
+        <v>0.07099183496069192</v>
       </c>
       <c r="CF5">
-        <v>0.01704818519340365</v>
+        <v>0.03644329304883618</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.04189953548193547</v>
+        <v>0.05267719504149493</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>0.01319198774489511</v>
       </c>
       <c r="CN5">
         <v>0</v>
@@ -2356,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>0.007016055360800513</v>
       </c>
       <c r="BM6">
-        <v>0.3078220830066387</v>
+        <v>0.2458643402691434</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>0.01843510058539267</v>
       </c>
       <c r="BO6">
-        <v>0.2179890693795343</v>
+        <v>0.1815487905155795</v>
       </c>
       <c r="BP6">
-        <v>0.04240159810591734</v>
+        <v>0.05583771516773576</v>
       </c>
       <c r="BQ6">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>0.02259887692218544</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>0.02147335552144288</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -2395,28 +2395,28 @@
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.2200468602068337</v>
+        <v>0.1830220567791936</v>
       </c>
       <c r="BZ6">
-        <v>0.10926324804871</v>
+        <v>0.1037070184436039</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>0.01377828588351345</v>
       </c>
       <c r="CB6">
-        <v>0.005805538565271003</v>
+        <v>0.02963692780529697</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>0.007984312017009425</v>
       </c>
       <c r="CE6">
-        <v>0.09667160268709497</v>
+        <v>0.09469208550262731</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>0.005342249046014223</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>0.0006055708662412183</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>0.008457259314219791</v>
       </c>
       <c r="CM6">
         <v>0</v>
@@ -2943,97 +2943,97 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.3521473861397433</v>
+        <v>0.283583469067571</v>
       </c>
       <c r="BM2">
-        <v>0.3521473861397433</v>
+        <v>0.283583469067571</v>
       </c>
       <c r="BN2">
-        <v>0.5083868763634454</v>
+        <v>0.4229660065655447</v>
       </c>
       <c r="BO2">
-        <v>0.6094885296517735</v>
+        <v>0.5217635160143125</v>
       </c>
       <c r="BP2">
-        <v>0.6094885296517735</v>
+        <v>0.5217635160143125</v>
       </c>
       <c r="BQ2">
-        <v>0.6094885296517735</v>
+        <v>0.5217635160143125</v>
       </c>
       <c r="BR2">
-        <v>0.6479335164319266</v>
+        <v>0.5744416506554587</v>
       </c>
       <c r="BS2">
-        <v>0.6479335164319266</v>
+        <v>0.5801900359171043</v>
       </c>
       <c r="BT2">
-        <v>0.6479335164319266</v>
+        <v>0.5917516054842391</v>
       </c>
       <c r="BU2">
-        <v>0.6479335164319266</v>
+        <v>0.6119485382684969</v>
       </c>
       <c r="BV2">
-        <v>0.6479335164319266</v>
+        <v>0.6119485382684969</v>
       </c>
       <c r="BW2">
-        <v>0.6479335164319266</v>
+        <v>0.6119485382684969</v>
       </c>
       <c r="BX2">
-        <v>0.7861247187438798</v>
+        <v>0.7380463639995399</v>
       </c>
       <c r="BY2">
-        <v>0.9315366640622917</v>
+        <v>0.8694591254215989</v>
       </c>
       <c r="BZ2">
-        <v>0.9315366640622917</v>
+        <v>0.8694591254215989</v>
       </c>
       <c r="CA2">
-        <v>0.9362774278952133</v>
+        <v>0.8973287635797698</v>
       </c>
       <c r="CB2">
-        <v>0.9362774278952133</v>
+        <v>0.8973287635797698</v>
       </c>
       <c r="CC2">
-        <v>0.9362774278952133</v>
+        <v>0.8973287635797698</v>
       </c>
       <c r="CD2">
-        <v>0.9731013696725236</v>
+        <v>0.9488137038454</v>
       </c>
       <c r="CE2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CF2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CG2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CH2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CI2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CK2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CL2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CM2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CN2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CP2">
-        <v>1</v>
+        <v>0.9929929704397771</v>
       </c>
       <c r="CQ2">
         <v>1</v>
@@ -3050,280 +3050,280 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01136014060558081</v>
+        <v>0.03289943153416811</v>
       </c>
       <c r="E3">
-        <v>0.1947257213530762</v>
+        <v>0.166218374463388</v>
       </c>
       <c r="F3">
-        <v>0.2014119664809913</v>
+        <v>0.196389111487711</v>
       </c>
       <c r="G3">
-        <v>0.4663135122297754</v>
+        <v>0.3773100474689995</v>
       </c>
       <c r="H3">
-        <v>0.4931884857793406</v>
+        <v>0.4192672852116535</v>
       </c>
       <c r="I3">
-        <v>0.4931884857793406</v>
+        <v>0.4192672852116535</v>
       </c>
       <c r="J3">
-        <v>0.4931884857793406</v>
+        <v>0.4192672852116535</v>
       </c>
       <c r="K3">
-        <v>0.4931884857793406</v>
+        <v>0.4389606351654171</v>
       </c>
       <c r="L3">
-        <v>0.4931884857793406</v>
+        <v>0.4389606351654171</v>
       </c>
       <c r="M3">
-        <v>0.4931884857793406</v>
+        <v>0.4389606351654171</v>
       </c>
       <c r="N3">
-        <v>0.4931884857793406</v>
+        <v>0.442393370002715</v>
       </c>
       <c r="O3">
-        <v>0.5773066769177307</v>
+        <v>0.5177701085251566</v>
       </c>
       <c r="P3">
-        <v>0.6207338703239189</v>
+        <v>0.5693907954536861</v>
       </c>
       <c r="Q3">
-        <v>0.68010342151659</v>
+        <v>0.6303188843927732</v>
       </c>
       <c r="R3">
-        <v>0.7122234376410591</v>
+        <v>0.6753382614037172</v>
       </c>
       <c r="S3">
-        <v>0.7122234376410591</v>
+        <v>0.6787709962410151</v>
       </c>
       <c r="T3">
-        <v>0.7122234376410591</v>
+        <v>0.6787709962410151</v>
       </c>
       <c r="U3">
-        <v>0.7827623095258427</v>
+        <v>0.7462199122283117</v>
       </c>
       <c r="V3">
-        <v>0.8014532661222443</v>
+        <v>0.7833991907214939</v>
       </c>
       <c r="W3">
-        <v>0.8014532661222443</v>
+        <v>0.7833991907214939</v>
       </c>
       <c r="X3">
-        <v>0.8014532661222443</v>
+        <v>0.7833991907214939</v>
       </c>
       <c r="Y3">
-        <v>0.8895392056061917</v>
+        <v>0.8610923638280431</v>
       </c>
       <c r="Z3">
-        <v>0.8895392056061917</v>
+        <v>0.8610923638280431</v>
       </c>
       <c r="AA3">
-        <v>0.9084738782589497</v>
+        <v>0.898413927630796</v>
       </c>
       <c r="AB3">
-        <v>0.9084738782589497</v>
+        <v>0.898413927630796</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9781155338490141</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9897468545668557</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9897468545668557</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9897468545668557</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9897468545668557</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9897468545668557</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:95">
@@ -3517,100 +3517,100 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.3151472908636754</v>
+        <v>0.2650246457266198</v>
       </c>
       <c r="BM4">
-        <v>0.3151472908636754</v>
+        <v>0.2650246457266198</v>
       </c>
       <c r="BN4">
-        <v>0.4454503841302044</v>
+        <v>0.3890931993799439</v>
       </c>
       <c r="BO4">
-        <v>0.5526499539852487</v>
+        <v>0.4955437676404874</v>
       </c>
       <c r="BP4">
-        <v>0.5526499539852487</v>
+        <v>0.4955437676404874</v>
       </c>
       <c r="BQ4">
-        <v>0.5526499539852487</v>
+        <v>0.4955437676404874</v>
       </c>
       <c r="BR4">
-        <v>0.5526499539852487</v>
+        <v>0.4955437676404874</v>
       </c>
       <c r="BS4">
-        <v>0.5526499539852487</v>
+        <v>0.4955437676404874</v>
       </c>
       <c r="BT4">
-        <v>0.5526499539852487</v>
+        <v>0.4955437676404874</v>
       </c>
       <c r="BU4">
-        <v>0.5772395500127776</v>
+        <v>0.5389986929305016</v>
       </c>
       <c r="BV4">
-        <v>0.5772395500127776</v>
+        <v>0.5389986929305016</v>
       </c>
       <c r="BW4">
-        <v>0.5772395500127776</v>
+        <v>0.5389986929305016</v>
       </c>
       <c r="BX4">
-        <v>0.7369362368735888</v>
+        <v>0.6854818321585944</v>
       </c>
       <c r="BY4">
-        <v>0.9298456859633361</v>
+        <v>0.8572919290710903</v>
       </c>
       <c r="BZ4">
-        <v>0.9298456859633361</v>
+        <v>0.8572919290710903</v>
       </c>
       <c r="CA4">
-        <v>0.9298456859633361</v>
+        <v>0.8757077474551561</v>
       </c>
       <c r="CB4">
-        <v>0.9298456859633361</v>
+        <v>0.8757077474551561</v>
       </c>
       <c r="CC4">
-        <v>0.9298456859633361</v>
+        <v>0.8757077474551561</v>
       </c>
       <c r="CD4">
-        <v>0.9999999999999999</v>
+        <v>0.9539088247503686</v>
       </c>
       <c r="CE4">
-        <v>0.9999999999999999</v>
+        <v>0.9768425766735597</v>
       </c>
       <c r="CF4">
-        <v>0.9999999999999999</v>
+        <v>0.9768425766735597</v>
       </c>
       <c r="CG4">
-        <v>0.9999999999999999</v>
+        <v>0.9768425766735597</v>
       </c>
       <c r="CH4">
-        <v>0.9999999999999999</v>
+        <v>0.9768425766735597</v>
       </c>
       <c r="CI4">
-        <v>0.9999999999999999</v>
+        <v>0.9768425766735597</v>
       </c>
       <c r="CJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9768425766735597</v>
       </c>
       <c r="CK4">
-        <v>0.9999999999999999</v>
+        <v>0.9987091298995202</v>
       </c>
       <c r="CL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:95">
@@ -3804,85 +3804,85 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.3189991468844565</v>
+        <v>0.2336898113172486</v>
       </c>
       <c r="BM5">
-        <v>0.3189991468844565</v>
+        <v>0.2336898113172486</v>
       </c>
       <c r="BN5">
-        <v>0.4504910263125291</v>
+        <v>0.3448923304971805</v>
       </c>
       <c r="BO5">
-        <v>0.4950184921051886</v>
+        <v>0.3992861953619452</v>
       </c>
       <c r="BP5">
-        <v>0.4950184921051886</v>
+        <v>0.3992861953619452</v>
       </c>
       <c r="BQ5">
-        <v>0.4950184921051886</v>
+        <v>0.3992861953619452</v>
       </c>
       <c r="BR5">
-        <v>0.4950184921051886</v>
+        <v>0.4038664466866128</v>
       </c>
       <c r="BS5">
-        <v>0.4950184921051886</v>
+        <v>0.4038664466866128</v>
       </c>
       <c r="BT5">
-        <v>0.4950184921051886</v>
+        <v>0.4038664466866128</v>
       </c>
       <c r="BU5">
-        <v>0.5776453372297502</v>
+        <v>0.4831483591976516</v>
       </c>
       <c r="BV5">
-        <v>0.5799557885336202</v>
+        <v>0.5099643714436825</v>
       </c>
       <c r="BW5">
-        <v>0.5799557885336202</v>
+        <v>0.5099643714436825</v>
       </c>
       <c r="BX5">
-        <v>0.5857907041823311</v>
+        <v>0.539082705619366</v>
       </c>
       <c r="BY5">
-        <v>0.7523483813968577</v>
+        <v>0.673191614912932</v>
       </c>
       <c r="BZ5">
-        <v>0.7647326014534787</v>
+        <v>0.706588218262873</v>
       </c>
       <c r="CA5">
-        <v>0.784479484958434</v>
+        <v>0.7447944096407267</v>
       </c>
       <c r="CB5">
-        <v>0.8711161367321172</v>
+        <v>0.8266956892040819</v>
       </c>
       <c r="CC5">
-        <v>0.8711161367321172</v>
+        <v>0.8266956892040819</v>
       </c>
       <c r="CD5">
-        <v>0.8711161367321172</v>
+        <v>0.8266956892040819</v>
       </c>
       <c r="CE5">
-        <v>0.9410522793246608</v>
+        <v>0.8976875241647738</v>
       </c>
       <c r="CF5">
-        <v>0.9581004645180645</v>
+        <v>0.93413081721361</v>
       </c>
       <c r="CG5">
-        <v>0.9581004645180645</v>
+        <v>0.93413081721361</v>
       </c>
       <c r="CH5">
-        <v>0.9581004645180645</v>
+        <v>0.93413081721361</v>
       </c>
       <c r="CI5">
-        <v>0.9581004645180645</v>
+        <v>0.93413081721361</v>
       </c>
       <c r="CJ5">
-        <v>1</v>
+        <v>0.9868080122551049</v>
       </c>
       <c r="CK5">
-        <v>1</v>
+        <v>0.9868080122551049</v>
       </c>
       <c r="CL5">
-        <v>1</v>
+        <v>0.9868080122551049</v>
       </c>
       <c r="CM5">
         <v>1</v>
@@ -4091,100 +4091,100 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>0.007016055360800513</v>
       </c>
       <c r="BM6">
-        <v>0.3078220830066387</v>
+        <v>0.2528803956299439</v>
       </c>
       <c r="BN6">
-        <v>0.3078220830066387</v>
+        <v>0.2713154962153366</v>
       </c>
       <c r="BO6">
-        <v>0.5258111523861729</v>
+        <v>0.4528642867309161</v>
       </c>
       <c r="BP6">
-        <v>0.5682127504920903</v>
+        <v>0.5087020018986518</v>
       </c>
       <c r="BQ6">
-        <v>0.5682127504920903</v>
+        <v>0.5087020018986518</v>
       </c>
       <c r="BR6">
-        <v>0.5682127504920903</v>
+        <v>0.5087020018986518</v>
       </c>
       <c r="BS6">
-        <v>0.5682127504920903</v>
+        <v>0.5087020018986518</v>
       </c>
       <c r="BT6">
-        <v>0.5682127504920903</v>
+        <v>0.5087020018986518</v>
       </c>
       <c r="BU6">
-        <v>0.5682127504920903</v>
+        <v>0.5313008788208372</v>
       </c>
       <c r="BV6">
-        <v>0.5682127504920903</v>
+        <v>0.5527742343422801</v>
       </c>
       <c r="BW6">
-        <v>0.5682127504920903</v>
+        <v>0.5527742343422801</v>
       </c>
       <c r="BX6">
-        <v>0.5682127504920903</v>
+        <v>0.5527742343422801</v>
       </c>
       <c r="BY6">
-        <v>0.7882596106989239</v>
+        <v>0.7357962911214737</v>
       </c>
       <c r="BZ6">
-        <v>0.8975228587476338</v>
+        <v>0.8395033095650776</v>
       </c>
       <c r="CA6">
-        <v>0.8975228587476338</v>
+        <v>0.8532815954485911</v>
       </c>
       <c r="CB6">
-        <v>0.9033283973129048</v>
+        <v>0.882918523253888</v>
       </c>
       <c r="CC6">
-        <v>0.9033283973129048</v>
+        <v>0.882918523253888</v>
       </c>
       <c r="CD6">
-        <v>0.9033283973129048</v>
+        <v>0.8909028352708974</v>
       </c>
       <c r="CE6">
-        <v>0.9999999999999998</v>
+        <v>0.9855949207735247</v>
       </c>
       <c r="CF6">
-        <v>0.9999999999999998</v>
+        <v>0.9909371698195389</v>
       </c>
       <c r="CG6">
-        <v>0.9999999999999998</v>
+        <v>0.9909371698195389</v>
       </c>
       <c r="CH6">
-        <v>0.9999999999999998</v>
+        <v>0.9909371698195389</v>
       </c>
       <c r="CI6">
-        <v>0.9999999999999998</v>
+        <v>0.9909371698195389</v>
       </c>
       <c r="CJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9909371698195389</v>
       </c>
       <c r="CK6">
-        <v>0.9999999999999998</v>
+        <v>0.9915427406857802</v>
       </c>
       <c r="CL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4252,16 +4252,16 @@
         <v>61</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5083868763634454</v>
+        <v>0.5217635160143125</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5773066769177307</v>
+        <v>0.5177701085251566</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -4334,16 +4334,16 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5526499539852487</v>
+        <v>0.5389986929305016</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -4375,16 +4375,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5776453372297502</v>
+        <v>0.5099643714436825</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -4416,16 +4416,16 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5258111523861729</v>
+        <v>0.5087020018986518</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7861247187438798</v>
+        <v>0.7380463639995399</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -4552,16 +4552,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7122234376410591</v>
+        <v>0.7462199122283117</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -4593,16 +4593,16 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7369362368735888</v>
+        <v>0.8572919290710903</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -4634,16 +4634,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7523483813968577</v>
+        <v>0.706588218262873</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7882596106989239</v>
+        <v>0.7357962911214737</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9315366640622917</v>
+        <v>0.8694591254215989</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -4811,16 +4811,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8014532661222443</v>
+        <v>0.8610923638280431</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9298456859633361</v>
+        <v>0.8572919290710903</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8711161367321172</v>
+        <v>0.8266956892040819</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8975228587476338</v>
+        <v>0.8395033095650776</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -5029,16 +5029,16 @@
         <v>61</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9315366640622917</v>
+        <v>0.9488137038454</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -5070,16 +5070,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9781155338490141</v>
+      </c>
+      <c r="G3">
         <v>26</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9084738782589497</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -5111,16 +5111,16 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9298456859633361</v>
+        <v>0.9539088247503686</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -5152,16 +5152,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9410522793246608</v>
+        <v>0.93413081721361</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -5193,16 +5193,16 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9033283973129048</v>
+        <v>0.9855949207735247</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>31</v>
